--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
   </si>
   <si>
     <t>Reason</t>
@@ -232,7 +244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -684,6 +696,62 @@
       </c>
       <c r="D32" t="n" s="0">
         <v>25.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>
@@ -701,41 +769,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>8.0</v>
@@ -743,13 +811,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>4.0</v>
@@ -757,13 +825,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>13.0</v>
@@ -771,27 +839,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -799,13 +867,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>4.0</v>
@@ -826,16 +894,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -853,18 +921,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -161,22 +161,22 @@
     <t>Not found (404)</t>
   </si>
   <si>
+    <t>Excluded by ‘noindex’ tag</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
     <t>Page with redirect</t>
   </si>
   <si>
-    <t>Excluded by ‘noindex’ tag</t>
-  </si>
-  <si>
-    <t>Not Started</t>
+    <t>Started</t>
   </si>
   <si>
     <t>Duplicate, Google chose different canonical than user</t>
   </si>
   <si>
     <t>Google systems</t>
-  </si>
-  <si>
-    <t>Started</t>
   </si>
   <si>
     <t>Discovered - currently not indexed</t>
@@ -817,35 +817,35 @@
         <v>45</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>45</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>53</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>41.0</v>
@@ -856,10 +856,10 @@
         <v>54</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -870,10 +870,10 @@
         <v>55</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>4.0</v>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,15 @@
     <t>2025-11-08</t>
   </si>
   <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -179,10 +188,10 @@
     <t>Google systems</t>
   </si>
   <si>
+    <t>Crawled - currently not indexed</t>
+  </si>
+  <si>
     <t>Discovered - currently not indexed</t>
-  </si>
-  <si>
-    <t>Crawled - currently not indexed</t>
   </si>
   <si>
     <t>Property</t>
@@ -244,7 +253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -752,6 +761,48 @@
       </c>
       <c r="D36" t="n" s="0">
         <v>17.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
@@ -769,55 +820,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>45</v>
-      </c>
       <c r="C4" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>13.0</v>
@@ -825,13 +876,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>4.0</v>
@@ -839,13 +890,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>41.0</v>
@@ -853,30 +904,30 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>51</v>
-      </c>
       <c r="D7" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -894,16 +945,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -921,18 +972,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,18 @@
     <t>2025-11-11</t>
   </si>
   <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -158,28 +170,31 @@
     <t>Pages</t>
   </si>
   <si>
+    <t>Not found (404)</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Excluded by ‘noindex’ tag</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Blocked by robots.txt</t>
+  </si>
+  <si>
     <t>Alternate page with proper canonical tag</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Not found (404)</t>
-  </si>
-  <si>
-    <t>Excluded by ‘noindex’ tag</t>
-  </si>
-  <si>
-    <t>Not Started</t>
+    <t>Started</t>
   </si>
   <si>
     <t>Page with redirect</t>
-  </si>
-  <si>
-    <t>Started</t>
   </si>
   <si>
     <t>Duplicate, Google chose different canonical than user</t>
@@ -253,7 +268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -805,6 +820,62 @@
         <v>26.0</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>202.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>202.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>202.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>202.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>18.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -812,7 +883,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -820,114 +891,128 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>41.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>7.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>54</v>
-      </c>
       <c r="D8" t="n" s="0">
-        <v>5.0</v>
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -945,16 +1030,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -972,18 +1057,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,15 @@
     <t>2025-11-15</t>
   </si>
   <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -179,12 +188,21 @@
     <t>Failed</t>
   </si>
   <si>
+    <t>Duplicate, Google chose different canonical than user</t>
+  </si>
+  <si>
+    <t>Google systems</t>
+  </si>
+  <si>
     <t>Excluded by ‘noindex’ tag</t>
   </si>
   <si>
     <t>Not Started</t>
   </si>
   <si>
+    <t>Server error (5xx)</t>
+  </si>
+  <si>
     <t>Blocked by robots.txt</t>
   </si>
   <si>
@@ -195,12 +213,6 @@
   </si>
   <si>
     <t>Page with redirect</t>
-  </si>
-  <si>
-    <t>Duplicate, Google chose different canonical than user</t>
-  </si>
-  <si>
-    <t>Google systems</t>
   </si>
   <si>
     <t>Crawled - currently not indexed</t>
@@ -268,7 +280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -876,6 +888,48 @@
         <v>18.0</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>31.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -883,7 +937,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -891,128 +945,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>14.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>30.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="D9" t="n" s="0">
-        <v>4.0</v>
+      <c r="C10" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -1030,16 +1098,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1057,18 +1125,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,18 @@
     <t>2025-11-18</t>
   </si>
   <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -179,15 +191,18 @@
     <t>Pages</t>
   </si>
   <si>
+    <t>Alternate page with proper canonical tag</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Not found (404)</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Duplicate, Google chose different canonical than user</t>
   </si>
   <si>
@@ -206,13 +221,10 @@
     <t>Blocked by robots.txt</t>
   </si>
   <si>
-    <t>Alternate page with proper canonical tag</t>
+    <t>Page with redirect</t>
   </si>
   <si>
     <t>Started</t>
-  </si>
-  <si>
-    <t>Page with redirect</t>
   </si>
   <si>
     <t>Crawled - currently not indexed</t>
@@ -280,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -928,6 +940,62 @@
       </c>
       <c r="D46" t="n" s="0">
         <v>31.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>213.0</v>
+      </c>
+      <c r="D47" t="n" s="0">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>213.0</v>
+      </c>
+      <c r="D48" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>213.0</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>213.0</v>
+      </c>
+      <c r="D50" t="n" s="0">
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>
@@ -945,83 +1013,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>17.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>60</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>15.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>1.0</v>
@@ -1029,55 +1097,55 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>34.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>2.0</v>
@@ -1098,16 +1166,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1125,18 +1193,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -203,28 +203,28 @@
     <t>Not found (404)</t>
   </si>
   <si>
+    <t>Excluded by ‘noindex’ tag</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Blocked by robots.txt</t>
+  </si>
+  <si>
+    <t>Page with redirect</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Server error (5xx)</t>
+  </si>
+  <si>
     <t>Duplicate, Google chose different canonical than user</t>
   </si>
   <si>
     <t>Google systems</t>
-  </si>
-  <si>
-    <t>Excluded by ‘noindex’ tag</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Server error (5xx)</t>
-  </si>
-  <si>
-    <t>Blocked by robots.txt</t>
-  </si>
-  <si>
-    <t>Page with redirect</t>
-  </si>
-  <si>
-    <t>Started</t>
   </si>
   <si>
     <t>Crawled - currently not indexed</t>
@@ -1058,13 +1058,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="D4" t="n" s="0">
-        <v>36.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
@@ -1075,24 +1075,24 @@
         <v>59</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>59</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1103,7 +1103,7 @@
         <v>59</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>1.0</v>
@@ -1114,13 +1114,13 @@
         <v>68</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>2.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="9">
@@ -1128,10 +1128,10 @@
         <v>70</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>9.0</v>
@@ -1142,10 +1142,10 @@
         <v>71</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>2.0</v>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +179,75 @@
     <t>2025-11-22</t>
   </si>
   <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -203,6 +272,12 @@
     <t>Not found (404)</t>
   </si>
   <si>
+    <t>Crawled - currently not indexed</t>
+  </si>
+  <si>
+    <t>Google systems</t>
+  </si>
+  <si>
     <t>Excluded by ‘noindex’ tag</t>
   </si>
   <si>
@@ -218,16 +293,13 @@
     <t>Started</t>
   </si>
   <si>
+    <t>Duplicate, Google chose different canonical than user</t>
+  </si>
+  <si>
     <t>Server error (5xx)</t>
   </si>
   <si>
-    <t>Duplicate, Google chose different canonical than user</t>
-  </si>
-  <si>
-    <t>Google systems</t>
-  </si>
-  <si>
-    <t>Crawled - currently not indexed</t>
+    <t>Passed</t>
   </si>
   <si>
     <t>Discovered - currently not indexed</t>
@@ -292,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -996,6 +1068,328 @@
       </c>
       <c r="D50" t="n" s="0">
         <v>24.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D51" t="n" s="0">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C52" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D52" t="n" s="0">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C53" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D53" t="n" s="0">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C54" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D54" t="n" s="0">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C55" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D55" t="n" s="0">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C56" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D56" t="n" s="0">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C57" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D57" t="n" s="0">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C58" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D58" t="n" s="0">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C59" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D59" t="n" s="0">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C60" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D60" t="n" s="0">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C61" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D61" t="n" s="0">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C62" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D62" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C63" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D63" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D64" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D65" t="n" s="0">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C66" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D66" t="n" s="0">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C67" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D67" t="n" s="0">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C68" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D68" t="n" s="0">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C69" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D69" t="n" s="0">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C70" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D70" t="n" s="0">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C71" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D71" t="n" s="0">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C72" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D72" t="n" s="0">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="C73" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="D73" t="n" s="0">
+        <v>55.0</v>
       </c>
     </row>
   </sheetData>
@@ -1013,142 +1407,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>40.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>21.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1166,16 +1560,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1193,18 +1587,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -260,40 +260,37 @@
     <t>Pages</t>
   </si>
   <si>
+    <t>Excluded by ‘noindex’ tag</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Blocked by robots.txt</t>
+  </si>
+  <si>
     <t>Alternate page with proper canonical tag</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Failed</t>
+    <t>Started</t>
   </si>
   <si>
     <t>Not found (404)</t>
   </si>
   <si>
+    <t>Page with redirect</t>
+  </si>
+  <si>
+    <t>Duplicate, Google chose different canonical than user</t>
+  </si>
+  <si>
+    <t>Google systems</t>
+  </si>
+  <si>
     <t>Crawled - currently not indexed</t>
-  </si>
-  <si>
-    <t>Google systems</t>
-  </si>
-  <si>
-    <t>Excluded by ‘noindex’ tag</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Blocked by robots.txt</t>
-  </si>
-  <si>
-    <t>Page with redirect</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>Duplicate, Google chose different canonical than user</t>
   </si>
   <si>
     <t>Server error (5xx)</t>
@@ -1430,7 +1427,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>62.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="3">
@@ -1444,7 +1441,7 @@
         <v>83</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>51.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1452,13 +1449,13 @@
         <v>85</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>83</v>
-      </c>
       <c r="D4" t="n" s="0">
-        <v>9.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="5">
@@ -1469,63 +1466,63 @@
         <v>82</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>17.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>82</v>
-      </c>
       <c r="C7" t="s" s="0">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>91</v>
-      </c>
       <c r="D8" t="n" s="0">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>82</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1533,13 +1530,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>0.0</v>
@@ -1587,18 +1584,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -248,6 +248,30 @@
     <t>2025-12-15</t>
   </si>
   <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -260,37 +284,37 @@
     <t>Pages</t>
   </si>
   <si>
+    <t>Alternate page with proper canonical tag</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Not found (404)</t>
+  </si>
+  <si>
+    <t>Page with redirect</t>
+  </si>
+  <si>
+    <t>Duplicate, Google chose different canonical than user</t>
+  </si>
+  <si>
+    <t>Google systems</t>
+  </si>
+  <si>
+    <t>Crawled - currently not indexed</t>
+  </si>
+  <si>
     <t>Excluded by ‘noindex’ tag</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
     <t>Not Started</t>
   </si>
   <si>
     <t>Blocked by robots.txt</t>
-  </si>
-  <si>
-    <t>Alternate page with proper canonical tag</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>Not found (404)</t>
-  </si>
-  <si>
-    <t>Page with redirect</t>
-  </si>
-  <si>
-    <t>Duplicate, Google chose different canonical than user</t>
-  </si>
-  <si>
-    <t>Google systems</t>
-  </si>
-  <si>
-    <t>Crawled - currently not indexed</t>
   </si>
   <si>
     <t>Server error (5xx)</t>
@@ -361,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1387,6 +1411,118 @@
       </c>
       <c r="D73" t="n" s="0">
         <v>55.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C74" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D74" t="n" s="0">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C75" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D75" t="n" s="0">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C76" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D76" t="n" s="0">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C77" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D77" t="n" s="0">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C78" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D78" t="n" s="0">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C79" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D79" t="n" s="0">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D80" t="n" s="0">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>54.0</v>
       </c>
     </row>
   </sheetData>
@@ -1404,125 +1540,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>17.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>1.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>62.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>51.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>90</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>90</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1530,13 +1666,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>0.0</v>
@@ -1557,16 +1693,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1584,18 +1720,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-05</t>
+    <t>2025-10-06</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-06</t>
   </si>
   <si>
     <t>2025-10-07</t>
@@ -385,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -423,14 +420,14 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>3.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -438,13 +435,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>1.0</v>
+        <v>233.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
@@ -458,7 +455,7 @@
         <v>26.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
@@ -472,7 +469,7 @@
         <v>26.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +483,7 @@
         <v>26.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -494,13 +491,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>233.0</v>
+        <v>203.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>26.0</v>
+        <v>56.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
@@ -514,7 +511,7 @@
         <v>56.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +525,7 @@
         <v>56.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
@@ -536,13 +533,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>203.0</v>
+        <v>194.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
@@ -556,7 +553,7 @@
         <v>75.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
@@ -570,7 +567,7 @@
         <v>75.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
@@ -584,7 +581,7 @@
         <v>75.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
@@ -592,13 +589,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="16">
@@ -626,7 +623,7 @@
         <v>107.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
@@ -634,13 +631,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="19">
@@ -654,7 +651,7 @@
         <v>136.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
@@ -668,7 +665,7 @@
         <v>136.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
@@ -690,13 +687,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
@@ -710,7 +707,7 @@
         <v>153.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="24">
@@ -724,7 +721,7 @@
         <v>153.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="25">
@@ -732,13 +729,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="26">
@@ -752,7 +749,7 @@
         <v>181.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="27">
@@ -766,7 +763,7 @@
         <v>181.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="28">
@@ -780,7 +777,7 @@
         <v>181.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="29">
@@ -788,13 +785,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
@@ -808,7 +805,7 @@
         <v>203.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="31">
@@ -822,7 +819,7 @@
         <v>203.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="32">
@@ -830,13 +827,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="33">
@@ -850,7 +847,7 @@
         <v>205.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="34">
@@ -864,7 +861,7 @@
         <v>205.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="35">
@@ -878,7 +875,7 @@
         <v>205.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="36">
@@ -886,13 +883,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C36" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="37">
@@ -906,7 +903,7 @@
         <v>205.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="38">
@@ -920,7 +917,7 @@
         <v>205.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
@@ -928,13 +925,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="40">
@@ -948,7 +945,7 @@
         <v>202.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +959,7 @@
         <v>202.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
@@ -976,7 +973,7 @@
         <v>202.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="43">
@@ -984,13 +981,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="44">
@@ -1004,7 +1001,7 @@
         <v>208.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="45">
@@ -1018,7 +1015,7 @@
         <v>208.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="46">
@@ -1026,13 +1023,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="47">
@@ -1046,7 +1043,7 @@
         <v>213.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="48">
@@ -1060,7 +1057,7 @@
         <v>213.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="49">
@@ -1074,7 +1071,7 @@
         <v>213.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="50">
@@ -1082,13 +1079,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="51">
@@ -1102,7 +1099,7 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="52">
@@ -1116,7 +1113,7 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="53">
@@ -1130,7 +1127,7 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="54">
@@ -1144,7 +1141,7 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="55">
@@ -1158,7 +1155,7 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="56">
@@ -1172,7 +1169,7 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="57">
@@ -1186,7 +1183,7 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="58">
@@ -1200,7 +1197,7 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="59">
@@ -1214,7 +1211,7 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="60">
@@ -1228,7 +1225,7 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="61">
@@ -1242,7 +1239,7 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="62">
@@ -1256,7 +1253,7 @@
         <v>225.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="63">
@@ -1284,7 +1281,7 @@
         <v>225.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="65">
@@ -1298,7 +1295,7 @@
         <v>225.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="66">
@@ -1312,7 +1309,7 @@
         <v>225.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="67">
@@ -1326,7 +1323,7 @@
         <v>225.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="68">
@@ -1340,7 +1337,7 @@
         <v>225.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="69">
@@ -1354,7 +1351,7 @@
         <v>225.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="70">
@@ -1368,7 +1365,7 @@
         <v>225.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="71">
@@ -1382,7 +1379,7 @@
         <v>225.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="72">
@@ -1396,7 +1393,7 @@
         <v>225.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="73">
@@ -1404,13 +1401,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,7 +1421,7 @@
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="75">
@@ -1438,7 +1435,7 @@
         <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="76">
@@ -1452,7 +1449,7 @@
         <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="77">
@@ -1466,7 +1463,7 @@
         <v>231.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="78">
@@ -1480,7 +1477,7 @@
         <v>231.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="79">
@@ -1494,7 +1491,7 @@
         <v>231.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="80">
@@ -1508,20 +1505,6 @@
         <v>231.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B81" t="n" s="0">
-        <v>200.0</v>
-      </c>
-      <c r="C81" t="n" s="0">
-        <v>231.0</v>
-      </c>
-      <c r="D81" t="n" s="0">
         <v>54.0</v>
       </c>
     </row>
@@ -1540,27 +1523,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>91</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>73.0</v>
@@ -1568,13 +1551,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>91</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>56.0</v>
@@ -1582,13 +1565,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>91</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>25.0</v>
@@ -1596,13 +1579,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>95</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>19.0</v>
@@ -1610,13 +1593,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>8.0</v>
@@ -1624,13 +1607,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>18.0</v>
@@ -1638,13 +1621,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1652,13 +1635,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>101</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1666,13 +1649,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>0.0</v>
@@ -1693,16 +1676,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1720,18 +1703,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-06</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-07</t>
@@ -382,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -406,33 +400,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>3.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>1.0</v>
+        <v>233.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>233.0</v>
@@ -441,12 +435,12 @@
         <v>26.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>233.0</v>
@@ -455,12 +449,12 @@
         <v>26.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>233.0</v>
@@ -469,26 +463,26 @@
         <v>26.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>233.0</v>
+        <v>203.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>26.0</v>
+        <v>56.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>203.0</v>
@@ -497,12 +491,12 @@
         <v>56.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>203.0</v>
@@ -511,26 +505,26 @@
         <v>56.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>203.0</v>
+        <v>194.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>194.0</v>
@@ -539,12 +533,12 @@
         <v>75.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>194.0</v>
@@ -553,12 +547,12 @@
         <v>75.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>194.0</v>
@@ -567,26 +561,26 @@
         <v>75.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>169.0</v>
@@ -600,7 +594,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>169.0</v>
@@ -609,26 +603,26 @@
         <v>107.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>148.0</v>
@@ -637,12 +631,12 @@
         <v>136.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>148.0</v>
@@ -651,12 +645,12 @@
         <v>136.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>148.0</v>
@@ -670,21 +664,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>132.0</v>
@@ -693,12 +687,12 @@
         <v>153.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>132.0</v>
@@ -707,26 +701,26 @@
         <v>153.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>113.0</v>
@@ -735,12 +729,12 @@
         <v>181.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>113.0</v>
@@ -749,12 +743,12 @@
         <v>181.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>113.0</v>
@@ -763,26 +757,26 @@
         <v>181.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>100.0</v>
@@ -791,12 +785,12 @@
         <v>203.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>100.0</v>
@@ -805,26 +799,26 @@
         <v>203.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>102.0</v>
@@ -833,12 +827,12 @@
         <v>205.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>102.0</v>
@@ -847,12 +841,12 @@
         <v>205.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>102.0</v>
@@ -861,26 +855,26 @@
         <v>205.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C35" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>106.0</v>
@@ -889,12 +883,12 @@
         <v>205.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>106.0</v>
@@ -903,26 +897,26 @@
         <v>205.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>118.0</v>
@@ -931,12 +925,12 @@
         <v>202.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>118.0</v>
@@ -945,12 +939,12 @@
         <v>202.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>118.0</v>
@@ -959,26 +953,26 @@
         <v>202.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>122.0</v>
@@ -987,12 +981,12 @@
         <v>208.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>122.0</v>
@@ -1001,26 +995,26 @@
         <v>208.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>127.0</v>
@@ -1029,12 +1023,12 @@
         <v>213.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>127.0</v>
@@ -1043,12 +1037,12 @@
         <v>213.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>127.0</v>
@@ -1057,26 +1051,26 @@
         <v>213.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1085,12 +1079,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1099,12 +1093,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1113,12 +1107,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1127,12 +1121,12 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>180.0</v>
@@ -1141,12 +1135,12 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>180.0</v>
@@ -1155,12 +1149,12 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>180.0</v>
@@ -1169,12 +1163,12 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>180.0</v>
@@ -1183,12 +1177,12 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>180.0</v>
@@ -1197,12 +1191,12 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>180.0</v>
@@ -1211,12 +1205,12 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>180.0</v>
@@ -1225,12 +1219,12 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>180.0</v>
@@ -1239,12 +1233,12 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>180.0</v>
@@ -1258,7 +1252,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>180.0</v>
@@ -1267,12 +1261,12 @@
         <v>225.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>180.0</v>
@@ -1281,12 +1275,12 @@
         <v>225.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>180.0</v>
@@ -1295,12 +1289,12 @@
         <v>225.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>180.0</v>
@@ -1309,12 +1303,12 @@
         <v>225.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>180.0</v>
@@ -1323,12 +1317,12 @@
         <v>225.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>180.0</v>
@@ -1337,12 +1331,12 @@
         <v>225.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>180.0</v>
@@ -1351,12 +1345,12 @@
         <v>225.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>180.0</v>
@@ -1365,12 +1359,12 @@
         <v>225.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>180.0</v>
@@ -1379,26 +1373,26 @@
         <v>225.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>200.0</v>
@@ -1407,12 +1401,12 @@
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>200.0</v>
@@ -1421,12 +1415,12 @@
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>200.0</v>
@@ -1435,12 +1429,12 @@
         <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>200.0</v>
@@ -1449,12 +1443,12 @@
         <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>200.0</v>
@@ -1463,12 +1457,12 @@
         <v>231.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>200.0</v>
@@ -1477,12 +1471,12 @@
         <v>231.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>200.0</v>
@@ -1491,20 +1485,6 @@
         <v>231.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B80" t="n" s="0">
-        <v>200.0</v>
-      </c>
-      <c r="C80" t="n" s="0">
-        <v>231.0</v>
-      </c>
-      <c r="D80" t="n" s="0">
         <v>54.0</v>
       </c>
     </row>
@@ -1523,27 +1503,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>88</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>90</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>73.0</v>
@@ -1551,13 +1531,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>56.0</v>
@@ -1565,13 +1545,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>25.0</v>
@@ -1579,13 +1559,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>19.0</v>
@@ -1593,13 +1573,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>8.0</v>
@@ -1607,13 +1587,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>18.0</v>
@@ -1621,13 +1601,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1635,13 +1615,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1649,13 +1629,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>0.0</v>
@@ -1676,16 +1656,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1703,18 +1683,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
     <t>2025-10-08</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-10-09</t>
   </si>
   <si>
@@ -261,6 +261,39 @@
   </si>
   <si>
     <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
   </si>
   <si>
     <t>Reason</t>
@@ -376,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -400,47 +433,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>3.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>233.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>26.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>233.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>26.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>233.0</v>
@@ -449,26 +482,26 @@
         <v>26.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>233.0</v>
+        <v>203.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>26.0</v>
+        <v>56.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>203.0</v>
@@ -477,12 +510,12 @@
         <v>56.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>203.0</v>
@@ -491,26 +524,26 @@
         <v>56.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>203.0</v>
+        <v>194.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>194.0</v>
@@ -519,12 +552,12 @@
         <v>75.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>194.0</v>
@@ -533,12 +566,12 @@
         <v>75.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>194.0</v>
@@ -547,26 +580,26 @@
         <v>75.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>169.0</v>
@@ -580,7 +613,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>169.0</v>
@@ -589,26 +622,26 @@
         <v>107.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>148.0</v>
@@ -617,12 +650,12 @@
         <v>136.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>148.0</v>
@@ -631,12 +664,12 @@
         <v>136.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>148.0</v>
@@ -650,21 +683,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>132.0</v>
@@ -673,12 +706,12 @@
         <v>153.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>132.0</v>
@@ -687,26 +720,26 @@
         <v>153.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>113.0</v>
@@ -715,12 +748,12 @@
         <v>181.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>113.0</v>
@@ -729,12 +762,12 @@
         <v>181.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>113.0</v>
@@ -743,26 +776,26 @@
         <v>181.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>100.0</v>
@@ -771,12 +804,12 @@
         <v>203.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>100.0</v>
@@ -785,26 +818,26 @@
         <v>203.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>102.0</v>
@@ -813,12 +846,12 @@
         <v>205.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>102.0</v>
@@ -827,12 +860,12 @@
         <v>205.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>102.0</v>
@@ -841,26 +874,26 @@
         <v>205.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C34" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>106.0</v>
@@ -869,12 +902,12 @@
         <v>205.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>106.0</v>
@@ -883,26 +916,26 @@
         <v>205.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>118.0</v>
@@ -911,12 +944,12 @@
         <v>202.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>118.0</v>
@@ -925,12 +958,12 @@
         <v>202.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>118.0</v>
@@ -939,26 +972,26 @@
         <v>202.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>122.0</v>
@@ -967,12 +1000,12 @@
         <v>208.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>122.0</v>
@@ -981,26 +1014,26 @@
         <v>208.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>127.0</v>
@@ -1009,12 +1042,12 @@
         <v>213.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>127.0</v>
@@ -1023,12 +1056,12 @@
         <v>213.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>127.0</v>
@@ -1037,26 +1070,26 @@
         <v>213.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1065,12 +1098,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1079,12 +1112,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1093,12 +1126,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1107,12 +1140,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1121,12 +1154,12 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>180.0</v>
@@ -1135,12 +1168,12 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>180.0</v>
@@ -1149,12 +1182,12 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>180.0</v>
@@ -1163,12 +1196,12 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>180.0</v>
@@ -1177,12 +1210,12 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>180.0</v>
@@ -1191,12 +1224,12 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>180.0</v>
@@ -1205,12 +1238,12 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>180.0</v>
@@ -1219,12 +1252,12 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>180.0</v>
@@ -1238,7 +1271,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>180.0</v>
@@ -1247,12 +1280,12 @@
         <v>225.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>180.0</v>
@@ -1261,12 +1294,12 @@
         <v>225.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>180.0</v>
@@ -1275,12 +1308,12 @@
         <v>225.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>180.0</v>
@@ -1289,12 +1322,12 @@
         <v>225.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>180.0</v>
@@ -1303,12 +1336,12 @@
         <v>225.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>180.0</v>
@@ -1317,12 +1350,12 @@
         <v>225.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>180.0</v>
@@ -1331,12 +1364,12 @@
         <v>225.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>180.0</v>
@@ -1345,12 +1378,12 @@
         <v>225.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>180.0</v>
@@ -1359,26 +1392,26 @@
         <v>225.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>200.0</v>
@@ -1387,12 +1420,12 @@
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>200.0</v>
@@ -1401,12 +1434,12 @@
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>200.0</v>
@@ -1415,12 +1448,12 @@
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>200.0</v>
@@ -1429,12 +1462,12 @@
         <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>200.0</v>
@@ -1443,12 +1476,12 @@
         <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>200.0</v>
@@ -1457,12 +1490,12 @@
         <v>231.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>200.0</v>
@@ -1471,21 +1504,161 @@
         <v>231.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="D80" t="n" s="0">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="D83" t="n" s="0">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>84.0</v>
       </c>
     </row>
   </sheetData>
@@ -1503,97 +1676,97 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>73.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>18.0</v>
@@ -1601,13 +1774,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1615,13 +1788,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1629,16 +1802,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -1656,16 +1829,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1683,18 +1856,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-08</t>
+    <t>2025-10-09</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-09</t>
   </si>
   <si>
     <t>2025-10-10</t>
@@ -409,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -440,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -454,21 +451,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>26.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -476,13 +473,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>233.0</v>
+        <v>203.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>26.0</v>
+        <v>56.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +493,7 @@
         <v>56.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +507,7 @@
         <v>56.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
@@ -518,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>203.0</v>
+        <v>194.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +535,7 @@
         <v>75.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +549,7 @@
         <v>75.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
@@ -566,7 +563,7 @@
         <v>75.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
@@ -574,13 +571,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="13">
@@ -608,7 +605,7 @@
         <v>107.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
@@ -616,13 +613,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +633,7 @@
         <v>136.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +647,7 @@
         <v>136.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +669,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +689,7 @@
         <v>153.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
@@ -706,7 +703,7 @@
         <v>153.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="22">
@@ -714,13 +711,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +731,7 @@
         <v>181.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="24">
@@ -748,7 +745,7 @@
         <v>181.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="25">
@@ -762,7 +759,7 @@
         <v>181.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="26">
@@ -770,13 +767,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +787,7 @@
         <v>203.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="28">
@@ -804,7 +801,7 @@
         <v>203.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
@@ -812,13 +809,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +829,7 @@
         <v>205.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="31">
@@ -846,7 +843,7 @@
         <v>205.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="32">
@@ -860,7 +857,7 @@
         <v>205.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="33">
@@ -868,13 +865,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C33" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +885,7 @@
         <v>205.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="35">
@@ -902,7 +899,7 @@
         <v>205.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
@@ -910,13 +907,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +927,7 @@
         <v>202.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +941,7 @@
         <v>202.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
@@ -958,7 +955,7 @@
         <v>202.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="40">
@@ -966,13 +963,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="41">
@@ -986,7 +983,7 @@
         <v>208.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="42">
@@ -1000,7 +997,7 @@
         <v>208.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="43">
@@ -1008,13 +1005,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1025,7 @@
         <v>213.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -1042,7 +1039,7 @@
         <v>213.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="46">
@@ -1056,7 +1053,7 @@
         <v>213.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="47">
@@ -1064,13 +1061,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,7 +1081,7 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="49">
@@ -1098,7 +1095,7 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="50">
@@ -1112,7 +1109,7 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1123,7 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="52">
@@ -1140,7 +1137,7 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="53">
@@ -1154,7 +1151,7 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1165,7 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,7 +1179,7 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1193,7 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="57">
@@ -1210,7 +1207,7 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1221,7 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,7 +1235,7 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="60">
@@ -1266,7 +1263,7 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,7 +1277,7 @@
         <v>225.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="63">
@@ -1294,7 +1291,7 @@
         <v>225.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="64">
@@ -1308,7 +1305,7 @@
         <v>225.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1319,7 @@
         <v>225.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1333,7 @@
         <v>225.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="67">
@@ -1350,7 +1347,7 @@
         <v>225.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1361,7 @@
         <v>225.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1375,7 @@
         <v>225.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="70">
@@ -1386,13 +1383,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="71">
@@ -1406,7 +1403,7 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1417,7 @@
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1431,7 @@
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="74">
@@ -1448,7 +1445,7 @@
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1459,7 @@
         <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1473,7 @@
         <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="77">
@@ -1490,7 +1487,7 @@
         <v>231.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="78">
@@ -1498,13 +1495,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1515,7 @@
         <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1529,7 @@
         <v>227.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="81">
@@ -1546,7 +1543,7 @@
         <v>227.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1557,7 @@
         <v>227.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1571,7 @@
         <v>227.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="84">
@@ -1588,7 +1585,7 @@
         <v>227.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="85">
@@ -1602,7 +1599,7 @@
         <v>227.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1613,7 @@
         <v>227.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,7 +1627,7 @@
         <v>227.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="88">
@@ -1644,20 +1641,6 @@
         <v>227.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>244.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>227.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>84.0</v>
       </c>
     </row>
@@ -1676,27 +1659,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>85.0</v>
@@ -1704,13 +1687,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>60.0</v>
@@ -1718,13 +1701,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>37.0</v>
@@ -1732,13 +1715,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>17.0</v>
@@ -1746,13 +1729,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1760,13 +1743,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>18.0</v>
@@ -1774,13 +1757,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1788,13 +1771,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1802,13 +1785,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>13.0</v>
@@ -1829,16 +1812,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1856,18 +1839,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-09</t>
+    <t>2025-10-10</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-10</t>
   </si>
   <si>
     <t>2025-10-11</t>
@@ -406,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -437,21 +434,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>26.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -459,13 +456,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>233.0</v>
+        <v>203.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>26.0</v>
+        <v>56.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +476,7 @@
         <v>56.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="6">
@@ -493,7 +490,7 @@
         <v>56.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="7">
@@ -501,13 +498,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>203.0</v>
+        <v>194.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +518,7 @@
         <v>75.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +532,7 @@
         <v>75.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
@@ -549,7 +546,7 @@
         <v>75.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
@@ -557,13 +554,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="12">
@@ -591,7 +588,7 @@
         <v>107.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
@@ -599,13 +596,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
@@ -619,7 +616,7 @@
         <v>136.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
@@ -633,7 +630,7 @@
         <v>136.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
@@ -655,13 +652,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
@@ -675,7 +672,7 @@
         <v>153.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +686,7 @@
         <v>153.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="21">
@@ -697,13 +694,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
@@ -717,7 +714,7 @@
         <v>181.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +728,7 @@
         <v>181.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
@@ -745,7 +742,7 @@
         <v>181.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="25">
@@ -753,13 +750,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
@@ -773,7 +770,7 @@
         <v>203.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="27">
@@ -787,7 +784,7 @@
         <v>203.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
@@ -795,13 +792,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="29">
@@ -815,7 +812,7 @@
         <v>205.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="30">
@@ -829,7 +826,7 @@
         <v>205.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="31">
@@ -843,7 +840,7 @@
         <v>205.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="32">
@@ -851,13 +848,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C32" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="33">
@@ -871,7 +868,7 @@
         <v>205.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="34">
@@ -885,7 +882,7 @@
         <v>205.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -893,13 +890,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="36">
@@ -913,7 +910,7 @@
         <v>202.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="37">
@@ -927,7 +924,7 @@
         <v>202.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -941,7 +938,7 @@
         <v>202.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="39">
@@ -949,13 +946,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="40">
@@ -969,7 +966,7 @@
         <v>208.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="41">
@@ -983,7 +980,7 @@
         <v>208.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="42">
@@ -991,13 +988,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="43">
@@ -1011,7 +1008,7 @@
         <v>213.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -1025,7 +1022,7 @@
         <v>213.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="45">
@@ -1039,7 +1036,7 @@
         <v>213.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="46">
@@ -1047,13 +1044,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="47">
@@ -1067,7 +1064,7 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="48">
@@ -1081,7 +1078,7 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="49">
@@ -1095,7 +1092,7 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="50">
@@ -1109,7 +1106,7 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="51">
@@ -1123,7 +1120,7 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="52">
@@ -1137,7 +1134,7 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="53">
@@ -1151,7 +1148,7 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="54">
@@ -1165,7 +1162,7 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="55">
@@ -1179,7 +1176,7 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="56">
@@ -1193,7 +1190,7 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="57">
@@ -1207,7 +1204,7 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="58">
@@ -1221,7 +1218,7 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="59">
@@ -1249,7 +1246,7 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="61">
@@ -1263,7 +1260,7 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="62">
@@ -1277,7 +1274,7 @@
         <v>225.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="63">
@@ -1291,7 +1288,7 @@
         <v>225.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="64">
@@ -1305,7 +1302,7 @@
         <v>225.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="65">
@@ -1319,7 +1316,7 @@
         <v>225.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="66">
@@ -1333,7 +1330,7 @@
         <v>225.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="67">
@@ -1347,7 +1344,7 @@
         <v>225.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="68">
@@ -1361,7 +1358,7 @@
         <v>225.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="69">
@@ -1369,13 +1366,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="70">
@@ -1389,7 +1386,7 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="71">
@@ -1403,7 +1400,7 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="72">
@@ -1417,7 +1414,7 @@
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="73">
@@ -1431,7 +1428,7 @@
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="74">
@@ -1445,7 +1442,7 @@
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="75">
@@ -1459,7 +1456,7 @@
         <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="76">
@@ -1473,7 +1470,7 @@
         <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="77">
@@ -1481,13 +1478,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="78">
@@ -1501,7 +1498,7 @@
         <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="79">
@@ -1515,7 +1512,7 @@
         <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="80">
@@ -1529,7 +1526,7 @@
         <v>227.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="81">
@@ -1543,7 +1540,7 @@
         <v>227.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="82">
@@ -1557,7 +1554,7 @@
         <v>227.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="83">
@@ -1571,7 +1568,7 @@
         <v>227.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="84">
@@ -1585,7 +1582,7 @@
         <v>227.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="85">
@@ -1599,7 +1596,7 @@
         <v>227.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="86">
@@ -1613,7 +1610,7 @@
         <v>227.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="87">
@@ -1627,20 +1624,6 @@
         <v>227.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>244.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>227.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>84.0</v>
       </c>
     </row>
@@ -1659,27 +1642,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>85.0</v>
@@ -1687,13 +1670,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>60.0</v>
@@ -1701,13 +1684,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>37.0</v>
@@ -1715,13 +1698,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>17.0</v>
@@ -1729,13 +1712,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1743,13 +1726,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>18.0</v>
@@ -1757,13 +1740,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1771,13 +1754,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1785,13 +1768,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>13.0</v>
@@ -1812,16 +1795,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1839,18 +1822,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>110</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-10</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-11</t>
@@ -403,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -427,33 +421,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>26.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>233.0</v>
+        <v>203.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>26.0</v>
+        <v>56.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>203.0</v>
@@ -462,12 +456,12 @@
         <v>56.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>203.0</v>
@@ -476,26 +470,26 @@
         <v>56.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>203.0</v>
+        <v>194.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>194.0</v>
@@ -504,12 +498,12 @@
         <v>75.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>194.0</v>
@@ -518,12 +512,12 @@
         <v>75.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>194.0</v>
@@ -532,26 +526,26 @@
         <v>75.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>169.0</v>
@@ -565,7 +559,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>169.0</v>
@@ -574,26 +568,26 @@
         <v>107.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>148.0</v>
@@ -602,12 +596,12 @@
         <v>136.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>148.0</v>
@@ -616,12 +610,12 @@
         <v>136.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>148.0</v>
@@ -635,21 +629,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>132.0</v>
@@ -658,12 +652,12 @@
         <v>153.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>132.0</v>
@@ -672,26 +666,26 @@
         <v>153.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>113.0</v>
@@ -700,12 +694,12 @@
         <v>181.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>113.0</v>
@@ -714,12 +708,12 @@
         <v>181.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>113.0</v>
@@ -728,26 +722,26 @@
         <v>181.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>100.0</v>
@@ -756,12 +750,12 @@
         <v>203.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>100.0</v>
@@ -770,26 +764,26 @@
         <v>203.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>102.0</v>
@@ -798,12 +792,12 @@
         <v>205.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>102.0</v>
@@ -812,12 +806,12 @@
         <v>205.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>102.0</v>
@@ -826,26 +820,26 @@
         <v>205.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C31" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>106.0</v>
@@ -854,12 +848,12 @@
         <v>205.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>106.0</v>
@@ -868,26 +862,26 @@
         <v>205.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>118.0</v>
@@ -896,12 +890,12 @@
         <v>202.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>118.0</v>
@@ -910,12 +904,12 @@
         <v>202.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>118.0</v>
@@ -924,26 +918,26 @@
         <v>202.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>122.0</v>
@@ -952,12 +946,12 @@
         <v>208.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>122.0</v>
@@ -966,26 +960,26 @@
         <v>208.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>127.0</v>
@@ -994,12 +988,12 @@
         <v>213.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>127.0</v>
@@ -1008,12 +1002,12 @@
         <v>213.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>127.0</v>
@@ -1022,26 +1016,26 @@
         <v>213.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1050,12 +1044,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1064,12 +1058,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1078,12 +1072,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1092,12 +1086,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1106,12 +1100,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1120,12 +1114,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1134,12 +1128,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1148,12 +1142,12 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>180.0</v>
@@ -1162,12 +1156,12 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>180.0</v>
@@ -1176,12 +1170,12 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>180.0</v>
@@ -1190,12 +1184,12 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>180.0</v>
@@ -1204,12 +1198,12 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>180.0</v>
@@ -1223,7 +1217,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>180.0</v>
@@ -1232,12 +1226,12 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>180.0</v>
@@ -1246,12 +1240,12 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>180.0</v>
@@ -1260,12 +1254,12 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>180.0</v>
@@ -1274,12 +1268,12 @@
         <v>225.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>180.0</v>
@@ -1288,12 +1282,12 @@
         <v>225.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>180.0</v>
@@ -1302,12 +1296,12 @@
         <v>225.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>180.0</v>
@@ -1316,12 +1310,12 @@
         <v>225.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>180.0</v>
@@ -1330,12 +1324,12 @@
         <v>225.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>180.0</v>
@@ -1344,26 +1338,26 @@
         <v>225.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>200.0</v>
@@ -1372,12 +1366,12 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>200.0</v>
@@ -1386,12 +1380,12 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>200.0</v>
@@ -1400,12 +1394,12 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>200.0</v>
@@ -1414,12 +1408,12 @@
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>200.0</v>
@@ -1428,12 +1422,12 @@
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>200.0</v>
@@ -1442,12 +1436,12 @@
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>200.0</v>
@@ -1456,26 +1450,26 @@
         <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>244.0</v>
@@ -1484,12 +1478,12 @@
         <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>244.0</v>
@@ -1498,12 +1492,12 @@
         <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>244.0</v>
@@ -1512,12 +1506,12 @@
         <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>244.0</v>
@@ -1526,12 +1520,12 @@
         <v>227.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>244.0</v>
@@ -1540,12 +1534,12 @@
         <v>227.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>244.0</v>
@@ -1554,12 +1548,12 @@
         <v>227.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>244.0</v>
@@ -1568,12 +1562,12 @@
         <v>227.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>244.0</v>
@@ -1582,12 +1576,12 @@
         <v>227.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>244.0</v>
@@ -1596,12 +1590,12 @@
         <v>227.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>244.0</v>
@@ -1610,20 +1604,6 @@
         <v>227.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n" s="0">
-        <v>244.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>227.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
         <v>84.0</v>
       </c>
     </row>
@@ -1642,27 +1622,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>85.0</v>
@@ -1670,13 +1650,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>60.0</v>
@@ -1684,13 +1664,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>37.0</v>
@@ -1698,13 +1678,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>17.0</v>
@@ -1712,13 +1692,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1726,13 +1706,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>18.0</v>
@@ -1740,13 +1720,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1754,13 +1734,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1768,13 +1748,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>13.0</v>
@@ -1795,16 +1775,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1822,18 +1802,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
     <t>2025-10-12</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-13</t>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,33 +421,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>233.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>26.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>203.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>56.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>203.0</v>
@@ -456,26 +456,26 @@
         <v>56.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>203.0</v>
+        <v>194.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>194.0</v>
@@ -484,12 +484,12 @@
         <v>75.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>194.0</v>
@@ -498,12 +498,12 @@
         <v>75.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>194.0</v>
@@ -512,26 +512,26 @@
         <v>75.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>169.0</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>169.0</v>
@@ -554,26 +554,26 @@
         <v>107.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>148.0</v>
@@ -582,12 +582,12 @@
         <v>136.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>148.0</v>
@@ -596,12 +596,12 @@
         <v>136.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>148.0</v>
@@ -615,21 +615,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>132.0</v>
@@ -638,12 +638,12 @@
         <v>153.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>132.0</v>
@@ -652,26 +652,26 @@
         <v>153.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>113.0</v>
@@ -680,12 +680,12 @@
         <v>181.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>113.0</v>
@@ -694,12 +694,12 @@
         <v>181.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>113.0</v>
@@ -708,26 +708,26 @@
         <v>181.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>100.0</v>
@@ -736,12 +736,12 @@
         <v>203.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>100.0</v>
@@ -750,26 +750,26 @@
         <v>203.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>102.0</v>
@@ -778,12 +778,12 @@
         <v>205.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>102.0</v>
@@ -792,12 +792,12 @@
         <v>205.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>102.0</v>
@@ -806,26 +806,26 @@
         <v>205.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>106.0</v>
@@ -834,12 +834,12 @@
         <v>205.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>106.0</v>
@@ -848,26 +848,26 @@
         <v>205.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>118.0</v>
@@ -876,12 +876,12 @@
         <v>202.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>118.0</v>
@@ -890,12 +890,12 @@
         <v>202.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>118.0</v>
@@ -904,26 +904,26 @@
         <v>202.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>122.0</v>
@@ -932,12 +932,12 @@
         <v>208.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>122.0</v>
@@ -946,26 +946,26 @@
         <v>208.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>127.0</v>
@@ -974,12 +974,12 @@
         <v>213.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>127.0</v>
@@ -988,12 +988,12 @@
         <v>213.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>127.0</v>
@@ -1002,26 +1002,26 @@
         <v>213.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1030,12 +1030,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1044,12 +1044,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1058,12 +1058,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1072,12 +1072,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1086,12 +1086,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1100,12 +1100,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1114,12 +1114,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1128,12 +1128,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1142,12 +1142,12 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>180.0</v>
@@ -1156,12 +1156,12 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>180.0</v>
@@ -1170,12 +1170,12 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>180.0</v>
@@ -1184,12 +1184,12 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>180.0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>180.0</v>
@@ -1212,12 +1212,12 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>180.0</v>
@@ -1226,12 +1226,12 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>180.0</v>
@@ -1240,12 +1240,12 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>180.0</v>
@@ -1254,12 +1254,12 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>180.0</v>
@@ -1268,12 +1268,12 @@
         <v>225.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>180.0</v>
@@ -1282,12 +1282,12 @@
         <v>225.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>180.0</v>
@@ -1296,12 +1296,12 @@
         <v>225.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>180.0</v>
@@ -1310,12 +1310,12 @@
         <v>225.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>180.0</v>
@@ -1324,26 +1324,26 @@
         <v>225.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>200.0</v>
@@ -1352,12 +1352,12 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>200.0</v>
@@ -1366,12 +1366,12 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>200.0</v>
@@ -1380,12 +1380,12 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>200.0</v>
@@ -1394,12 +1394,12 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>200.0</v>
@@ -1408,12 +1408,12 @@
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>200.0</v>
@@ -1422,12 +1422,12 @@
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>200.0</v>
@@ -1436,26 +1436,26 @@
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>244.0</v>
@@ -1464,12 +1464,12 @@
         <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>244.0</v>
@@ -1478,12 +1478,12 @@
         <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>244.0</v>
@@ -1492,12 +1492,12 @@
         <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>244.0</v>
@@ -1506,12 +1506,12 @@
         <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>244.0</v>
@@ -1520,12 +1520,12 @@
         <v>227.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>244.0</v>
@@ -1534,12 +1534,12 @@
         <v>227.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>244.0</v>
@@ -1548,12 +1548,12 @@
         <v>227.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>244.0</v>
@@ -1562,12 +1562,12 @@
         <v>227.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>244.0</v>
@@ -1576,12 +1576,12 @@
         <v>227.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>244.0</v>
@@ -1590,20 +1590,6 @@
         <v>227.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B86" t="n" s="0">
-        <v>244.0</v>
-      </c>
-      <c r="C86" t="n" s="0">
-        <v>227.0</v>
-      </c>
-      <c r="D86" t="n" s="0">
         <v>84.0</v>
       </c>
     </row>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-12</t>
+    <t>2025-10-13</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-13</t>
   </si>
   <si>
     <t>2025-10-14</t>
@@ -397,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -428,21 +425,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>56.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
@@ -450,13 +447,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>203.0</v>
+        <v>194.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +467,7 @@
         <v>75.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +481,7 @@
         <v>75.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +495,7 @@
         <v>75.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
@@ -506,13 +503,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="9">
@@ -540,7 +537,7 @@
         <v>107.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="11">
@@ -548,13 +545,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +565,7 @@
         <v>136.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
@@ -582,7 +579,7 @@
         <v>136.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
@@ -604,13 +601,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
@@ -624,7 +621,7 @@
         <v>153.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
@@ -638,7 +635,7 @@
         <v>153.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
@@ -646,13 +643,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
@@ -666,7 +663,7 @@
         <v>181.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
@@ -680,7 +677,7 @@
         <v>181.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
@@ -694,7 +691,7 @@
         <v>181.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="22">
@@ -702,13 +699,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -722,7 +719,7 @@
         <v>203.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
@@ -736,7 +733,7 @@
         <v>203.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
@@ -744,13 +741,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="26">
@@ -764,7 +761,7 @@
         <v>205.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="27">
@@ -778,7 +775,7 @@
         <v>205.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="28">
@@ -792,7 +789,7 @@
         <v>205.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="29">
@@ -800,13 +797,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C29" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="30">
@@ -820,7 +817,7 @@
         <v>205.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="31">
@@ -834,7 +831,7 @@
         <v>205.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -842,13 +839,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="33">
@@ -862,7 +859,7 @@
         <v>202.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +873,7 @@
         <v>202.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -890,7 +887,7 @@
         <v>202.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="36">
@@ -898,13 +895,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="37">
@@ -918,7 +915,7 @@
         <v>208.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="38">
@@ -932,7 +929,7 @@
         <v>208.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="39">
@@ -940,13 +937,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="40">
@@ -960,7 +957,7 @@
         <v>213.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="41">
@@ -974,7 +971,7 @@
         <v>213.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="42">
@@ -988,7 +985,7 @@
         <v>213.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="43">
@@ -996,13 +993,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1013,7 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="45">
@@ -1030,7 +1027,7 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="46">
@@ -1044,7 +1041,7 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="47">
@@ -1058,7 +1055,7 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="48">
@@ -1072,7 +1069,7 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="49">
@@ -1086,7 +1083,7 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="50">
@@ -1100,7 +1097,7 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="51">
@@ -1114,7 +1111,7 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="52">
@@ -1128,7 +1125,7 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="53">
@@ -1142,7 +1139,7 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="54">
@@ -1156,7 +1153,7 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="55">
@@ -1170,7 +1167,7 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="56">
@@ -1198,7 +1195,7 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="58">
@@ -1212,7 +1209,7 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="59">
@@ -1226,7 +1223,7 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="60">
@@ -1240,7 +1237,7 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="61">
@@ -1254,7 +1251,7 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="62">
@@ -1268,7 +1265,7 @@
         <v>225.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="63">
@@ -1282,7 +1279,7 @@
         <v>225.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="64">
@@ -1296,7 +1293,7 @@
         <v>225.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="65">
@@ -1310,7 +1307,7 @@
         <v>225.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="66">
@@ -1318,13 +1315,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="67">
@@ -1338,7 +1335,7 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="68">
@@ -1352,7 +1349,7 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="69">
@@ -1366,7 +1363,7 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="70">
@@ -1380,7 +1377,7 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="71">
@@ -1394,7 +1391,7 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="72">
@@ -1408,7 +1405,7 @@
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="73">
@@ -1422,7 +1419,7 @@
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="74">
@@ -1430,13 +1427,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="75">
@@ -1450,7 +1447,7 @@
         <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="76">
@@ -1464,7 +1461,7 @@
         <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="77">
@@ -1478,7 +1475,7 @@
         <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="78">
@@ -1492,7 +1489,7 @@
         <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="79">
@@ -1506,7 +1503,7 @@
         <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="80">
@@ -1520,7 +1517,7 @@
         <v>227.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="81">
@@ -1534,7 +1531,7 @@
         <v>227.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="82">
@@ -1548,7 +1545,7 @@
         <v>227.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="83">
@@ -1562,7 +1559,7 @@
         <v>227.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="84">
@@ -1576,20 +1573,6 @@
         <v>227.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B85" t="n" s="0">
-        <v>244.0</v>
-      </c>
-      <c r="C85" t="n" s="0">
-        <v>227.0</v>
-      </c>
-      <c r="D85" t="n" s="0">
         <v>84.0</v>
       </c>
     </row>
@@ -1608,27 +1591,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>85.0</v>
@@ -1636,13 +1619,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>60.0</v>
@@ -1650,13 +1633,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>37.0</v>
@@ -1664,13 +1647,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>99</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>17.0</v>
@@ -1678,13 +1661,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1692,13 +1675,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>102</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>18.0</v>
@@ -1706,13 +1689,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1720,13 +1703,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1734,13 +1717,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>13.0</v>
@@ -1761,16 +1744,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1788,18 +1771,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-10-14</t>
   </si>
   <si>
@@ -281,6 +275,27 @@
     <t>2026-01-03</t>
   </si>
   <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -308,15 +323,15 @@
     <t>Page with redirect</t>
   </si>
   <si>
+    <t>Crawled - currently not indexed</t>
+  </si>
+  <si>
+    <t>Google systems</t>
+  </si>
+  <si>
     <t>Duplicate, Google chose different canonical than user</t>
   </si>
   <si>
-    <t>Google systems</t>
-  </si>
-  <si>
-    <t>Crawled - currently not indexed</t>
-  </si>
-  <si>
     <t>Excluded by ‘noindex’ tag</t>
   </si>
   <si>
@@ -333,6 +348,9 @@
   </si>
   <si>
     <t>Discovered - currently not indexed</t>
+  </si>
+  <si>
+    <t>Indexed, though blocked by robots.txt</t>
   </si>
   <si>
     <t>Property</t>
@@ -394,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -418,33 +436,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>56.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>203.0</v>
+        <v>194.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>194.0</v>
@@ -453,12 +471,12 @@
         <v>75.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>194.0</v>
@@ -467,12 +485,12 @@
         <v>75.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>194.0</v>
@@ -481,26 +499,26 @@
         <v>75.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>169.0</v>
@@ -514,7 +532,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>169.0</v>
@@ -523,26 +541,26 @@
         <v>107.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>148.0</v>
@@ -551,12 +569,12 @@
         <v>136.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>148.0</v>
@@ -565,12 +583,12 @@
         <v>136.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>148.0</v>
@@ -584,21 +602,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>132.0</v>
@@ -607,12 +625,12 @@
         <v>153.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>132.0</v>
@@ -621,26 +639,26 @@
         <v>153.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>113.0</v>
@@ -649,12 +667,12 @@
         <v>181.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>113.0</v>
@@ -663,12 +681,12 @@
         <v>181.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>113.0</v>
@@ -677,26 +695,26 @@
         <v>181.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>100.0</v>
@@ -705,12 +723,12 @@
         <v>203.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>100.0</v>
@@ -719,26 +737,26 @@
         <v>203.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>102.0</v>
@@ -747,12 +765,12 @@
         <v>205.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>102.0</v>
@@ -761,12 +779,12 @@
         <v>205.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>102.0</v>
@@ -775,26 +793,26 @@
         <v>205.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>106.0</v>
@@ -803,12 +821,12 @@
         <v>205.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>106.0</v>
@@ -817,26 +835,26 @@
         <v>205.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>118.0</v>
@@ -845,12 +863,12 @@
         <v>202.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>118.0</v>
@@ -859,12 +877,12 @@
         <v>202.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>118.0</v>
@@ -873,26 +891,26 @@
         <v>202.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>122.0</v>
@@ -901,12 +919,12 @@
         <v>208.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>122.0</v>
@@ -915,26 +933,26 @@
         <v>208.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>127.0</v>
@@ -943,12 +961,12 @@
         <v>213.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>127.0</v>
@@ -957,12 +975,12 @@
         <v>213.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>127.0</v>
@@ -971,26 +989,26 @@
         <v>213.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -999,12 +1017,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1013,12 +1031,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1027,12 +1045,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1041,12 +1059,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1055,12 +1073,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1069,12 +1087,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1083,12 +1101,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1097,12 +1115,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1111,12 +1129,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1125,12 +1143,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1139,12 +1157,12 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>180.0</v>
@@ -1153,12 +1171,12 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>180.0</v>
@@ -1172,7 +1190,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>180.0</v>
@@ -1181,12 +1199,12 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>180.0</v>
@@ -1195,12 +1213,12 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>180.0</v>
@@ -1209,12 +1227,12 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>180.0</v>
@@ -1223,12 +1241,12 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>180.0</v>
@@ -1237,12 +1255,12 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>180.0</v>
@@ -1251,12 +1269,12 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>180.0</v>
@@ -1265,12 +1283,12 @@
         <v>225.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>180.0</v>
@@ -1279,12 +1297,12 @@
         <v>225.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>180.0</v>
@@ -1293,26 +1311,26 @@
         <v>225.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>200.0</v>
@@ -1321,12 +1339,12 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>200.0</v>
@@ -1335,12 +1353,12 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>200.0</v>
@@ -1349,12 +1367,12 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>200.0</v>
@@ -1363,12 +1381,12 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>200.0</v>
@@ -1377,12 +1395,12 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>200.0</v>
@@ -1391,12 +1409,12 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>200.0</v>
@@ -1405,26 +1423,26 @@
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>244.0</v>
@@ -1433,12 +1451,12 @@
         <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>244.0</v>
@@ -1447,12 +1465,12 @@
         <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>244.0</v>
@@ -1461,12 +1479,12 @@
         <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>244.0</v>
@@ -1475,12 +1493,12 @@
         <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>244.0</v>
@@ -1489,12 +1507,12 @@
         <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>244.0</v>
@@ -1503,12 +1521,12 @@
         <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>244.0</v>
@@ -1517,12 +1535,12 @@
         <v>227.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>244.0</v>
@@ -1531,12 +1549,12 @@
         <v>227.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>244.0</v>
@@ -1545,12 +1563,12 @@
         <v>227.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>244.0</v>
@@ -1559,21 +1577,105 @@
         <v>227.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>228.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B84" t="n" s="0">
-        <v>244.0</v>
-      </c>
-      <c r="C84" t="n" s="0">
-        <v>227.0</v>
-      </c>
-      <c r="D84" t="n" s="0">
-        <v>84.0</v>
+      <c r="B85" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>228.0</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>228.0</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>169.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>183.0</v>
       </c>
     </row>
   </sheetData>
@@ -1591,83 +1693,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>85.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>94</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1675,27 +1777,27 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1703,13 +1805,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1717,13 +1819,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>13.0</v>
@@ -1736,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1744,16 +1846,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>91</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1771,18 +1887,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-14</t>
-  </si>
-  <si>
     <t>2025-10-15</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-16</t>
@@ -412,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -436,47 +436,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>203.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>56.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>194.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>75.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>194.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>75.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>194.0</v>
@@ -485,26 +485,26 @@
         <v>75.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>169.0</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>169.0</v>
@@ -527,26 +527,26 @@
         <v>107.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>148.0</v>
@@ -555,12 +555,12 @@
         <v>136.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>148.0</v>
@@ -569,12 +569,12 @@
         <v>136.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>148.0</v>
@@ -588,21 +588,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>132.0</v>
@@ -611,12 +611,12 @@
         <v>153.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>132.0</v>
@@ -625,26 +625,26 @@
         <v>153.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>113.0</v>
@@ -653,12 +653,12 @@
         <v>181.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>113.0</v>
@@ -667,12 +667,12 @@
         <v>181.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>113.0</v>
@@ -681,26 +681,26 @@
         <v>181.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>100.0</v>
@@ -709,12 +709,12 @@
         <v>203.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>100.0</v>
@@ -723,26 +723,26 @@
         <v>203.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>102.0</v>
@@ -751,12 +751,12 @@
         <v>205.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>102.0</v>
@@ -765,12 +765,12 @@
         <v>205.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>102.0</v>
@@ -779,26 +779,26 @@
         <v>205.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>106.0</v>
@@ -807,12 +807,12 @@
         <v>205.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>106.0</v>
@@ -821,26 +821,26 @@
         <v>205.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>118.0</v>
@@ -849,12 +849,12 @@
         <v>202.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>118.0</v>
@@ -863,12 +863,12 @@
         <v>202.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>118.0</v>
@@ -877,26 +877,26 @@
         <v>202.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>122.0</v>
@@ -905,12 +905,12 @@
         <v>208.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>122.0</v>
@@ -919,26 +919,26 @@
         <v>208.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>127.0</v>
@@ -947,12 +947,12 @@
         <v>213.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>127.0</v>
@@ -961,12 +961,12 @@
         <v>213.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>127.0</v>
@@ -975,26 +975,26 @@
         <v>213.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -1003,12 +1003,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1017,12 +1017,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1031,12 +1031,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1045,12 +1045,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1059,12 +1059,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1073,12 +1073,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1087,12 +1087,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1101,12 +1101,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1115,12 +1115,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1129,12 +1129,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1143,12 +1143,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1157,12 +1157,12 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>180.0</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>180.0</v>
@@ -1185,12 +1185,12 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>180.0</v>
@@ -1199,12 +1199,12 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>180.0</v>
@@ -1213,12 +1213,12 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>180.0</v>
@@ -1227,12 +1227,12 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>180.0</v>
@@ -1241,12 +1241,12 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>180.0</v>
@@ -1255,12 +1255,12 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>180.0</v>
@@ -1269,12 +1269,12 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>180.0</v>
@@ -1283,12 +1283,12 @@
         <v>225.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>180.0</v>
@@ -1297,26 +1297,26 @@
         <v>225.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>200.0</v>
@@ -1325,12 +1325,12 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>200.0</v>
@@ -1339,12 +1339,12 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>200.0</v>
@@ -1353,12 +1353,12 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>200.0</v>
@@ -1367,12 +1367,12 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>200.0</v>
@@ -1381,12 +1381,12 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>200.0</v>
@@ -1395,12 +1395,12 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>200.0</v>
@@ -1409,26 +1409,26 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>244.0</v>
@@ -1437,12 +1437,12 @@
         <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>244.0</v>
@@ -1451,12 +1451,12 @@
         <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>244.0</v>
@@ -1465,12 +1465,12 @@
         <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>244.0</v>
@@ -1479,12 +1479,12 @@
         <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>244.0</v>
@@ -1493,12 +1493,12 @@
         <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>244.0</v>
@@ -1507,12 +1507,12 @@
         <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>244.0</v>
@@ -1521,12 +1521,12 @@
         <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>244.0</v>
@@ -1535,12 +1535,12 @@
         <v>227.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>244.0</v>
@@ -1549,12 +1549,12 @@
         <v>227.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>244.0</v>
@@ -1563,26 +1563,26 @@
         <v>227.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>246.0</v>
@@ -1591,12 +1591,12 @@
         <v>228.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>246.0</v>
@@ -1605,26 +1605,26 @@
         <v>228.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>266.0</v>
@@ -1633,12 +1633,12 @@
         <v>233.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>266.0</v>
@@ -1647,12 +1647,12 @@
         <v>233.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>266.0</v>
@@ -1661,20 +1661,6 @@
         <v>233.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>169.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>266.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>233.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>183.0</v>
       </c>
     </row>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-15</t>
+    <t>2025-10-16</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-16</t>
   </si>
   <si>
     <t>2025-10-17</t>
@@ -412,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -443,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="3">
@@ -457,21 +454,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>75.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
@@ -479,13 +476,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +510,7 @@
         <v>107.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,13 +518,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +538,7 @@
         <v>136.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
@@ -555,7 +552,7 @@
         <v>136.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
@@ -577,13 +574,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
@@ -597,7 +594,7 @@
         <v>153.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +608,7 @@
         <v>153.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
@@ -619,13 +616,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +636,7 @@
         <v>181.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +650,7 @@
         <v>181.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
@@ -667,7 +664,7 @@
         <v>181.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="19">
@@ -675,13 +672,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -695,7 +692,7 @@
         <v>203.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
@@ -709,7 +706,7 @@
         <v>203.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
@@ -717,13 +714,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="23">
@@ -737,7 +734,7 @@
         <v>205.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="24">
@@ -751,7 +748,7 @@
         <v>205.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="25">
@@ -765,7 +762,7 @@
         <v>205.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="26">
@@ -773,13 +770,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="27">
@@ -793,7 +790,7 @@
         <v>205.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="28">
@@ -807,7 +804,7 @@
         <v>205.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
@@ -815,13 +812,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="30">
@@ -835,7 +832,7 @@
         <v>202.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="31">
@@ -849,7 +846,7 @@
         <v>202.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -863,7 +860,7 @@
         <v>202.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="33">
@@ -871,13 +868,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="34">
@@ -891,7 +888,7 @@
         <v>208.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="35">
@@ -905,7 +902,7 @@
         <v>208.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="36">
@@ -913,13 +910,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="37">
@@ -933,7 +930,7 @@
         <v>213.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -947,7 +944,7 @@
         <v>213.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="39">
@@ -961,7 +958,7 @@
         <v>213.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="40">
@@ -969,13 +966,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="41">
@@ -989,7 +986,7 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="42">
@@ -1003,7 +1000,7 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="43">
@@ -1017,7 +1014,7 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="44">
@@ -1031,7 +1028,7 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="45">
@@ -1045,7 +1042,7 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="46">
@@ -1059,7 +1056,7 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="47">
@@ -1073,7 +1070,7 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="48">
@@ -1087,7 +1084,7 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="49">
@@ -1101,7 +1098,7 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="50">
@@ -1115,7 +1112,7 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="51">
@@ -1129,7 +1126,7 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="52">
@@ -1143,7 +1140,7 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="53">
@@ -1171,7 +1168,7 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="55">
@@ -1185,7 +1182,7 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="56">
@@ -1199,7 +1196,7 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="57">
@@ -1213,7 +1210,7 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="58">
@@ -1227,7 +1224,7 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1238,7 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="60">
@@ -1255,7 +1252,7 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="61">
@@ -1269,7 +1266,7 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="62">
@@ -1283,7 +1280,7 @@
         <v>225.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="63">
@@ -1291,13 +1288,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="64">
@@ -1311,7 +1308,7 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="65">
@@ -1325,7 +1322,7 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="66">
@@ -1339,7 +1336,7 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="67">
@@ -1353,7 +1350,7 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="68">
@@ -1367,7 +1364,7 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="69">
@@ -1381,7 +1378,7 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="70">
@@ -1395,7 +1392,7 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="71">
@@ -1403,13 +1400,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="72">
@@ -1423,7 +1420,7 @@
         <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="73">
@@ -1437,7 +1434,7 @@
         <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="74">
@@ -1451,7 +1448,7 @@
         <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="75">
@@ -1465,7 +1462,7 @@
         <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="76">
@@ -1479,7 +1476,7 @@
         <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="77">
@@ -1493,7 +1490,7 @@
         <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="78">
@@ -1507,7 +1504,7 @@
         <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="79">
@@ -1521,7 +1518,7 @@
         <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="80">
@@ -1535,7 +1532,7 @@
         <v>227.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="81">
@@ -1549,7 +1546,7 @@
         <v>227.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="82">
@@ -1557,13 +1554,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="83">
@@ -1577,7 +1574,7 @@
         <v>228.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="84">
@@ -1591,7 +1588,7 @@
         <v>228.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="85">
@@ -1599,13 +1596,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="86">
@@ -1619,7 +1616,7 @@
         <v>233.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="87">
@@ -1633,7 +1630,7 @@
         <v>233.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="88">
@@ -1647,20 +1644,6 @@
         <v>233.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>169.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>266.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>233.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>183.0</v>
       </c>
     </row>
@@ -1679,27 +1662,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>89.0</v>
@@ -1707,13 +1690,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>61.0</v>
@@ -1721,13 +1704,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>44.0</v>
@@ -1735,13 +1718,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>18.0</v>
@@ -1749,13 +1732,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1763,13 +1746,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>27.0</v>
@@ -1777,13 +1760,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1791,13 +1774,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1805,13 +1788,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>13.0</v>
@@ -1832,27 +1815,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1873,18 +1856,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>114</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -29,15 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-16</t>
+    <t>2025-10-17</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
     <t>2025-10-18</t>
   </si>
   <si>
@@ -291,6 +288,15 @@
   </si>
   <si>
     <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
   </si>
   <si>
     <t>Reason</t>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -440,21 +446,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>75.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="4">
@@ -462,13 +468,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
@@ -496,7 +502,7 @@
         <v>107.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +530,7 @@
         <v>136.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +544,7 @@
         <v>136.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +566,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +586,7 @@
         <v>153.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +600,7 @@
         <v>153.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
@@ -602,13 +608,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
@@ -622,7 +628,7 @@
         <v>181.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +642,7 @@
         <v>181.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +656,7 @@
         <v>181.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="18">
@@ -658,13 +664,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +684,7 @@
         <v>203.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +698,7 @@
         <v>203.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
@@ -700,13 +706,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +726,7 @@
         <v>205.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +740,7 @@
         <v>205.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="24">
@@ -748,7 +754,7 @@
         <v>205.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="25">
@@ -756,13 +762,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +782,7 @@
         <v>205.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +796,7 @@
         <v>205.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
@@ -798,13 +804,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="29">
@@ -818,7 +824,7 @@
         <v>202.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +838,7 @@
         <v>202.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -846,7 +852,7 @@
         <v>202.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="32">
@@ -854,13 +860,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +880,7 @@
         <v>208.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +894,7 @@
         <v>208.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="35">
@@ -896,13 +902,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="36">
@@ -916,7 +922,7 @@
         <v>213.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +936,7 @@
         <v>213.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +950,7 @@
         <v>213.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="39">
@@ -952,13 +958,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +978,7 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="41">
@@ -986,7 +992,7 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="42">
@@ -1000,7 +1006,7 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="43">
@@ -1014,7 +1020,7 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1034,7 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="45">
@@ -1042,7 +1048,7 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="46">
@@ -1056,7 +1062,7 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,7 +1076,7 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,7 +1090,7 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="49">
@@ -1098,7 +1104,7 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="50">
@@ -1112,7 +1118,7 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1132,7 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="52">
@@ -1154,7 +1160,7 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1174,7 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,7 +1188,7 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1202,7 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="57">
@@ -1210,7 +1216,7 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1230,7 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,7 +1244,7 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="60">
@@ -1252,7 +1258,7 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1272,7 @@
         <v>225.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="62">
@@ -1274,13 +1280,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="63">
@@ -1294,7 +1300,7 @@
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="64">
@@ -1308,7 +1314,7 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1328,7 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1342,7 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="67">
@@ -1350,7 +1356,7 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1370,7 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1384,7 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="70">
@@ -1386,13 +1392,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="71">
@@ -1406,7 +1412,7 @@
         <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1426,7 @@
         <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1440,7 @@
         <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="74">
@@ -1448,7 +1454,7 @@
         <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1468,7 @@
         <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1482,7 @@
         <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="77">
@@ -1490,7 +1496,7 @@
         <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="78">
@@ -1504,7 +1510,7 @@
         <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1524,7 @@
         <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1538,7 @@
         <v>227.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,13 +1546,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1566,7 @@
         <v>228.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1580,7 @@
         <v>228.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="84">
@@ -1582,13 +1588,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="85">
@@ -1602,7 +1608,7 @@
         <v>233.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1622,7 @@
         <v>233.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,7 +1636,7 @@
         <v>233.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="88">
@@ -1638,12 +1644,40 @@
         <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D88" t="n" s="0">
+        <v>83.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>271.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>232.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>271.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>232.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
         <v>183.0</v>
       </c>
     </row>
@@ -1662,83 +1696,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
-      </c>
       <c r="D4" t="n" s="0">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1746,27 +1780,27 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1774,13 +1808,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1788,16 +1822,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -1815,27 +1849,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1856,18 +1890,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-18</t>
@@ -415,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -439,33 +433,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>75.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>194.0</v>
+        <v>169.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>75.0</v>
+        <v>107.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>169.0</v>
@@ -479,7 +473,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>169.0</v>
@@ -488,26 +482,26 @@
         <v>107.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>148.0</v>
@@ -516,12 +510,12 @@
         <v>136.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>148.0</v>
@@ -530,12 +524,12 @@
         <v>136.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>148.0</v>
@@ -549,21 +543,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>132.0</v>
@@ -572,12 +566,12 @@
         <v>153.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>132.0</v>
@@ -586,26 +580,26 @@
         <v>153.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>113.0</v>
@@ -614,12 +608,12 @@
         <v>181.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>113.0</v>
@@ -628,12 +622,12 @@
         <v>181.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>113.0</v>
@@ -642,26 +636,26 @@
         <v>181.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>100.0</v>
@@ -670,12 +664,12 @@
         <v>203.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>100.0</v>
@@ -684,26 +678,26 @@
         <v>203.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>102.0</v>
@@ -712,12 +706,12 @@
         <v>205.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>102.0</v>
@@ -726,12 +720,12 @@
         <v>205.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>102.0</v>
@@ -740,26 +734,26 @@
         <v>205.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>106.0</v>
@@ -768,12 +762,12 @@
         <v>205.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>106.0</v>
@@ -782,26 +776,26 @@
         <v>205.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>118.0</v>
@@ -810,12 +804,12 @@
         <v>202.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>118.0</v>
@@ -824,12 +818,12 @@
         <v>202.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>118.0</v>
@@ -838,26 +832,26 @@
         <v>202.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>122.0</v>
@@ -866,12 +860,12 @@
         <v>208.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>122.0</v>
@@ -880,26 +874,26 @@
         <v>208.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>127.0</v>
@@ -908,12 +902,12 @@
         <v>213.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>127.0</v>
@@ -922,12 +916,12 @@
         <v>213.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>127.0</v>
@@ -936,26 +930,26 @@
         <v>213.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -964,12 +958,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -978,12 +972,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -992,12 +986,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -1006,12 +1000,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1020,12 +1014,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1034,12 +1028,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1048,12 +1042,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1062,12 +1056,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1076,12 +1070,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1090,12 +1084,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1104,12 +1098,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1118,12 +1112,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1137,7 +1131,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1146,12 +1140,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1160,12 +1154,12 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>180.0</v>
@@ -1174,12 +1168,12 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>180.0</v>
@@ -1188,12 +1182,12 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>180.0</v>
@@ -1202,12 +1196,12 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>180.0</v>
@@ -1216,12 +1210,12 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>180.0</v>
@@ -1230,12 +1224,12 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>180.0</v>
@@ -1244,12 +1238,12 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>180.0</v>
@@ -1258,26 +1252,26 @@
         <v>225.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>200.0</v>
@@ -1286,12 +1280,12 @@
         <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>200.0</v>
@@ -1300,12 +1294,12 @@
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>200.0</v>
@@ -1314,12 +1308,12 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>200.0</v>
@@ -1328,12 +1322,12 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>200.0</v>
@@ -1342,12 +1336,12 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>200.0</v>
@@ -1356,12 +1350,12 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>200.0</v>
@@ -1370,26 +1364,26 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>244.0</v>
@@ -1398,12 +1392,12 @@
         <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>244.0</v>
@@ -1412,12 +1406,12 @@
         <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>244.0</v>
@@ -1426,12 +1420,12 @@
         <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>244.0</v>
@@ -1440,12 +1434,12 @@
         <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>244.0</v>
@@ -1454,12 +1448,12 @@
         <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>244.0</v>
@@ -1468,12 +1462,12 @@
         <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>244.0</v>
@@ -1482,12 +1476,12 @@
         <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>244.0</v>
@@ -1496,12 +1490,12 @@
         <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>244.0</v>
@@ -1510,12 +1504,12 @@
         <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>244.0</v>
@@ -1524,26 +1518,26 @@
         <v>227.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>246.0</v>
@@ -1552,12 +1546,12 @@
         <v>228.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>246.0</v>
@@ -1566,26 +1560,26 @@
         <v>228.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>266.0</v>
@@ -1594,12 +1588,12 @@
         <v>233.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>266.0</v>
@@ -1608,12 +1602,12 @@
         <v>233.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>266.0</v>
@@ -1622,26 +1616,26 @@
         <v>233.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>271.0</v>
@@ -1650,12 +1644,12 @@
         <v>232.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>271.0</v>
@@ -1664,20 +1658,6 @@
         <v>232.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>271.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>232.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>183.0</v>
       </c>
     </row>
@@ -1696,27 +1676,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>90.0</v>
@@ -1724,13 +1704,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1738,13 +1718,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>45.0</v>
@@ -1752,13 +1732,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>17.0</v>
@@ -1766,13 +1746,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1780,13 +1760,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1794,13 +1774,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1808,13 +1788,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1822,13 +1802,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>15.0</v>
@@ -1849,27 +1829,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1890,18 +1870,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-18</t>
-  </si>
-  <si>
     <t>2025-10-19</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-20</t>
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -433,25 +433,25 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>194.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>75.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>169.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>107.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>34.0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>169.0</v>
@@ -468,26 +468,26 @@
         <v>107.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>148.0</v>
@@ -496,12 +496,12 @@
         <v>136.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>148.0</v>
@@ -510,12 +510,12 @@
         <v>136.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>148.0</v>
@@ -529,21 +529,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>132.0</v>
@@ -552,12 +552,12 @@
         <v>153.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>132.0</v>
@@ -566,26 +566,26 @@
         <v>153.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>113.0</v>
@@ -594,12 +594,12 @@
         <v>181.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>113.0</v>
@@ -608,12 +608,12 @@
         <v>181.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>113.0</v>
@@ -622,26 +622,26 @@
         <v>181.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>100.0</v>
@@ -650,12 +650,12 @@
         <v>203.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>100.0</v>
@@ -664,26 +664,26 @@
         <v>203.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>102.0</v>
@@ -692,12 +692,12 @@
         <v>205.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>102.0</v>
@@ -706,12 +706,12 @@
         <v>205.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>102.0</v>
@@ -720,26 +720,26 @@
         <v>205.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>106.0</v>
@@ -748,12 +748,12 @@
         <v>205.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>106.0</v>
@@ -762,26 +762,26 @@
         <v>205.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>118.0</v>
@@ -790,12 +790,12 @@
         <v>202.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>118.0</v>
@@ -804,12 +804,12 @@
         <v>202.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>118.0</v>
@@ -818,26 +818,26 @@
         <v>202.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>122.0</v>
@@ -846,12 +846,12 @@
         <v>208.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>122.0</v>
@@ -860,26 +860,26 @@
         <v>208.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>127.0</v>
@@ -888,12 +888,12 @@
         <v>213.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>127.0</v>
@@ -902,12 +902,12 @@
         <v>213.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>127.0</v>
@@ -916,26 +916,26 @@
         <v>213.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -944,12 +944,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -958,12 +958,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -972,12 +972,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -986,12 +986,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -1000,12 +1000,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1014,12 +1014,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1028,12 +1028,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1042,12 +1042,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1056,12 +1056,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1070,12 +1070,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1084,12 +1084,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1098,12 +1098,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1126,12 +1126,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1140,12 +1140,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1154,12 +1154,12 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>180.0</v>
@@ -1168,12 +1168,12 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>180.0</v>
@@ -1182,12 +1182,12 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>180.0</v>
@@ -1196,12 +1196,12 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>180.0</v>
@@ -1210,12 +1210,12 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>180.0</v>
@@ -1224,12 +1224,12 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>180.0</v>
@@ -1238,26 +1238,26 @@
         <v>225.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>200.0</v>
@@ -1266,12 +1266,12 @@
         <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>200.0</v>
@@ -1280,12 +1280,12 @@
         <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>200.0</v>
@@ -1294,12 +1294,12 @@
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>200.0</v>
@@ -1308,12 +1308,12 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>200.0</v>
@@ -1322,12 +1322,12 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>200.0</v>
@@ -1336,12 +1336,12 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>200.0</v>
@@ -1350,26 +1350,26 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>244.0</v>
@@ -1378,12 +1378,12 @@
         <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>244.0</v>
@@ -1392,12 +1392,12 @@
         <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>244.0</v>
@@ -1406,12 +1406,12 @@
         <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>244.0</v>
@@ -1420,12 +1420,12 @@
         <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>244.0</v>
@@ -1434,12 +1434,12 @@
         <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>244.0</v>
@@ -1448,12 +1448,12 @@
         <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>244.0</v>
@@ -1462,12 +1462,12 @@
         <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>244.0</v>
@@ -1476,12 +1476,12 @@
         <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>244.0</v>
@@ -1490,12 +1490,12 @@
         <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>244.0</v>
@@ -1504,26 +1504,26 @@
         <v>227.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>246.0</v>
@@ -1532,12 +1532,12 @@
         <v>228.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>246.0</v>
@@ -1546,26 +1546,26 @@
         <v>228.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>266.0</v>
@@ -1574,12 +1574,12 @@
         <v>233.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>266.0</v>
@@ -1588,12 +1588,12 @@
         <v>233.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>266.0</v>
@@ -1602,26 +1602,26 @@
         <v>233.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>271.0</v>
@@ -1630,12 +1630,12 @@
         <v>232.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>271.0</v>
@@ -1644,20 +1644,6 @@
         <v>232.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>271.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>232.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>183.0</v>
       </c>
     </row>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-19</t>
+    <t>2025-10-20</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-20</t>
   </si>
   <si>
     <t>2025-10-21</t>
@@ -409,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -447,14 +444,14 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>107.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="4">
@@ -462,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +479,7 @@
         <v>136.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +493,7 @@
         <v>136.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +535,7 @@
         <v>153.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +549,7 @@
         <v>153.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
@@ -560,13 +557,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +577,7 @@
         <v>181.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +591,7 @@
         <v>181.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
@@ -608,7 +605,7 @@
         <v>181.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="15">
@@ -616,13 +613,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +633,7 @@
         <v>203.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +647,7 @@
         <v>203.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
@@ -658,13 +655,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +675,7 @@
         <v>205.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +689,7 @@
         <v>205.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="21">
@@ -706,7 +703,7 @@
         <v>205.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="22">
@@ -714,13 +711,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +731,7 @@
         <v>205.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="24">
@@ -748,7 +745,7 @@
         <v>205.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -756,13 +753,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +773,7 @@
         <v>202.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +787,7 @@
         <v>202.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
@@ -804,7 +801,7 @@
         <v>202.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="29">
@@ -812,13 +809,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +829,7 @@
         <v>208.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="31">
@@ -846,7 +843,7 @@
         <v>208.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="32">
@@ -854,13 +851,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +871,7 @@
         <v>213.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +885,7 @@
         <v>213.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="35">
@@ -902,7 +899,7 @@
         <v>213.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="36">
@@ -910,13 +907,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +927,7 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +941,7 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="39">
@@ -958,7 +955,7 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +969,7 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="41">
@@ -986,7 +983,7 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="42">
@@ -1000,7 +997,7 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="43">
@@ -1014,7 +1011,7 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1025,7 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="45">
@@ -1042,7 +1039,7 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="46">
@@ -1056,7 +1053,7 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,7 +1067,7 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,7 +1081,7 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="49">
@@ -1112,7 +1109,7 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1123,7 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="52">
@@ -1140,7 +1137,7 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="53">
@@ -1154,7 +1151,7 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1165,7 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,7 +1179,7 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1193,7 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="57">
@@ -1210,7 +1207,7 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1221,7 @@
         <v>225.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="59">
@@ -1232,13 +1229,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="60">
@@ -1252,7 +1249,7 @@
         <v>231.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1263,7 @@
         <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,7 +1277,7 @@
         <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="63">
@@ -1294,7 +1291,7 @@
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="64">
@@ -1308,7 +1305,7 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1319,7 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1333,7 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="67">
@@ -1344,13 +1341,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1361,7 @@
         <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1375,7 @@
         <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="70">
@@ -1392,7 +1389,7 @@
         <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="71">
@@ -1406,7 +1403,7 @@
         <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1417,7 @@
         <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1431,7 @@
         <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="74">
@@ -1448,7 +1445,7 @@
         <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1459,7 @@
         <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1473,7 @@
         <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="77">
@@ -1490,7 +1487,7 @@
         <v>227.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="78">
@@ -1498,13 +1495,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1515,7 @@
         <v>228.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1529,7 @@
         <v>228.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,13 +1537,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1557,7 @@
         <v>233.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1571,7 @@
         <v>233.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="84">
@@ -1588,7 +1585,7 @@
         <v>233.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="85">
@@ -1596,13 +1593,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1613,7 @@
         <v>232.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,20 +1627,6 @@
         <v>232.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>271.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>232.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>183.0</v>
       </c>
     </row>
@@ -1662,27 +1645,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>90.0</v>
@@ -1690,13 +1673,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1704,13 +1687,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>45.0</v>
@@ -1718,13 +1701,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>17.0</v>
@@ -1732,13 +1715,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1746,13 +1729,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1760,13 +1743,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1774,13 +1757,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1788,13 +1771,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>15.0</v>
@@ -1815,27 +1798,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1856,18 +1839,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-10-21</t>
   </si>
   <si>
@@ -288,6 +282,18 @@
   </si>
   <si>
     <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
   </si>
   <si>
     <t>Reason</t>
@@ -406,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -430,33 +436,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>107.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>169.0</v>
+        <v>148.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>107.0</v>
+        <v>136.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>148.0</v>
@@ -465,12 +471,12 @@
         <v>136.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>148.0</v>
@@ -479,12 +485,12 @@
         <v>136.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>148.0</v>
@@ -498,21 +504,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>132.0</v>
@@ -521,12 +527,12 @@
         <v>153.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>132.0</v>
@@ -535,26 +541,26 @@
         <v>153.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>113.0</v>
@@ -563,12 +569,12 @@
         <v>181.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>113.0</v>
@@ -577,12 +583,12 @@
         <v>181.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>113.0</v>
@@ -591,26 +597,26 @@
         <v>181.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>100.0</v>
@@ -619,12 +625,12 @@
         <v>203.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>100.0</v>
@@ -633,26 +639,26 @@
         <v>203.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>102.0</v>
@@ -661,12 +667,12 @@
         <v>205.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>102.0</v>
@@ -675,12 +681,12 @@
         <v>205.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>102.0</v>
@@ -689,26 +695,26 @@
         <v>205.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>106.0</v>
@@ -717,12 +723,12 @@
         <v>205.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>106.0</v>
@@ -731,26 +737,26 @@
         <v>205.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>118.0</v>
@@ -759,12 +765,12 @@
         <v>202.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>118.0</v>
@@ -773,12 +779,12 @@
         <v>202.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>118.0</v>
@@ -787,26 +793,26 @@
         <v>202.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>122.0</v>
@@ -815,12 +821,12 @@
         <v>208.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>122.0</v>
@@ -829,26 +835,26 @@
         <v>208.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>127.0</v>
@@ -857,12 +863,12 @@
         <v>213.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>127.0</v>
@@ -871,12 +877,12 @@
         <v>213.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>127.0</v>
@@ -885,26 +891,26 @@
         <v>213.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -913,12 +919,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -927,12 +933,12 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -941,12 +947,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -955,12 +961,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -969,12 +975,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -983,12 +989,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -997,12 +1003,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1011,12 +1017,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1025,12 +1031,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1039,12 +1045,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1053,12 +1059,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1067,12 +1073,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1086,7 +1092,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1095,12 +1101,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1109,12 +1115,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1123,12 +1129,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1137,12 +1143,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1151,12 +1157,12 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>180.0</v>
@@ -1165,12 +1171,12 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>180.0</v>
@@ -1179,12 +1185,12 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>180.0</v>
@@ -1193,12 +1199,12 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>180.0</v>
@@ -1207,26 +1213,26 @@
         <v>225.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>200.0</v>
@@ -1235,12 +1241,12 @@
         <v>231.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>200.0</v>
@@ -1249,12 +1255,12 @@
         <v>231.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>200.0</v>
@@ -1263,12 +1269,12 @@
         <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>200.0</v>
@@ -1277,12 +1283,12 @@
         <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>200.0</v>
@@ -1291,12 +1297,12 @@
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>200.0</v>
@@ -1305,12 +1311,12 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>200.0</v>
@@ -1319,26 +1325,26 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>244.0</v>
@@ -1347,12 +1353,12 @@
         <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>244.0</v>
@@ -1361,12 +1367,12 @@
         <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>244.0</v>
@@ -1375,12 +1381,12 @@
         <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>244.0</v>
@@ -1389,12 +1395,12 @@
         <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>244.0</v>
@@ -1403,12 +1409,12 @@
         <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>244.0</v>
@@ -1417,12 +1423,12 @@
         <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>244.0</v>
@@ -1431,12 +1437,12 @@
         <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>244.0</v>
@@ -1445,12 +1451,12 @@
         <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>244.0</v>
@@ -1459,12 +1465,12 @@
         <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>244.0</v>
@@ -1473,26 +1479,26 @@
         <v>227.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>246.0</v>
@@ -1501,12 +1507,12 @@
         <v>228.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>246.0</v>
@@ -1515,26 +1521,26 @@
         <v>228.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>266.0</v>
@@ -1543,12 +1549,12 @@
         <v>233.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>266.0</v>
@@ -1557,12 +1563,12 @@
         <v>233.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>266.0</v>
@@ -1571,26 +1577,26 @@
         <v>233.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>271.0</v>
@@ -1599,12 +1605,12 @@
         <v>232.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>271.0</v>
@@ -1613,21 +1619,63 @@
         <v>232.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>281.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>136.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>271.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>232.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>183.0</v>
+      <c r="B88" t="n" s="0">
+        <v>281.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>182.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>281.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>281.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>80.0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,41 +1693,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1687,41 +1735,41 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="D4" t="n" s="0">
-        <v>45.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1729,13 +1777,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1743,13 +1791,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1757,13 +1805,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1771,13 +1819,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>15.0</v>
@@ -1798,27 +1846,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1839,18 +1887,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
     <t>2025-10-22</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-23</t>
@@ -412,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -436,47 +436,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>169.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>107.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>148.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>136.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>148.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>136.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>148.0</v>
@@ -490,21 +490,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>132.0</v>
@@ -513,12 +513,12 @@
         <v>153.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>132.0</v>
@@ -527,26 +527,26 @@
         <v>153.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>113.0</v>
@@ -555,12 +555,12 @@
         <v>181.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>113.0</v>
@@ -569,12 +569,12 @@
         <v>181.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>113.0</v>
@@ -583,26 +583,26 @@
         <v>181.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>100.0</v>
@@ -611,12 +611,12 @@
         <v>203.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>100.0</v>
@@ -625,26 +625,26 @@
         <v>203.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>102.0</v>
@@ -653,12 +653,12 @@
         <v>205.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>102.0</v>
@@ -667,12 +667,12 @@
         <v>205.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>102.0</v>
@@ -681,26 +681,26 @@
         <v>205.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>106.0</v>
@@ -709,12 +709,12 @@
         <v>205.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>106.0</v>
@@ -723,26 +723,26 @@
         <v>205.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>118.0</v>
@@ -751,12 +751,12 @@
         <v>202.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>118.0</v>
@@ -765,12 +765,12 @@
         <v>202.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>118.0</v>
@@ -779,26 +779,26 @@
         <v>202.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>122.0</v>
@@ -807,12 +807,12 @@
         <v>208.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>122.0</v>
@@ -821,26 +821,26 @@
         <v>208.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>127.0</v>
@@ -849,12 +849,12 @@
         <v>213.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>127.0</v>
@@ -863,12 +863,12 @@
         <v>213.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>127.0</v>
@@ -877,26 +877,26 @@
         <v>213.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -905,12 +905,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -919,12 +919,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -933,12 +933,12 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -947,12 +947,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -961,12 +961,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -975,12 +975,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -989,12 +989,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -1003,12 +1003,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1017,12 +1017,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1031,12 +1031,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1045,12 +1045,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1059,12 +1059,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1087,12 +1087,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1101,12 +1101,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1115,12 +1115,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1129,12 +1129,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1143,12 +1143,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1157,12 +1157,12 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>180.0</v>
@@ -1171,12 +1171,12 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>180.0</v>
@@ -1185,12 +1185,12 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>180.0</v>
@@ -1199,26 +1199,26 @@
         <v>225.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>200.0</v>
@@ -1227,12 +1227,12 @@
         <v>231.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>200.0</v>
@@ -1241,12 +1241,12 @@
         <v>231.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>200.0</v>
@@ -1255,12 +1255,12 @@
         <v>231.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>200.0</v>
@@ -1269,12 +1269,12 @@
         <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>200.0</v>
@@ -1283,12 +1283,12 @@
         <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>200.0</v>
@@ -1297,12 +1297,12 @@
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>200.0</v>
@@ -1311,26 +1311,26 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>244.0</v>
@@ -1339,12 +1339,12 @@
         <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>244.0</v>
@@ -1353,12 +1353,12 @@
         <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>244.0</v>
@@ -1367,12 +1367,12 @@
         <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>244.0</v>
@@ -1381,12 +1381,12 @@
         <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>244.0</v>
@@ -1395,12 +1395,12 @@
         <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>244.0</v>
@@ -1409,12 +1409,12 @@
         <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>244.0</v>
@@ -1423,12 +1423,12 @@
         <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>244.0</v>
@@ -1437,12 +1437,12 @@
         <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>244.0</v>
@@ -1451,12 +1451,12 @@
         <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>244.0</v>
@@ -1465,26 +1465,26 @@
         <v>227.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>246.0</v>
@@ -1493,12 +1493,12 @@
         <v>228.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>246.0</v>
@@ -1507,26 +1507,26 @@
         <v>228.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>266.0</v>
@@ -1535,12 +1535,12 @@
         <v>233.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>266.0</v>
@@ -1549,12 +1549,12 @@
         <v>233.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>266.0</v>
@@ -1563,26 +1563,26 @@
         <v>233.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>271.0</v>
@@ -1591,12 +1591,12 @@
         <v>232.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>271.0</v>
@@ -1605,26 +1605,26 @@
         <v>232.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>281.0</v>
@@ -1633,12 +1633,12 @@
         <v>230.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>281.0</v>
@@ -1647,12 +1647,12 @@
         <v>230.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>281.0</v>
@@ -1661,20 +1661,6 @@
         <v>230.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>281.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>230.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>80.0</v>
       </c>
     </row>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-22</t>
+    <t>2025-10-23</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-23</t>
   </si>
   <si>
     <t>2025-10-24</t>
@@ -412,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -443,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -457,18 +454,18 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>136.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>11.0</v>
@@ -479,13 +476,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,7 +496,7 @@
         <v>153.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +510,7 @@
         <v>153.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,13 +518,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +538,7 @@
         <v>181.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
@@ -555,7 +552,7 @@
         <v>181.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
@@ -569,7 +566,7 @@
         <v>181.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
@@ -577,13 +574,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
@@ -597,7 +594,7 @@
         <v>203.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +608,7 @@
         <v>203.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
@@ -619,13 +616,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +636,7 @@
         <v>205.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +650,7 @@
         <v>205.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
@@ -667,7 +664,7 @@
         <v>205.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
@@ -675,13 +672,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="20">
@@ -695,7 +692,7 @@
         <v>205.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
@@ -709,7 +706,7 @@
         <v>205.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -717,13 +714,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="23">
@@ -737,7 +734,7 @@
         <v>202.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="24">
@@ -751,7 +748,7 @@
         <v>202.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -765,7 +762,7 @@
         <v>202.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="26">
@@ -773,13 +770,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="27">
@@ -793,7 +790,7 @@
         <v>208.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="28">
@@ -807,7 +804,7 @@
         <v>208.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="29">
@@ -815,13 +812,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="30">
@@ -835,7 +832,7 @@
         <v>213.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -849,7 +846,7 @@
         <v>213.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="32">
@@ -863,7 +860,7 @@
         <v>213.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="33">
@@ -871,13 +868,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="34">
@@ -891,7 +888,7 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="35">
@@ -905,7 +902,7 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="36">
@@ -919,7 +916,7 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="37">
@@ -933,7 +930,7 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="38">
@@ -947,7 +944,7 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="39">
@@ -961,7 +958,7 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="40">
@@ -975,7 +972,7 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="41">
@@ -989,7 +986,7 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="42">
@@ -1003,7 +1000,7 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="43">
@@ -1017,7 +1014,7 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="44">
@@ -1031,7 +1028,7 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="45">
@@ -1045,7 +1042,7 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="46">
@@ -1073,7 +1070,7 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="48">
@@ -1087,7 +1084,7 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="49">
@@ -1101,7 +1098,7 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="50">
@@ -1115,7 +1112,7 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="51">
@@ -1129,7 +1126,7 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="52">
@@ -1143,7 +1140,7 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="53">
@@ -1157,7 +1154,7 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="54">
@@ -1171,7 +1168,7 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="55">
@@ -1185,7 +1182,7 @@
         <v>225.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="56">
@@ -1193,13 +1190,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="57">
@@ -1213,7 +1210,7 @@
         <v>231.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="58">
@@ -1227,7 +1224,7 @@
         <v>231.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1238,7 @@
         <v>231.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="60">
@@ -1255,7 +1252,7 @@
         <v>231.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="61">
@@ -1269,7 +1266,7 @@
         <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="62">
@@ -1283,7 +1280,7 @@
         <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="63">
@@ -1297,7 +1294,7 @@
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="64">
@@ -1305,13 +1302,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="65">
@@ -1325,7 +1322,7 @@
         <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="66">
@@ -1339,7 +1336,7 @@
         <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="67">
@@ -1353,7 +1350,7 @@
         <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="68">
@@ -1367,7 +1364,7 @@
         <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="69">
@@ -1381,7 +1378,7 @@
         <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="70">
@@ -1395,7 +1392,7 @@
         <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="71">
@@ -1409,7 +1406,7 @@
         <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="72">
@@ -1423,7 +1420,7 @@
         <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="73">
@@ -1437,7 +1434,7 @@
         <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="74">
@@ -1451,7 +1448,7 @@
         <v>227.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="75">
@@ -1459,13 +1456,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="76">
@@ -1479,7 +1476,7 @@
         <v>228.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="77">
@@ -1493,7 +1490,7 @@
         <v>228.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="78">
@@ -1501,13 +1498,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="79">
@@ -1521,7 +1518,7 @@
         <v>233.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="80">
@@ -1535,7 +1532,7 @@
         <v>233.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="81">
@@ -1549,7 +1546,7 @@
         <v>233.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="82">
@@ -1557,13 +1554,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="83">
@@ -1577,7 +1574,7 @@
         <v>232.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="84">
@@ -1591,7 +1588,7 @@
         <v>232.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="85">
@@ -1599,13 +1596,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="86">
@@ -1619,7 +1616,7 @@
         <v>230.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="87">
@@ -1633,7 +1630,7 @@
         <v>230.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="88">
@@ -1647,20 +1644,6 @@
         <v>230.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>281.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>230.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>80.0</v>
       </c>
     </row>
@@ -1679,27 +1662,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>93.0</v>
@@ -1707,13 +1690,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1721,13 +1704,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>51.0</v>
@@ -1735,13 +1718,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>18.0</v>
@@ -1749,13 +1732,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>13.0</v>
@@ -1763,13 +1746,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1777,13 +1760,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1791,13 +1774,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1805,13 +1788,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>15.0</v>
@@ -1832,27 +1815,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1873,18 +1856,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>114</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -29,15 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-23</t>
+    <t>2025-10-24</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
     <t>2025-10-25</t>
   </si>
   <si>
@@ -291,6 +288,15 @@
   </si>
   <si>
     <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
   </si>
   <si>
     <t>Reason</t>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -440,18 +446,18 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>136.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>11.0</v>
@@ -462,13 +468,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +488,7 @@
         <v>153.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +502,7 @@
         <v>153.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +530,7 @@
         <v>181.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +544,7 @@
         <v>181.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +558,7 @@
         <v>181.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="11">
@@ -560,13 +566,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +586,7 @@
         <v>203.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +600,7 @@
         <v>203.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
@@ -602,13 +608,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="15">
@@ -622,7 +628,7 @@
         <v>205.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +642,7 @@
         <v>205.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +656,7 @@
         <v>205.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
@@ -658,13 +664,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +684,7 @@
         <v>205.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +698,7 @@
         <v>205.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -700,13 +706,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +726,7 @@
         <v>202.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +740,7 @@
         <v>202.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -748,7 +754,7 @@
         <v>202.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="25">
@@ -756,13 +762,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +782,7 @@
         <v>208.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +796,7 @@
         <v>208.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="28">
@@ -798,13 +804,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="29">
@@ -818,7 +824,7 @@
         <v>213.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +838,7 @@
         <v>213.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="31">
@@ -846,7 +852,7 @@
         <v>213.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="32">
@@ -854,13 +860,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +880,7 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +894,7 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="35">
@@ -902,7 +908,7 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="36">
@@ -916,7 +922,7 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +936,7 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +950,7 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="39">
@@ -958,7 +964,7 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +978,7 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="41">
@@ -986,7 +992,7 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="42">
@@ -1000,7 +1006,7 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="43">
@@ -1014,7 +1020,7 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1034,7 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="45">
@@ -1056,7 +1062,7 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,7 +1076,7 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,7 +1090,7 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="49">
@@ -1098,7 +1104,7 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="50">
@@ -1112,7 +1118,7 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1132,7 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="52">
@@ -1140,7 +1146,7 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="53">
@@ -1154,7 +1160,7 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1174,7 @@
         <v>225.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="55">
@@ -1176,13 +1182,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1202,7 @@
         <v>231.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="57">
@@ -1210,7 +1216,7 @@
         <v>231.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1230,7 @@
         <v>231.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,7 +1244,7 @@
         <v>231.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="60">
@@ -1252,7 +1258,7 @@
         <v>231.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1272,7 @@
         <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,7 +1286,7 @@
         <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="63">
@@ -1288,13 +1294,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="64">
@@ -1308,7 +1314,7 @@
         <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1328,7 @@
         <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1342,7 @@
         <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="67">
@@ -1350,7 +1356,7 @@
         <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1370,7 @@
         <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1384,7 @@
         <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="70">
@@ -1392,7 +1398,7 @@
         <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="71">
@@ -1406,7 +1412,7 @@
         <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1426,7 @@
         <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1440,7 @@
         <v>227.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="74">
@@ -1442,13 +1448,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1468,7 @@
         <v>228.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1482,7 @@
         <v>228.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="77">
@@ -1484,13 +1490,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="78">
@@ -1504,7 +1510,7 @@
         <v>233.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1524,7 @@
         <v>233.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1538,7 @@
         <v>233.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,13 +1546,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1566,7 @@
         <v>232.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1580,7 @@
         <v>232.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="84">
@@ -1582,13 +1588,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="85">
@@ -1602,7 +1608,7 @@
         <v>230.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1622,7 @@
         <v>230.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,7 +1636,7 @@
         <v>230.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="88">
@@ -1638,13 +1644,41 @@
         <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>292.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>292.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1662,41 +1696,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>93.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1704,27 +1738,27 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
-      </c>
       <c r="D4" t="n" s="0">
-        <v>51.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>18.0</v>
@@ -1732,27 +1766,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1760,13 +1794,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1774,13 +1808,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1788,16 +1822,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
   </sheetData>
@@ -1815,27 +1849,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1856,18 +1890,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-25</t>
@@ -415,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -439,11 +433,11 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>136.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>11.0</v>
@@ -451,21 +445,21 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>148.0</v>
+        <v>132.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>136.0</v>
+        <v>153.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>132.0</v>
@@ -474,12 +468,12 @@
         <v>153.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>132.0</v>
@@ -488,26 +482,26 @@
         <v>153.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>113.0</v>
@@ -516,12 +510,12 @@
         <v>181.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>113.0</v>
@@ -530,12 +524,12 @@
         <v>181.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>113.0</v>
@@ -544,26 +538,26 @@
         <v>181.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>100.0</v>
@@ -572,12 +566,12 @@
         <v>203.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>100.0</v>
@@ -586,26 +580,26 @@
         <v>203.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>102.0</v>
@@ -614,12 +608,12 @@
         <v>205.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>102.0</v>
@@ -628,12 +622,12 @@
         <v>205.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>102.0</v>
@@ -642,26 +636,26 @@
         <v>205.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>106.0</v>
@@ -670,12 +664,12 @@
         <v>205.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>106.0</v>
@@ -684,26 +678,26 @@
         <v>205.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>118.0</v>
@@ -712,12 +706,12 @@
         <v>202.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>118.0</v>
@@ -726,12 +720,12 @@
         <v>202.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>118.0</v>
@@ -740,26 +734,26 @@
         <v>202.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>122.0</v>
@@ -768,12 +762,12 @@
         <v>208.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>122.0</v>
@@ -782,26 +776,26 @@
         <v>208.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>127.0</v>
@@ -810,12 +804,12 @@
         <v>213.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>127.0</v>
@@ -824,12 +818,12 @@
         <v>213.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>127.0</v>
@@ -838,26 +832,26 @@
         <v>213.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -866,12 +860,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -880,12 +874,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -894,12 +888,12 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -908,12 +902,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -922,12 +916,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -936,12 +930,12 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -950,12 +944,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -964,12 +958,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -978,12 +972,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -992,12 +986,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -1006,12 +1000,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1020,12 +1014,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1039,7 +1033,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1048,12 +1042,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1062,12 +1056,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1076,12 +1070,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1090,12 +1084,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1104,12 +1098,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1118,12 +1112,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1132,12 +1126,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1146,12 +1140,12 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>180.0</v>
@@ -1160,26 +1154,26 @@
         <v>225.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>200.0</v>
@@ -1188,12 +1182,12 @@
         <v>231.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>200.0</v>
@@ -1202,12 +1196,12 @@
         <v>231.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>200.0</v>
@@ -1216,12 +1210,12 @@
         <v>231.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>200.0</v>
@@ -1230,12 +1224,12 @@
         <v>231.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>200.0</v>
@@ -1244,12 +1238,12 @@
         <v>231.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>200.0</v>
@@ -1258,12 +1252,12 @@
         <v>231.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>200.0</v>
@@ -1272,26 +1266,26 @@
         <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>244.0</v>
@@ -1300,12 +1294,12 @@
         <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>244.0</v>
@@ -1314,12 +1308,12 @@
         <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>244.0</v>
@@ -1328,12 +1322,12 @@
         <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>244.0</v>
@@ -1342,12 +1336,12 @@
         <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>244.0</v>
@@ -1356,12 +1350,12 @@
         <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>244.0</v>
@@ -1370,12 +1364,12 @@
         <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>244.0</v>
@@ -1384,12 +1378,12 @@
         <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>244.0</v>
@@ -1398,12 +1392,12 @@
         <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>244.0</v>
@@ -1412,12 +1406,12 @@
         <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>244.0</v>
@@ -1426,26 +1420,26 @@
         <v>227.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>246.0</v>
@@ -1454,12 +1448,12 @@
         <v>228.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>246.0</v>
@@ -1468,26 +1462,26 @@
         <v>228.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>266.0</v>
@@ -1496,12 +1490,12 @@
         <v>233.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>266.0</v>
@@ -1510,12 +1504,12 @@
         <v>233.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>266.0</v>
@@ -1524,26 +1518,26 @@
         <v>233.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>271.0</v>
@@ -1552,12 +1546,12 @@
         <v>232.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>271.0</v>
@@ -1566,26 +1560,26 @@
         <v>232.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>281.0</v>
@@ -1594,12 +1588,12 @@
         <v>230.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>281.0</v>
@@ -1608,12 +1602,12 @@
         <v>230.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>281.0</v>
@@ -1622,26 +1616,26 @@
         <v>230.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>292.0</v>
@@ -1650,12 +1644,12 @@
         <v>231.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>292.0</v>
@@ -1664,21 +1658,7 @@
         <v>231.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>292.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>231.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>5</v>
+        <v>79.0</v>
       </c>
     </row>
   </sheetData>
@@ -1696,27 +1676,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>95.0</v>
@@ -1724,13 +1704,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1738,13 +1718,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>59.0</v>
@@ -1752,13 +1732,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>18.0</v>
@@ -1766,13 +1746,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1780,13 +1760,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1794,13 +1774,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1808,13 +1788,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1822,13 +1802,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>17.0</v>
@@ -1849,27 +1829,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1890,18 +1870,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-25</t>
-  </si>
-  <si>
     <t>2025-10-26</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-27</t>
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -433,33 +433,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>148.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>136.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>132.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>153.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>132.0</v>
@@ -468,26 +468,26 @@
         <v>153.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>113.0</v>
@@ -496,12 +496,12 @@
         <v>181.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>113.0</v>
@@ -510,12 +510,12 @@
         <v>181.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>113.0</v>
@@ -524,26 +524,26 @@
         <v>181.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>100.0</v>
@@ -552,12 +552,12 @@
         <v>203.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>100.0</v>
@@ -566,26 +566,26 @@
         <v>203.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>102.0</v>
@@ -594,12 +594,12 @@
         <v>205.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>102.0</v>
@@ -608,12 +608,12 @@
         <v>205.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>102.0</v>
@@ -622,26 +622,26 @@
         <v>205.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>106.0</v>
@@ -650,12 +650,12 @@
         <v>205.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>106.0</v>
@@ -664,26 +664,26 @@
         <v>205.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>118.0</v>
@@ -692,12 +692,12 @@
         <v>202.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>118.0</v>
@@ -706,12 +706,12 @@
         <v>202.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>118.0</v>
@@ -720,26 +720,26 @@
         <v>202.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>122.0</v>
@@ -748,12 +748,12 @@
         <v>208.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>122.0</v>
@@ -762,26 +762,26 @@
         <v>208.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>127.0</v>
@@ -790,12 +790,12 @@
         <v>213.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>127.0</v>
@@ -804,12 +804,12 @@
         <v>213.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>127.0</v>
@@ -818,26 +818,26 @@
         <v>213.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -846,12 +846,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -860,12 +860,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -874,12 +874,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -888,12 +888,12 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -902,12 +902,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -916,12 +916,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -930,12 +930,12 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -944,12 +944,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -958,12 +958,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -972,12 +972,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -986,12 +986,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -1000,12 +1000,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1028,12 +1028,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1042,12 +1042,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1056,12 +1056,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1070,12 +1070,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1084,12 +1084,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1098,12 +1098,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1112,12 +1112,12 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>180.0</v>
@@ -1126,12 +1126,12 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>180.0</v>
@@ -1140,26 +1140,26 @@
         <v>225.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>200.0</v>
@@ -1168,12 +1168,12 @@
         <v>231.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>200.0</v>
@@ -1182,12 +1182,12 @@
         <v>231.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>200.0</v>
@@ -1196,12 +1196,12 @@
         <v>231.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>200.0</v>
@@ -1210,12 +1210,12 @@
         <v>231.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>200.0</v>
@@ -1224,12 +1224,12 @@
         <v>231.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>200.0</v>
@@ -1238,12 +1238,12 @@
         <v>231.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>200.0</v>
@@ -1252,26 +1252,26 @@
         <v>231.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>244.0</v>
@@ -1280,12 +1280,12 @@
         <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>244.0</v>
@@ -1294,12 +1294,12 @@
         <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>244.0</v>
@@ -1308,12 +1308,12 @@
         <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>244.0</v>
@@ -1322,12 +1322,12 @@
         <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>244.0</v>
@@ -1336,12 +1336,12 @@
         <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>244.0</v>
@@ -1350,12 +1350,12 @@
         <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>244.0</v>
@@ -1364,12 +1364,12 @@
         <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>244.0</v>
@@ -1378,12 +1378,12 @@
         <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>244.0</v>
@@ -1392,12 +1392,12 @@
         <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>244.0</v>
@@ -1406,26 +1406,26 @@
         <v>227.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>246.0</v>
@@ -1434,12 +1434,12 @@
         <v>228.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>246.0</v>
@@ -1448,26 +1448,26 @@
         <v>228.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>266.0</v>
@@ -1476,12 +1476,12 @@
         <v>233.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>266.0</v>
@@ -1490,12 +1490,12 @@
         <v>233.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>266.0</v>
@@ -1504,26 +1504,26 @@
         <v>233.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>271.0</v>
@@ -1532,12 +1532,12 @@
         <v>232.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>271.0</v>
@@ -1546,26 +1546,26 @@
         <v>232.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>281.0</v>
@@ -1574,12 +1574,12 @@
         <v>230.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>281.0</v>
@@ -1588,12 +1588,12 @@
         <v>230.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>281.0</v>
@@ -1602,26 +1602,26 @@
         <v>230.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>292.0</v>
@@ -1630,12 +1630,12 @@
         <v>231.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>292.0</v>
@@ -1644,20 +1644,6 @@
         <v>231.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>292.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>231.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>79.0</v>
       </c>
     </row>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-26</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-27</t>
   </si>
   <si>
     <t>2025-10-28</t>
@@ -409,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -440,21 +437,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>153.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="4">
@@ -462,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +479,7 @@
         <v>181.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +493,7 @@
         <v>181.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +507,7 @@
         <v>181.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="8">
@@ -518,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +535,7 @@
         <v>203.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +549,7 @@
         <v>203.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
@@ -560,13 +557,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +577,7 @@
         <v>205.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +591,7 @@
         <v>205.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
@@ -608,7 +605,7 @@
         <v>205.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
@@ -616,13 +613,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +633,7 @@
         <v>205.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +647,7 @@
         <v>205.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -658,13 +655,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +675,7 @@
         <v>202.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +689,7 @@
         <v>202.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -706,7 +703,7 @@
         <v>202.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="22">
@@ -714,13 +711,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +731,7 @@
         <v>208.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="24">
@@ -748,7 +745,7 @@
         <v>208.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="25">
@@ -756,13 +753,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +773,7 @@
         <v>213.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +787,7 @@
         <v>213.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="28">
@@ -804,7 +801,7 @@
         <v>213.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="29">
@@ -812,13 +809,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +829,7 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="31">
@@ -846,7 +843,7 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="32">
@@ -860,7 +857,7 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +871,7 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +885,7 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="35">
@@ -902,7 +899,7 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="36">
@@ -916,7 +913,7 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +927,7 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +941,7 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="39">
@@ -958,7 +955,7 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +969,7 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="41">
@@ -986,7 +983,7 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="42">
@@ -1014,7 +1011,7 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1025,7 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="45">
@@ -1042,7 +1039,7 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="46">
@@ -1056,7 +1053,7 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,7 +1067,7 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,7 +1081,7 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="49">
@@ -1098,7 +1095,7 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="50">
@@ -1112,7 +1109,7 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1123,7 @@
         <v>225.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="52">
@@ -1134,13 +1131,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="53">
@@ -1154,7 +1151,7 @@
         <v>231.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1165,7 @@
         <v>231.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,7 +1179,7 @@
         <v>231.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1193,7 @@
         <v>231.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="57">
@@ -1210,7 +1207,7 @@
         <v>231.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1221,7 @@
         <v>231.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,7 +1235,7 @@
         <v>231.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="60">
@@ -1246,13 +1243,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1263,7 @@
         <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,7 +1277,7 @@
         <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="63">
@@ -1294,7 +1291,7 @@
         <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="64">
@@ -1308,7 +1305,7 @@
         <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1319,7 @@
         <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1333,7 @@
         <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="67">
@@ -1350,7 +1347,7 @@
         <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1361,7 @@
         <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1375,7 @@
         <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="70">
@@ -1392,7 +1389,7 @@
         <v>227.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="71">
@@ -1400,13 +1397,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1417,7 @@
         <v>228.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1431,7 @@
         <v>228.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="74">
@@ -1442,13 +1439,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1459,7 @@
         <v>233.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1473,7 @@
         <v>233.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="77">
@@ -1490,7 +1487,7 @@
         <v>233.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="78">
@@ -1498,13 +1495,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1515,7 @@
         <v>232.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1529,7 @@
         <v>232.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,13 +1537,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1557,7 @@
         <v>230.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1571,7 @@
         <v>230.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="84">
@@ -1588,7 +1585,7 @@
         <v>230.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="85">
@@ -1596,13 +1593,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1613,7 @@
         <v>231.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,20 +1627,6 @@
         <v>231.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>292.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>231.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>79.0</v>
       </c>
     </row>
@@ -1662,27 +1645,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>95.0</v>
@@ -1690,13 +1673,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1704,13 +1687,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>59.0</v>
@@ -1718,13 +1701,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>18.0</v>
@@ -1732,13 +1715,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1746,13 +1729,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1760,13 +1743,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1774,13 +1757,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1788,13 +1771,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>17.0</v>
@@ -1815,27 +1798,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1856,18 +1839,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -29,265 +29,274 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>2025-10-29</t>
-  </si>
-  <si>
-    <t>2025-10-30</t>
-  </si>
-  <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
-    <t>2025-11-02</t>
-  </si>
-  <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
-    <t>2025-11-16</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
-  </si>
-  <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2025-11-29</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>2025-12-02</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2025-12-06</t>
-  </si>
-  <si>
-    <t>2025-12-07</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-11</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>2025-12-13</t>
-  </si>
-  <si>
-    <t>2025-12-14</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-23</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2025-12-27</t>
-  </si>
-  <si>
-    <t>2025-12-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
   </si>
   <si>
     <t>Reason</t>
@@ -406,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -430,33 +439,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>153.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>132.0</v>
+        <v>113.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>113.0</v>
@@ -465,12 +474,12 @@
         <v>181.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>113.0</v>
@@ -479,12 +488,12 @@
         <v>181.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>113.0</v>
@@ -493,26 +502,26 @@
         <v>181.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>100.0</v>
@@ -521,12 +530,12 @@
         <v>203.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>100.0</v>
@@ -535,26 +544,26 @@
         <v>203.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>102.0</v>
@@ -563,12 +572,12 @@
         <v>205.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>102.0</v>
@@ -577,12 +586,12 @@
         <v>205.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>102.0</v>
@@ -591,26 +600,26 @@
         <v>205.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>106.0</v>
@@ -619,12 +628,12 @@
         <v>205.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>106.0</v>
@@ -633,26 +642,26 @@
         <v>205.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>118.0</v>
@@ -661,12 +670,12 @@
         <v>202.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>118.0</v>
@@ -675,12 +684,12 @@
         <v>202.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>118.0</v>
@@ -689,26 +698,26 @@
         <v>202.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>122.0</v>
@@ -717,12 +726,12 @@
         <v>208.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>122.0</v>
@@ -731,26 +740,26 @@
         <v>208.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>127.0</v>
@@ -759,12 +768,12 @@
         <v>213.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>127.0</v>
@@ -773,12 +782,12 @@
         <v>213.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>127.0</v>
@@ -787,26 +796,26 @@
         <v>213.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -815,12 +824,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -829,12 +838,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -843,12 +852,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -857,12 +866,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -871,12 +880,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -885,12 +894,12 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -899,12 +908,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -913,12 +922,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -927,12 +936,12 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -941,12 +950,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -955,12 +964,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -969,12 +978,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -988,7 +997,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -997,12 +1006,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1011,12 +1020,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1025,12 +1034,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1039,12 +1048,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1053,12 +1062,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1067,12 +1076,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1081,12 +1090,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1095,12 +1104,12 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>180.0</v>
@@ -1109,26 +1118,26 @@
         <v>225.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>200.0</v>
@@ -1137,12 +1146,12 @@
         <v>231.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>200.0</v>
@@ -1151,12 +1160,12 @@
         <v>231.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>200.0</v>
@@ -1165,12 +1174,12 @@
         <v>231.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>200.0</v>
@@ -1179,12 +1188,12 @@
         <v>231.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>200.0</v>
@@ -1193,12 +1202,12 @@
         <v>231.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>200.0</v>
@@ -1207,12 +1216,12 @@
         <v>231.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>200.0</v>
@@ -1221,26 +1230,26 @@
         <v>231.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>244.0</v>
@@ -1249,12 +1258,12 @@
         <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>244.0</v>
@@ -1263,12 +1272,12 @@
         <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>244.0</v>
@@ -1277,12 +1286,12 @@
         <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>244.0</v>
@@ -1291,12 +1300,12 @@
         <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>244.0</v>
@@ -1305,12 +1314,12 @@
         <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>244.0</v>
@@ -1319,12 +1328,12 @@
         <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>244.0</v>
@@ -1333,12 +1342,12 @@
         <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>244.0</v>
@@ -1347,12 +1356,12 @@
         <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>244.0</v>
@@ -1361,12 +1370,12 @@
         <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>244.0</v>
@@ -1375,26 +1384,26 @@
         <v>227.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>246.0</v>
@@ -1403,12 +1412,12 @@
         <v>228.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>246.0</v>
@@ -1417,26 +1426,26 @@
         <v>228.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>266.0</v>
@@ -1445,12 +1454,12 @@
         <v>233.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>266.0</v>
@@ -1459,12 +1468,12 @@
         <v>233.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>266.0</v>
@@ -1473,26 +1482,26 @@
         <v>233.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>271.0</v>
@@ -1501,12 +1510,12 @@
         <v>232.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>271.0</v>
@@ -1515,26 +1524,26 @@
         <v>232.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>281.0</v>
@@ -1543,12 +1552,12 @@
         <v>230.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>281.0</v>
@@ -1557,12 +1566,12 @@
         <v>230.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>281.0</v>
@@ -1571,26 +1580,26 @@
         <v>230.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>292.0</v>
@@ -1599,12 +1608,12 @@
         <v>231.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>292.0</v>
@@ -1613,21 +1622,63 @@
         <v>231.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C87" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>293.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>293.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>89.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>293.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1645,27 +1696,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>95.0</v>
@@ -1673,13 +1724,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1687,13 +1738,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>59.0</v>
@@ -1701,13 +1752,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>18.0</v>
@@ -1715,13 +1766,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1729,13 +1780,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1743,13 +1794,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1757,13 +1808,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1771,16 +1822,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
@@ -1798,27 +1849,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1839,18 +1890,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
     <t>2025-10-29</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-10-30</t>
   </si>
   <si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>2026-01-24</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Reason</t>
@@ -415,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -439,47 +436,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>132.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>153.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>113.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>181.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>113.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>181.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>113.0</v>
@@ -488,26 +485,26 @@
         <v>181.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>100.0</v>
@@ -516,12 +513,12 @@
         <v>203.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>100.0</v>
@@ -530,26 +527,26 @@
         <v>203.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>102.0</v>
@@ -558,12 +555,12 @@
         <v>205.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>102.0</v>
@@ -572,12 +569,12 @@
         <v>205.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>102.0</v>
@@ -586,26 +583,26 @@
         <v>205.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>106.0</v>
@@ -614,12 +611,12 @@
         <v>205.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>106.0</v>
@@ -628,26 +625,26 @@
         <v>205.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>118.0</v>
@@ -656,12 +653,12 @@
         <v>202.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>118.0</v>
@@ -670,12 +667,12 @@
         <v>202.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>118.0</v>
@@ -684,26 +681,26 @@
         <v>202.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>122.0</v>
@@ -712,12 +709,12 @@
         <v>208.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>122.0</v>
@@ -726,26 +723,26 @@
         <v>208.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>127.0</v>
@@ -754,12 +751,12 @@
         <v>213.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>127.0</v>
@@ -768,12 +765,12 @@
         <v>213.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>127.0</v>
@@ -782,26 +779,26 @@
         <v>213.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -810,12 +807,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -824,12 +821,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -838,12 +835,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -852,12 +849,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -866,12 +863,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -880,12 +877,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -894,12 +891,12 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -908,12 +905,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -922,12 +919,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -936,12 +933,12 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -950,12 +947,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -964,12 +961,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -983,7 +980,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -992,12 +989,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -1006,12 +1003,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1020,12 +1017,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1034,12 +1031,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1048,12 +1045,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1062,12 +1059,12 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>180.0</v>
@@ -1076,12 +1073,12 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>180.0</v>
@@ -1090,12 +1087,12 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>180.0</v>
@@ -1104,26 +1101,26 @@
         <v>225.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>200.0</v>
@@ -1132,12 +1129,12 @@
         <v>231.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>200.0</v>
@@ -1146,12 +1143,12 @@
         <v>231.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>200.0</v>
@@ -1160,12 +1157,12 @@
         <v>231.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>200.0</v>
@@ -1174,12 +1171,12 @@
         <v>231.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>200.0</v>
@@ -1188,12 +1185,12 @@
         <v>231.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>200.0</v>
@@ -1202,12 +1199,12 @@
         <v>231.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>200.0</v>
@@ -1216,26 +1213,26 @@
         <v>231.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>244.0</v>
@@ -1244,12 +1241,12 @@
         <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>244.0</v>
@@ -1258,12 +1255,12 @@
         <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>244.0</v>
@@ -1272,12 +1269,12 @@
         <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>244.0</v>
@@ -1286,12 +1283,12 @@
         <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>244.0</v>
@@ -1300,12 +1297,12 @@
         <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>244.0</v>
@@ -1314,12 +1311,12 @@
         <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>244.0</v>
@@ -1328,12 +1325,12 @@
         <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>244.0</v>
@@ -1342,12 +1339,12 @@
         <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>244.0</v>
@@ -1356,12 +1353,12 @@
         <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>244.0</v>
@@ -1370,26 +1367,26 @@
         <v>227.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>246.0</v>
@@ -1398,12 +1395,12 @@
         <v>228.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>246.0</v>
@@ -1412,26 +1409,26 @@
         <v>228.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>266.0</v>
@@ -1440,12 +1437,12 @@
         <v>233.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>266.0</v>
@@ -1454,12 +1451,12 @@
         <v>233.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>266.0</v>
@@ -1468,26 +1465,26 @@
         <v>233.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>271.0</v>
@@ -1496,12 +1493,12 @@
         <v>232.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>271.0</v>
@@ -1510,26 +1507,26 @@
         <v>232.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>281.0</v>
@@ -1538,12 +1535,12 @@
         <v>230.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>281.0</v>
@@ -1552,12 +1549,12 @@
         <v>230.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>281.0</v>
@@ -1566,26 +1563,26 @@
         <v>230.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>292.0</v>
@@ -1594,12 +1591,12 @@
         <v>231.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>292.0</v>
@@ -1608,26 +1605,26 @@
         <v>231.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C86" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>293.0</v>
@@ -1636,12 +1633,12 @@
         <v>231.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>293.0</v>
@@ -1650,12 +1647,12 @@
         <v>231.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>293.0</v>
@@ -1664,21 +1661,7 @@
         <v>231.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>293.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>231.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>93</v>
+        <v>309.0</v>
       </c>
     </row>
   </sheetData>
@@ -1696,27 +1679,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>95.0</v>
@@ -1724,13 +1707,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1738,13 +1721,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>59.0</v>
@@ -1752,13 +1735,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>104</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>18.0</v>
@@ -1766,13 +1749,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1780,13 +1763,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>107</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1794,13 +1777,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1808,13 +1791,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>110</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1822,13 +1805,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>18.0</v>
@@ -1849,27 +1832,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1890,18 +1873,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>115</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-29</t>
+    <t>2025-10-30</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-30</t>
   </si>
   <si>
     <t>2025-10-31</t>
@@ -412,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -443,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
@@ -457,21 +454,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>181.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
@@ -479,13 +476,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,7 +496,7 @@
         <v>203.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +510,7 @@
         <v>203.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,13 +518,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +538,7 @@
         <v>205.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="10">
@@ -555,7 +552,7 @@
         <v>205.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="11">
@@ -569,7 +566,7 @@
         <v>205.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
@@ -577,13 +574,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="13">
@@ -597,7 +594,7 @@
         <v>205.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +608,7 @@
         <v>205.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
@@ -619,13 +616,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +636,7 @@
         <v>202.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +650,7 @@
         <v>202.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -667,7 +664,7 @@
         <v>202.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
@@ -675,13 +672,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="20">
@@ -695,7 +692,7 @@
         <v>208.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="21">
@@ -709,7 +706,7 @@
         <v>208.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="22">
@@ -717,13 +714,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="23">
@@ -737,7 +734,7 @@
         <v>213.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -751,7 +748,7 @@
         <v>213.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="25">
@@ -765,7 +762,7 @@
         <v>213.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="26">
@@ -773,13 +770,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="27">
@@ -793,7 +790,7 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="28">
@@ -807,7 +804,7 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="29">
@@ -821,7 +818,7 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="30">
@@ -835,7 +832,7 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="31">
@@ -849,7 +846,7 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="32">
@@ -863,7 +860,7 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="33">
@@ -877,7 +874,7 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="34">
@@ -891,7 +888,7 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="35">
@@ -905,7 +902,7 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="36">
@@ -919,7 +916,7 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="37">
@@ -933,7 +930,7 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="38">
@@ -947,7 +944,7 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="39">
@@ -975,7 +972,7 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="41">
@@ -989,7 +986,7 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="42">
@@ -1003,7 +1000,7 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="43">
@@ -1017,7 +1014,7 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="44">
@@ -1031,7 +1028,7 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="45">
@@ -1045,7 +1042,7 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="46">
@@ -1059,7 +1056,7 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="47">
@@ -1073,7 +1070,7 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="48">
@@ -1087,7 +1084,7 @@
         <v>225.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="49">
@@ -1095,13 +1092,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="50">
@@ -1115,7 +1112,7 @@
         <v>231.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="51">
@@ -1129,7 +1126,7 @@
         <v>231.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="52">
@@ -1143,7 +1140,7 @@
         <v>231.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="53">
@@ -1157,7 +1154,7 @@
         <v>231.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="54">
@@ -1171,7 +1168,7 @@
         <v>231.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="55">
@@ -1185,7 +1182,7 @@
         <v>231.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="56">
@@ -1199,7 +1196,7 @@
         <v>231.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="57">
@@ -1207,13 +1204,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="58">
@@ -1227,7 +1224,7 @@
         <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1238,7 @@
         <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="60">
@@ -1255,7 +1252,7 @@
         <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="61">
@@ -1269,7 +1266,7 @@
         <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="62">
@@ -1283,7 +1280,7 @@
         <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="63">
@@ -1297,7 +1294,7 @@
         <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="64">
@@ -1311,7 +1308,7 @@
         <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="65">
@@ -1325,7 +1322,7 @@
         <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="66">
@@ -1339,7 +1336,7 @@
         <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="67">
@@ -1353,7 +1350,7 @@
         <v>227.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="68">
@@ -1361,13 +1358,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="69">
@@ -1381,7 +1378,7 @@
         <v>228.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="70">
@@ -1395,7 +1392,7 @@
         <v>228.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="71">
@@ -1403,13 +1400,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="72">
@@ -1423,7 +1420,7 @@
         <v>233.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="73">
@@ -1437,7 +1434,7 @@
         <v>233.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="74">
@@ -1451,7 +1448,7 @@
         <v>233.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="75">
@@ -1459,13 +1456,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="76">
@@ -1479,7 +1476,7 @@
         <v>232.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="77">
@@ -1493,7 +1490,7 @@
         <v>232.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="78">
@@ -1501,13 +1498,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="79">
@@ -1521,7 +1518,7 @@
         <v>230.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="80">
@@ -1535,7 +1532,7 @@
         <v>230.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="81">
@@ -1549,7 +1546,7 @@
         <v>230.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="82">
@@ -1557,13 +1554,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="83">
@@ -1577,7 +1574,7 @@
         <v>231.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="84">
@@ -1591,7 +1588,7 @@
         <v>231.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="85">
@@ -1599,13 +1596,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C85" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="86">
@@ -1619,7 +1616,7 @@
         <v>231.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="87">
@@ -1633,7 +1630,7 @@
         <v>231.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="88">
@@ -1647,20 +1644,6 @@
         <v>231.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>293.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>231.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>309.0</v>
       </c>
     </row>
@@ -1679,27 +1662,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>95.0</v>
@@ -1707,13 +1690,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1721,13 +1704,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>59.0</v>
@@ -1735,13 +1718,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>18.0</v>
@@ -1749,13 +1732,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1763,13 +1746,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1777,13 +1760,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1791,13 +1774,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1805,13 +1788,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>18.0</v>
@@ -1832,27 +1815,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1873,18 +1856,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>114</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-30</t>
+    <t>2025-10-31</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-31</t>
   </si>
   <si>
     <t>2025-11-01</t>
@@ -409,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -440,21 +437,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>181.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="4">
@@ -462,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +479,7 @@
         <v>203.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +493,7 @@
         <v>203.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +501,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +521,7 @@
         <v>205.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +535,7 @@
         <v>205.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +549,7 @@
         <v>205.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="11">
@@ -560,13 +557,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +577,7 @@
         <v>205.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +591,7 @@
         <v>205.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
@@ -602,13 +599,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="15">
@@ -622,7 +619,7 @@
         <v>202.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +633,7 @@
         <v>202.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +647,7 @@
         <v>202.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
@@ -658,13 +655,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +675,7 @@
         <v>208.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +689,7 @@
         <v>208.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="21">
@@ -700,13 +697,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +717,7 @@
         <v>213.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +731,7 @@
         <v>213.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="24">
@@ -748,7 +745,7 @@
         <v>213.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="25">
@@ -756,13 +753,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +773,7 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +787,7 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="28">
@@ -804,7 +801,7 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="29">
@@ -818,7 +815,7 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +829,7 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="31">
@@ -846,7 +843,7 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="32">
@@ -860,7 +857,7 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +871,7 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +885,7 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="35">
@@ -902,7 +899,7 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="36">
@@ -916,7 +913,7 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +927,7 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="38">
@@ -958,7 +955,7 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +969,7 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="41">
@@ -986,7 +983,7 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="42">
@@ -1000,7 +997,7 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="43">
@@ -1014,7 +1011,7 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1025,7 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="45">
@@ -1042,7 +1039,7 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="46">
@@ -1056,7 +1053,7 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,7 +1067,7 @@
         <v>225.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="48">
@@ -1078,13 +1075,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="49">
@@ -1098,7 +1095,7 @@
         <v>231.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="50">
@@ -1112,7 +1109,7 @@
         <v>231.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1123,7 @@
         <v>231.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="52">
@@ -1140,7 +1137,7 @@
         <v>231.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="53">
@@ -1154,7 +1151,7 @@
         <v>231.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1165,7 @@
         <v>231.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,7 +1179,7 @@
         <v>231.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="56">
@@ -1190,13 +1187,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="57">
@@ -1210,7 +1207,7 @@
         <v>227.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1221,7 @@
         <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,7 +1235,7 @@
         <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="60">
@@ -1252,7 +1249,7 @@
         <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1263,7 @@
         <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,7 +1277,7 @@
         <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="63">
@@ -1294,7 +1291,7 @@
         <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="64">
@@ -1308,7 +1305,7 @@
         <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1319,7 @@
         <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1333,7 @@
         <v>227.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="67">
@@ -1344,13 +1341,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1361,7 @@
         <v>228.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1375,7 @@
         <v>228.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="70">
@@ -1386,13 +1383,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="71">
@@ -1406,7 +1403,7 @@
         <v>233.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1417,7 @@
         <v>233.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1431,7 @@
         <v>233.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="74">
@@ -1442,13 +1439,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1459,7 @@
         <v>232.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1473,7 @@
         <v>232.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="77">
@@ -1484,13 +1481,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="78">
@@ -1504,7 +1501,7 @@
         <v>230.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1515,7 @@
         <v>230.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1529,7 @@
         <v>230.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,13 +1537,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1557,7 @@
         <v>231.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1571,7 @@
         <v>231.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="84">
@@ -1582,13 +1579,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C84" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="85">
@@ -1602,7 +1599,7 @@
         <v>231.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1613,7 @@
         <v>231.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,20 +1627,6 @@
         <v>231.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>89.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>293.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>231.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>309.0</v>
       </c>
     </row>
@@ -1662,27 +1645,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>95.0</v>
@@ -1690,13 +1673,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1704,13 +1687,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>59.0</v>
@@ -1718,13 +1701,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>18.0</v>
@@ -1732,13 +1715,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1746,13 +1729,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1760,13 +1743,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1774,13 +1757,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1788,13 +1771,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>18.0</v>
@@ -1815,27 +1798,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1856,18 +1839,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-11-01</t>
   </si>
   <si>
@@ -288,6 +282,15 @@
   </si>
   <si>
     <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
   </si>
   <si>
     <t>Reason</t>
@@ -406,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -430,33 +433,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>181.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>113.0</v>
+        <v>100.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>181.0</v>
+        <v>203.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>100.0</v>
@@ -465,12 +468,12 @@
         <v>203.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>100.0</v>
@@ -479,26 +482,26 @@
         <v>203.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>102.0</v>
@@ -507,12 +510,12 @@
         <v>205.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>102.0</v>
@@ -521,12 +524,12 @@
         <v>205.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>102.0</v>
@@ -535,26 +538,26 @@
         <v>205.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>106.0</v>
@@ -563,12 +566,12 @@
         <v>205.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>106.0</v>
@@ -577,26 +580,26 @@
         <v>205.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>118.0</v>
@@ -605,12 +608,12 @@
         <v>202.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>118.0</v>
@@ -619,12 +622,12 @@
         <v>202.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>118.0</v>
@@ -633,26 +636,26 @@
         <v>202.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>122.0</v>
@@ -661,12 +664,12 @@
         <v>208.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>122.0</v>
@@ -675,26 +678,26 @@
         <v>208.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>127.0</v>
@@ -703,12 +706,12 @@
         <v>213.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>127.0</v>
@@ -717,12 +720,12 @@
         <v>213.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>127.0</v>
@@ -731,26 +734,26 @@
         <v>213.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -759,12 +762,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -773,12 +776,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -787,12 +790,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -801,12 +804,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -815,12 +818,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -829,12 +832,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -843,12 +846,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -857,12 +860,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -871,12 +874,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -885,12 +888,12 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -899,12 +902,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -913,12 +916,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -932,7 +935,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -941,12 +944,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -955,12 +958,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -969,12 +972,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -983,12 +986,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -997,12 +1000,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1011,12 +1014,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1025,12 +1028,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1039,12 +1042,12 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>180.0</v>
@@ -1053,26 +1056,26 @@
         <v>225.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>200.0</v>
@@ -1081,12 +1084,12 @@
         <v>231.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>200.0</v>
@@ -1095,12 +1098,12 @@
         <v>231.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>200.0</v>
@@ -1109,12 +1112,12 @@
         <v>231.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>200.0</v>
@@ -1123,12 +1126,12 @@
         <v>231.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>200.0</v>
@@ -1137,12 +1140,12 @@
         <v>231.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>200.0</v>
@@ -1151,12 +1154,12 @@
         <v>231.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>200.0</v>
@@ -1165,26 +1168,26 @@
         <v>231.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>244.0</v>
@@ -1193,12 +1196,12 @@
         <v>227.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>244.0</v>
@@ -1207,12 +1210,12 @@
         <v>227.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>244.0</v>
@@ -1221,12 +1224,12 @@
         <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>244.0</v>
@@ -1235,12 +1238,12 @@
         <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>244.0</v>
@@ -1249,12 +1252,12 @@
         <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>244.0</v>
@@ -1263,12 +1266,12 @@
         <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>244.0</v>
@@ -1277,12 +1280,12 @@
         <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>244.0</v>
@@ -1291,12 +1294,12 @@
         <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>244.0</v>
@@ -1305,12 +1308,12 @@
         <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>244.0</v>
@@ -1319,26 +1322,26 @@
         <v>227.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>246.0</v>
@@ -1347,12 +1350,12 @@
         <v>228.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>246.0</v>
@@ -1361,26 +1364,26 @@
         <v>228.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>266.0</v>
@@ -1389,12 +1392,12 @@
         <v>233.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>266.0</v>
@@ -1403,12 +1406,12 @@
         <v>233.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>266.0</v>
@@ -1417,26 +1420,26 @@
         <v>233.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>271.0</v>
@@ -1445,12 +1448,12 @@
         <v>232.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>271.0</v>
@@ -1459,26 +1462,26 @@
         <v>232.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>281.0</v>
@@ -1487,12 +1490,12 @@
         <v>230.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>281.0</v>
@@ -1501,12 +1504,12 @@
         <v>230.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>281.0</v>
@@ -1515,26 +1518,26 @@
         <v>230.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>292.0</v>
@@ -1543,12 +1546,12 @@
         <v>231.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>292.0</v>
@@ -1557,26 +1560,26 @@
         <v>231.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C83" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>293.0</v>
@@ -1585,12 +1588,12 @@
         <v>231.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>293.0</v>
@@ -1599,12 +1602,12 @@
         <v>231.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>293.0</v>
@@ -1613,21 +1616,49 @@
         <v>231.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>304.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>223.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>293.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>231.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>309.0</v>
+      <c r="B88" t="n" s="0">
+        <v>304.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>223.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>304.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>223.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>91.0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,41 +1676,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1687,41 +1718,41 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>101</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1729,13 +1760,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1743,13 +1774,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1757,13 +1788,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1771,16 +1802,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>107</v>
-      </c>
       <c r="D10" t="n" s="0">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -1798,27 +1829,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1839,18 +1870,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
     <t>2025-11-02</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-03</t>
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -433,33 +433,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>113.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>181.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>203.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>100.0</v>
@@ -468,26 +468,26 @@
         <v>203.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>102.0</v>
@@ -496,12 +496,12 @@
         <v>205.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>102.0</v>
@@ -510,12 +510,12 @@
         <v>205.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>102.0</v>
@@ -524,26 +524,26 @@
         <v>205.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>106.0</v>
@@ -552,12 +552,12 @@
         <v>205.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>106.0</v>
@@ -566,26 +566,26 @@
         <v>205.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>118.0</v>
@@ -594,12 +594,12 @@
         <v>202.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>118.0</v>
@@ -608,12 +608,12 @@
         <v>202.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>118.0</v>
@@ -622,26 +622,26 @@
         <v>202.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>122.0</v>
@@ -650,12 +650,12 @@
         <v>208.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>122.0</v>
@@ -664,26 +664,26 @@
         <v>208.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>127.0</v>
@@ -692,12 +692,12 @@
         <v>213.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>127.0</v>
@@ -706,12 +706,12 @@
         <v>213.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>127.0</v>
@@ -720,26 +720,26 @@
         <v>213.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -748,12 +748,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -762,12 +762,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -776,12 +776,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -790,12 +790,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -804,12 +804,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -818,12 +818,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -832,12 +832,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -846,12 +846,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -860,12 +860,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -874,12 +874,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -888,12 +888,12 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -902,12 +902,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -930,12 +930,12 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -944,12 +944,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -958,12 +958,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -972,12 +972,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -986,12 +986,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -1000,12 +1000,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1014,12 +1014,12 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>180.0</v>
@@ -1028,12 +1028,12 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>180.0</v>
@@ -1042,26 +1042,26 @@
         <v>225.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>200.0</v>
@@ -1070,12 +1070,12 @@
         <v>231.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>200.0</v>
@@ -1084,12 +1084,12 @@
         <v>231.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>200.0</v>
@@ -1098,12 +1098,12 @@
         <v>231.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>200.0</v>
@@ -1112,12 +1112,12 @@
         <v>231.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>200.0</v>
@@ -1126,12 +1126,12 @@
         <v>231.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>200.0</v>
@@ -1140,12 +1140,12 @@
         <v>231.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>200.0</v>
@@ -1154,26 +1154,26 @@
         <v>231.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>244.0</v>
@@ -1182,12 +1182,12 @@
         <v>227.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>244.0</v>
@@ -1196,12 +1196,12 @@
         <v>227.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>244.0</v>
@@ -1210,12 +1210,12 @@
         <v>227.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>244.0</v>
@@ -1224,12 +1224,12 @@
         <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>244.0</v>
@@ -1238,12 +1238,12 @@
         <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>244.0</v>
@@ -1252,12 +1252,12 @@
         <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>244.0</v>
@@ -1266,12 +1266,12 @@
         <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>244.0</v>
@@ -1280,12 +1280,12 @@
         <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>244.0</v>
@@ -1294,12 +1294,12 @@
         <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>244.0</v>
@@ -1308,26 +1308,26 @@
         <v>227.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>246.0</v>
@@ -1336,12 +1336,12 @@
         <v>228.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>246.0</v>
@@ -1350,26 +1350,26 @@
         <v>228.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>266.0</v>
@@ -1378,12 +1378,12 @@
         <v>233.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>266.0</v>
@@ -1392,12 +1392,12 @@
         <v>233.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>266.0</v>
@@ -1406,26 +1406,26 @@
         <v>233.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>271.0</v>
@@ -1434,12 +1434,12 @@
         <v>232.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>271.0</v>
@@ -1448,26 +1448,26 @@
         <v>232.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>281.0</v>
@@ -1476,12 +1476,12 @@
         <v>230.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>281.0</v>
@@ -1490,12 +1490,12 @@
         <v>230.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>281.0</v>
@@ -1504,26 +1504,26 @@
         <v>230.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>292.0</v>
@@ -1532,12 +1532,12 @@
         <v>231.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>292.0</v>
@@ -1546,26 +1546,26 @@
         <v>231.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C82" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>293.0</v>
@@ -1574,12 +1574,12 @@
         <v>231.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>293.0</v>
@@ -1588,12 +1588,12 @@
         <v>231.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>293.0</v>
@@ -1602,26 +1602,26 @@
         <v>231.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>304.0</v>
@@ -1630,12 +1630,12 @@
         <v>223.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>304.0</v>
@@ -1644,20 +1644,6 @@
         <v>223.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>304.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>223.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>91.0</v>
       </c>
     </row>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-02</t>
+    <t>2025-11-03</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-03</t>
   </si>
   <si>
     <t>2025-11-04</t>
@@ -409,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -440,21 +437,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>203.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
@@ -462,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +479,7 @@
         <v>205.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +493,7 @@
         <v>205.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +507,7 @@
         <v>205.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
@@ -518,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +535,7 @@
         <v>205.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +549,7 @@
         <v>205.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
@@ -560,13 +557,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +577,7 @@
         <v>202.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +591,7 @@
         <v>202.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
@@ -608,7 +605,7 @@
         <v>202.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
@@ -616,13 +613,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +633,7 @@
         <v>208.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +647,7 @@
         <v>208.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="18">
@@ -658,13 +655,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +675,7 @@
         <v>213.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +689,7 @@
         <v>213.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="21">
@@ -706,7 +703,7 @@
         <v>213.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="22">
@@ -714,13 +711,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +731,7 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="24">
@@ -748,7 +745,7 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="25">
@@ -762,7 +759,7 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +773,7 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +787,7 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="28">
@@ -804,7 +801,7 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="29">
@@ -818,7 +815,7 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +829,7 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="31">
@@ -846,7 +843,7 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="32">
@@ -860,7 +857,7 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +871,7 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +885,7 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="35">
@@ -916,7 +913,7 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +927,7 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +941,7 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="39">
@@ -958,7 +955,7 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +969,7 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="41">
@@ -986,7 +983,7 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="42">
@@ -1000,7 +997,7 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="43">
@@ -1014,7 +1011,7 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1025,7 @@
         <v>225.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="45">
@@ -1036,13 +1033,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="46">
@@ -1056,7 +1053,7 @@
         <v>231.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,7 +1067,7 @@
         <v>231.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,7 +1081,7 @@
         <v>231.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="49">
@@ -1098,7 +1095,7 @@
         <v>231.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="50">
@@ -1112,7 +1109,7 @@
         <v>231.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1123,7 @@
         <v>231.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="52">
@@ -1140,7 +1137,7 @@
         <v>231.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="53">
@@ -1148,13 +1145,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1165,7 @@
         <v>227.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,7 +1179,7 @@
         <v>227.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1193,7 @@
         <v>227.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="57">
@@ -1210,7 +1207,7 @@
         <v>227.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1221,7 @@
         <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,7 +1235,7 @@
         <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="60">
@@ -1252,7 +1249,7 @@
         <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1263,7 @@
         <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,7 +1277,7 @@
         <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="63">
@@ -1294,7 +1291,7 @@
         <v>227.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="64">
@@ -1302,13 +1299,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1319,7 @@
         <v>228.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1333,7 @@
         <v>228.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="67">
@@ -1344,13 +1341,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1361,7 @@
         <v>233.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1375,7 @@
         <v>233.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="70">
@@ -1392,7 +1389,7 @@
         <v>233.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="71">
@@ -1400,13 +1397,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1417,7 @@
         <v>232.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1431,7 @@
         <v>232.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="74">
@@ -1442,13 +1439,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1459,7 @@
         <v>230.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1473,7 @@
         <v>230.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="77">
@@ -1490,7 +1487,7 @@
         <v>230.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="78">
@@ -1498,13 +1495,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1515,7 @@
         <v>231.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1529,7 @@
         <v>231.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,13 +1537,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C81" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1557,7 @@
         <v>231.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1571,7 @@
         <v>231.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="84">
@@ -1588,7 +1585,7 @@
         <v>231.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="85">
@@ -1596,13 +1593,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1613,7 @@
         <v>223.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,20 +1627,6 @@
         <v>223.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>304.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>223.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>91.0</v>
       </c>
     </row>
@@ -1662,27 +1645,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>96.0</v>
@@ -1690,13 +1673,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1704,13 +1687,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>60.0</v>
@@ -1718,13 +1701,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>26.0</v>
@@ -1732,13 +1715,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1746,13 +1729,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1760,13 +1743,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1774,13 +1757,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1788,13 +1771,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>19.0</v>
@@ -1815,27 +1798,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1856,18 +1839,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-11-04</t>
   </si>
   <si>
@@ -288,6 +282,18 @@
   </si>
   <si>
     <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
   </si>
   <si>
     <t>Reason</t>
@@ -406,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -430,33 +436,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>203.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>203.0</v>
+        <v>205.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>102.0</v>
@@ -465,12 +471,12 @@
         <v>205.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>102.0</v>
@@ -479,12 +485,12 @@
         <v>205.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>102.0</v>
@@ -493,26 +499,26 @@
         <v>205.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>106.0</v>
@@ -521,12 +527,12 @@
         <v>205.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>106.0</v>
@@ -535,26 +541,26 @@
         <v>205.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>118.0</v>
@@ -563,12 +569,12 @@
         <v>202.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>118.0</v>
@@ -577,12 +583,12 @@
         <v>202.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>118.0</v>
@@ -591,26 +597,26 @@
         <v>202.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>122.0</v>
@@ -619,12 +625,12 @@
         <v>208.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>122.0</v>
@@ -633,26 +639,26 @@
         <v>208.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>127.0</v>
@@ -661,12 +667,12 @@
         <v>213.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>127.0</v>
@@ -675,12 +681,12 @@
         <v>213.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>127.0</v>
@@ -689,26 +695,26 @@
         <v>213.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>180.0</v>
@@ -717,12 +723,12 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>180.0</v>
@@ -731,12 +737,12 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -745,12 +751,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -759,12 +765,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -773,12 +779,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -787,12 +793,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -801,12 +807,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -815,12 +821,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -829,12 +835,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -843,12 +849,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -857,12 +863,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -871,12 +877,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -890,7 +896,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -899,12 +905,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -913,12 +919,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -927,12 +933,12 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -941,12 +947,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -955,12 +961,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -969,12 +975,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -983,12 +989,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -997,12 +1003,12 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>180.0</v>
@@ -1011,26 +1017,26 @@
         <v>225.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>200.0</v>
@@ -1039,12 +1045,12 @@
         <v>231.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>200.0</v>
@@ -1053,12 +1059,12 @@
         <v>231.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>200.0</v>
@@ -1067,12 +1073,12 @@
         <v>231.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>200.0</v>
@@ -1081,12 +1087,12 @@
         <v>231.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>200.0</v>
@@ -1095,12 +1101,12 @@
         <v>231.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>200.0</v>
@@ -1109,12 +1115,12 @@
         <v>231.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>200.0</v>
@@ -1123,26 +1129,26 @@
         <v>231.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>244.0</v>
@@ -1151,12 +1157,12 @@
         <v>227.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>244.0</v>
@@ -1165,12 +1171,12 @@
         <v>227.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>244.0</v>
@@ -1179,12 +1185,12 @@
         <v>227.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>244.0</v>
@@ -1193,12 +1199,12 @@
         <v>227.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>244.0</v>
@@ -1207,12 +1213,12 @@
         <v>227.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>244.0</v>
@@ -1221,12 +1227,12 @@
         <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>244.0</v>
@@ -1235,12 +1241,12 @@
         <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>244.0</v>
@@ -1249,12 +1255,12 @@
         <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>244.0</v>
@@ -1263,12 +1269,12 @@
         <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>244.0</v>
@@ -1277,26 +1283,26 @@
         <v>227.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>246.0</v>
@@ -1305,12 +1311,12 @@
         <v>228.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>246.0</v>
@@ -1319,26 +1325,26 @@
         <v>228.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>266.0</v>
@@ -1347,12 +1353,12 @@
         <v>233.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>266.0</v>
@@ -1361,12 +1367,12 @@
         <v>233.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>266.0</v>
@@ -1375,26 +1381,26 @@
         <v>233.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>271.0</v>
@@ -1403,12 +1409,12 @@
         <v>232.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>271.0</v>
@@ -1417,26 +1423,26 @@
         <v>232.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>281.0</v>
@@ -1445,12 +1451,12 @@
         <v>230.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>281.0</v>
@@ -1459,12 +1465,12 @@
         <v>230.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>281.0</v>
@@ -1473,26 +1479,26 @@
         <v>230.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>292.0</v>
@@ -1501,12 +1507,12 @@
         <v>231.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>292.0</v>
@@ -1515,26 +1521,26 @@
         <v>231.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C80" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>293.0</v>
@@ -1543,12 +1549,12 @@
         <v>231.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>293.0</v>
@@ -1557,12 +1563,12 @@
         <v>231.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>293.0</v>
@@ -1571,26 +1577,26 @@
         <v>231.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>304.0</v>
@@ -1599,12 +1605,12 @@
         <v>223.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>304.0</v>
@@ -1613,21 +1619,63 @@
         <v>223.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>304.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>223.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>91.0</v>
+      <c r="B88" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>177.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>105.0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,41 +1693,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>96.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1687,41 +1735,41 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="D4" t="n" s="0">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1729,13 +1777,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1743,13 +1791,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1757,13 +1805,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1771,13 +1819,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>19.0</v>
@@ -1798,27 +1846,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1839,18 +1887,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
     <t>2025-11-05</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-06</t>
@@ -412,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -436,47 +436,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>203.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>102.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>205.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>102.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>205.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>102.0</v>
@@ -485,26 +485,26 @@
         <v>205.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>106.0</v>
@@ -513,12 +513,12 @@
         <v>205.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>106.0</v>
@@ -527,26 +527,26 @@
         <v>205.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>118.0</v>
@@ -555,12 +555,12 @@
         <v>202.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>118.0</v>
@@ -569,12 +569,12 @@
         <v>202.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>118.0</v>
@@ -583,26 +583,26 @@
         <v>202.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>122.0</v>
@@ -611,12 +611,12 @@
         <v>208.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>122.0</v>
@@ -625,26 +625,26 @@
         <v>208.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>127.0</v>
@@ -653,12 +653,12 @@
         <v>213.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>127.0</v>
@@ -667,12 +667,12 @@
         <v>213.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>127.0</v>
@@ -681,26 +681,26 @@
         <v>213.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>180.0</v>
@@ -709,12 +709,12 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>180.0</v>
@@ -723,12 +723,12 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>180.0</v>
@@ -737,12 +737,12 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -751,12 +751,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -765,12 +765,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -779,12 +779,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -793,12 +793,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -807,12 +807,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -821,12 +821,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -835,12 +835,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -849,12 +849,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -863,12 +863,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -891,12 +891,12 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -905,12 +905,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -919,12 +919,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -933,12 +933,12 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -947,12 +947,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -961,12 +961,12 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>180.0</v>
@@ -975,12 +975,12 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>180.0</v>
@@ -989,12 +989,12 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>180.0</v>
@@ -1003,26 +1003,26 @@
         <v>225.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>200.0</v>
@@ -1031,12 +1031,12 @@
         <v>231.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>200.0</v>
@@ -1045,12 +1045,12 @@
         <v>231.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>200.0</v>
@@ -1059,12 +1059,12 @@
         <v>231.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>200.0</v>
@@ -1073,12 +1073,12 @@
         <v>231.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>200.0</v>
@@ -1087,12 +1087,12 @@
         <v>231.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>200.0</v>
@@ -1101,12 +1101,12 @@
         <v>231.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>200.0</v>
@@ -1115,26 +1115,26 @@
         <v>231.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>244.0</v>
@@ -1143,12 +1143,12 @@
         <v>227.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>244.0</v>
@@ -1157,12 +1157,12 @@
         <v>227.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>244.0</v>
@@ -1171,12 +1171,12 @@
         <v>227.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>244.0</v>
@@ -1185,12 +1185,12 @@
         <v>227.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>244.0</v>
@@ -1199,12 +1199,12 @@
         <v>227.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>244.0</v>
@@ -1213,12 +1213,12 @@
         <v>227.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>244.0</v>
@@ -1227,12 +1227,12 @@
         <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>244.0</v>
@@ -1241,12 +1241,12 @@
         <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>244.0</v>
@@ -1255,12 +1255,12 @@
         <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>244.0</v>
@@ -1269,26 +1269,26 @@
         <v>227.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>246.0</v>
@@ -1297,12 +1297,12 @@
         <v>228.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>246.0</v>
@@ -1311,26 +1311,26 @@
         <v>228.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>266.0</v>
@@ -1339,12 +1339,12 @@
         <v>233.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>266.0</v>
@@ -1353,12 +1353,12 @@
         <v>233.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>266.0</v>
@@ -1367,26 +1367,26 @@
         <v>233.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>271.0</v>
@@ -1395,12 +1395,12 @@
         <v>232.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>271.0</v>
@@ -1409,26 +1409,26 @@
         <v>232.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>281.0</v>
@@ -1437,12 +1437,12 @@
         <v>230.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>281.0</v>
@@ -1451,12 +1451,12 @@
         <v>230.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>281.0</v>
@@ -1465,26 +1465,26 @@
         <v>230.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>292.0</v>
@@ -1493,12 +1493,12 @@
         <v>231.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>292.0</v>
@@ -1507,26 +1507,26 @@
         <v>231.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C79" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>293.0</v>
@@ -1535,12 +1535,12 @@
         <v>231.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>293.0</v>
@@ -1549,12 +1549,12 @@
         <v>231.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>293.0</v>
@@ -1563,26 +1563,26 @@
         <v>231.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>304.0</v>
@@ -1591,12 +1591,12 @@
         <v>223.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>304.0</v>
@@ -1605,26 +1605,26 @@
         <v>223.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>310.0</v>
@@ -1633,12 +1633,12 @@
         <v>222.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>310.0</v>
@@ -1647,12 +1647,12 @@
         <v>222.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>310.0</v>
@@ -1661,20 +1661,6 @@
         <v>222.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>310.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>222.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>105.0</v>
       </c>
     </row>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-05</t>
+    <t>2025-11-06</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-06</t>
   </si>
   <si>
     <t>2025-11-07</t>
@@ -412,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -443,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="3">
@@ -457,21 +454,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>205.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
@@ -479,13 +476,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,7 +496,7 @@
         <v>205.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +510,7 @@
         <v>205.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,13 +518,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +538,7 @@
         <v>202.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
@@ -555,7 +552,7 @@
         <v>202.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
@@ -569,7 +566,7 @@
         <v>202.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
@@ -577,13 +574,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="13">
@@ -597,7 +594,7 @@
         <v>208.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +608,7 @@
         <v>208.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="15">
@@ -619,13 +616,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +636,7 @@
         <v>213.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +650,7 @@
         <v>213.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="18">
@@ -667,7 +664,7 @@
         <v>213.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="19">
@@ -675,13 +672,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="20">
@@ -695,7 +692,7 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="21">
@@ -709,7 +706,7 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="22">
@@ -723,7 +720,7 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="23">
@@ -737,7 +734,7 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="24">
@@ -751,7 +748,7 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="25">
@@ -765,7 +762,7 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="26">
@@ -779,7 +776,7 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="27">
@@ -793,7 +790,7 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="28">
@@ -807,7 +804,7 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="29">
@@ -821,7 +818,7 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="30">
@@ -835,7 +832,7 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="31">
@@ -849,7 +846,7 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="32">
@@ -877,7 +874,7 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="34">
@@ -891,7 +888,7 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="35">
@@ -905,7 +902,7 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="36">
@@ -919,7 +916,7 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="37">
@@ -933,7 +930,7 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="38">
@@ -947,7 +944,7 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="39">
@@ -961,7 +958,7 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="40">
@@ -975,7 +972,7 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="41">
@@ -989,7 +986,7 @@
         <v>225.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="42">
@@ -997,13 +994,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="43">
@@ -1017,7 +1014,7 @@
         <v>231.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="44">
@@ -1031,7 +1028,7 @@
         <v>231.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="45">
@@ -1045,7 +1042,7 @@
         <v>231.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="46">
@@ -1059,7 +1056,7 @@
         <v>231.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="47">
@@ -1073,7 +1070,7 @@
         <v>231.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="48">
@@ -1087,7 +1084,7 @@
         <v>231.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="49">
@@ -1101,7 +1098,7 @@
         <v>231.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="50">
@@ -1109,13 +1106,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="51">
@@ -1129,7 +1126,7 @@
         <v>227.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="52">
@@ -1143,7 +1140,7 @@
         <v>227.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="53">
@@ -1157,7 +1154,7 @@
         <v>227.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="54">
@@ -1171,7 +1168,7 @@
         <v>227.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="55">
@@ -1185,7 +1182,7 @@
         <v>227.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="56">
@@ -1199,7 +1196,7 @@
         <v>227.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="57">
@@ -1213,7 +1210,7 @@
         <v>227.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="58">
@@ -1227,7 +1224,7 @@
         <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1238,7 @@
         <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="60">
@@ -1255,7 +1252,7 @@
         <v>227.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="61">
@@ -1263,13 +1260,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="62">
@@ -1283,7 +1280,7 @@
         <v>228.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="63">
@@ -1297,7 +1294,7 @@
         <v>228.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="64">
@@ -1305,13 +1302,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="65">
@@ -1325,7 +1322,7 @@
         <v>233.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="66">
@@ -1339,7 +1336,7 @@
         <v>233.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="67">
@@ -1353,7 +1350,7 @@
         <v>233.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="68">
@@ -1361,13 +1358,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="69">
@@ -1381,7 +1378,7 @@
         <v>232.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="70">
@@ -1395,7 +1392,7 @@
         <v>232.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="71">
@@ -1403,13 +1400,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="72">
@@ -1423,7 +1420,7 @@
         <v>230.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="73">
@@ -1437,7 +1434,7 @@
         <v>230.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="74">
@@ -1451,7 +1448,7 @@
         <v>230.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="75">
@@ -1459,13 +1456,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="76">
@@ -1479,7 +1476,7 @@
         <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="77">
@@ -1493,7 +1490,7 @@
         <v>231.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="78">
@@ -1501,13 +1498,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C78" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="79">
@@ -1521,7 +1518,7 @@
         <v>231.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="80">
@@ -1535,7 +1532,7 @@
         <v>231.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="81">
@@ -1549,7 +1546,7 @@
         <v>231.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="82">
@@ -1557,13 +1554,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="83">
@@ -1577,7 +1574,7 @@
         <v>223.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="84">
@@ -1591,7 +1588,7 @@
         <v>223.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="85">
@@ -1599,13 +1596,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="86">
@@ -1619,7 +1616,7 @@
         <v>222.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="87">
@@ -1633,7 +1630,7 @@
         <v>222.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="88">
@@ -1647,20 +1644,6 @@
         <v>222.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>310.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>222.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>105.0</v>
       </c>
     </row>
@@ -1679,27 +1662,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>98.0</v>
@@ -1707,13 +1690,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>62.0</v>
@@ -1721,13 +1704,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1735,13 +1718,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>28.0</v>
@@ -1749,13 +1732,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1763,13 +1746,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1777,13 +1760,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1791,13 +1774,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1805,13 +1788,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>19.0</v>
@@ -1832,27 +1815,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1873,18 +1856,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>114</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -29,15 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-06</t>
+    <t>2025-11-07</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
     <t>2025-11-08</t>
   </si>
   <si>
@@ -293,6 +290,15 @@
     <t>2026-01-31</t>
   </si>
   <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -314,10 +320,10 @@
     <t>Failed</t>
   </si>
   <si>
+    <t>Page with redirect</t>
+  </si>
+  <si>
     <t>Not found (404)</t>
-  </si>
-  <si>
-    <t>Page with redirect</t>
   </si>
   <si>
     <t>Crawled - currently not indexed</t>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -440,21 +446,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>205.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
@@ -462,13 +468,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +488,7 @@
         <v>205.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +502,7 @@
         <v>205.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +530,7 @@
         <v>202.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +544,7 @@
         <v>202.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +558,7 @@
         <v>202.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
@@ -560,13 +566,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +586,7 @@
         <v>208.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +600,7 @@
         <v>208.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="14">
@@ -602,13 +608,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="15">
@@ -622,7 +628,7 @@
         <v>213.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +642,7 @@
         <v>213.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +656,7 @@
         <v>213.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="18">
@@ -658,13 +664,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +684,7 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +698,7 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="21">
@@ -706,7 +712,7 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +726,7 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +740,7 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="24">
@@ -748,7 +754,7 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="25">
@@ -762,7 +768,7 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +782,7 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +796,7 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="28">
@@ -804,7 +810,7 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="29">
@@ -818,7 +824,7 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +838,7 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="31">
@@ -860,7 +866,7 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +880,7 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +894,7 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="35">
@@ -902,7 +908,7 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="36">
@@ -916,7 +922,7 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +936,7 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +950,7 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="39">
@@ -958,7 +964,7 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +978,7 @@
         <v>225.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="41">
@@ -980,13 +986,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="42">
@@ -1000,7 +1006,7 @@
         <v>231.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="43">
@@ -1014,7 +1020,7 @@
         <v>231.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1034,7 @@
         <v>231.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="45">
@@ -1042,7 +1048,7 @@
         <v>231.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="46">
@@ -1056,7 +1062,7 @@
         <v>231.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,7 +1076,7 @@
         <v>231.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,7 +1090,7 @@
         <v>231.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="49">
@@ -1092,13 +1098,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="50">
@@ -1112,7 +1118,7 @@
         <v>227.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1132,7 @@
         <v>227.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="52">
@@ -1140,7 +1146,7 @@
         <v>227.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="53">
@@ -1154,7 +1160,7 @@
         <v>227.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1174,7 @@
         <v>227.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,7 +1188,7 @@
         <v>227.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1202,7 @@
         <v>227.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="57">
@@ -1210,7 +1216,7 @@
         <v>227.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1230,7 @@
         <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,7 +1244,7 @@
         <v>227.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="60">
@@ -1246,13 +1252,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1272,7 @@
         <v>228.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,7 +1286,7 @@
         <v>228.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="63">
@@ -1288,13 +1294,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="64">
@@ -1308,7 +1314,7 @@
         <v>233.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1328,7 @@
         <v>233.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1342,7 @@
         <v>233.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="67">
@@ -1344,13 +1350,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1370,7 @@
         <v>232.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1384,7 @@
         <v>232.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="70">
@@ -1386,13 +1392,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="71">
@@ -1406,7 +1412,7 @@
         <v>230.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1426,7 @@
         <v>230.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1440,7 @@
         <v>230.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="74">
@@ -1442,13 +1448,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1468,7 @@
         <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1482,7 @@
         <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="77">
@@ -1484,13 +1490,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C77" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="78">
@@ -1504,7 +1510,7 @@
         <v>231.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1524,7 @@
         <v>231.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1538,7 @@
         <v>231.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,13 +1546,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1566,7 @@
         <v>223.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1580,7 @@
         <v>223.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="84">
@@ -1582,13 +1588,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="85">
@@ -1602,7 +1608,7 @@
         <v>222.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1622,7 @@
         <v>222.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,7 +1636,7 @@
         <v>222.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="88">
@@ -1638,13 +1644,41 @@
         <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>223.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>223.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1662,55 +1696,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1718,27 +1752,27 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1746,13 +1780,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1760,13 +1794,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1774,13 +1808,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1788,13 +1822,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>19.0</v>
@@ -1815,27 +1849,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1856,18 +1890,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-11-08</t>
@@ -415,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -439,33 +433,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>205.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>205.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>106.0</v>
@@ -474,12 +468,12 @@
         <v>205.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>106.0</v>
@@ -488,26 +482,26 @@
         <v>205.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>118.0</v>
@@ -516,12 +510,12 @@
         <v>202.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>118.0</v>
@@ -530,12 +524,12 @@
         <v>202.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>118.0</v>
@@ -544,26 +538,26 @@
         <v>202.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>122.0</v>
@@ -572,12 +566,12 @@
         <v>208.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>122.0</v>
@@ -586,26 +580,26 @@
         <v>208.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>127.0</v>
@@ -614,12 +608,12 @@
         <v>213.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>127.0</v>
@@ -628,12 +622,12 @@
         <v>213.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>127.0</v>
@@ -642,26 +636,26 @@
         <v>213.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>180.0</v>
@@ -670,12 +664,12 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>180.0</v>
@@ -684,12 +678,12 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>180.0</v>
@@ -698,12 +692,12 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>180.0</v>
@@ -712,12 +706,12 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>180.0</v>
@@ -726,12 +720,12 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>180.0</v>
@@ -740,12 +734,12 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -754,12 +748,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -768,12 +762,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -782,12 +776,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -796,12 +790,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -810,12 +804,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -824,12 +818,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -843,7 +837,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -852,12 +846,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -866,12 +860,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -880,12 +874,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -894,12 +888,12 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -908,12 +902,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -922,12 +916,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -936,12 +930,12 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>180.0</v>
@@ -950,12 +944,12 @@
         <v>225.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>180.0</v>
@@ -964,26 +958,26 @@
         <v>225.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>200.0</v>
@@ -992,12 +986,12 @@
         <v>231.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>200.0</v>
@@ -1006,12 +1000,12 @@
         <v>231.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>200.0</v>
@@ -1020,12 +1014,12 @@
         <v>231.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>200.0</v>
@@ -1034,12 +1028,12 @@
         <v>231.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>200.0</v>
@@ -1048,12 +1042,12 @@
         <v>231.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>200.0</v>
@@ -1062,12 +1056,12 @@
         <v>231.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>200.0</v>
@@ -1076,26 +1070,26 @@
         <v>231.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>244.0</v>
@@ -1104,12 +1098,12 @@
         <v>227.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>244.0</v>
@@ -1118,12 +1112,12 @@
         <v>227.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>244.0</v>
@@ -1132,12 +1126,12 @@
         <v>227.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>244.0</v>
@@ -1146,12 +1140,12 @@
         <v>227.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>244.0</v>
@@ -1160,12 +1154,12 @@
         <v>227.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>244.0</v>
@@ -1174,12 +1168,12 @@
         <v>227.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>244.0</v>
@@ -1188,12 +1182,12 @@
         <v>227.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>244.0</v>
@@ -1202,12 +1196,12 @@
         <v>227.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>244.0</v>
@@ -1216,12 +1210,12 @@
         <v>227.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>244.0</v>
@@ -1230,26 +1224,26 @@
         <v>227.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>246.0</v>
@@ -1258,12 +1252,12 @@
         <v>228.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>246.0</v>
@@ -1272,26 +1266,26 @@
         <v>228.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>266.0</v>
@@ -1300,12 +1294,12 @@
         <v>233.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>266.0</v>
@@ -1314,12 +1308,12 @@
         <v>233.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>266.0</v>
@@ -1328,26 +1322,26 @@
         <v>233.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>271.0</v>
@@ -1356,12 +1350,12 @@
         <v>232.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>271.0</v>
@@ -1370,26 +1364,26 @@
         <v>232.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>281.0</v>
@@ -1398,12 +1392,12 @@
         <v>230.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>281.0</v>
@@ -1412,12 +1406,12 @@
         <v>230.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>281.0</v>
@@ -1426,26 +1420,26 @@
         <v>230.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>292.0</v>
@@ -1454,12 +1448,12 @@
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>292.0</v>
@@ -1468,26 +1462,26 @@
         <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C76" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>293.0</v>
@@ -1496,12 +1490,12 @@
         <v>231.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>293.0</v>
@@ -1510,12 +1504,12 @@
         <v>231.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>293.0</v>
@@ -1524,26 +1518,26 @@
         <v>231.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>304.0</v>
@@ -1552,12 +1546,12 @@
         <v>223.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>304.0</v>
@@ -1566,26 +1560,26 @@
         <v>223.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>310.0</v>
@@ -1594,12 +1588,12 @@
         <v>222.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>310.0</v>
@@ -1608,12 +1602,12 @@
         <v>222.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>310.0</v>
@@ -1622,26 +1616,26 @@
         <v>222.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>314.0</v>
@@ -1650,12 +1644,12 @@
         <v>223.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>95.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>314.0</v>
@@ -1664,21 +1658,7 @@
         <v>223.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>314.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>223.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>5</v>
+        <v>76.0</v>
       </c>
     </row>
   </sheetData>
@@ -1696,27 +1676,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>99.0</v>
@@ -1724,13 +1704,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>64.0</v>
@@ -1738,13 +1718,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1752,13 +1732,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>29.0</v>
@@ -1766,13 +1746,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1780,13 +1760,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1794,13 +1774,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1808,13 +1788,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1822,13 +1802,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>19.0</v>
@@ -1849,27 +1829,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1890,18 +1870,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
     <t>2025-11-10</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-11</t>
@@ -409,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -433,19 +430,19 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>102.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>205.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>106.0</v>
@@ -454,40 +451,40 @@
         <v>205.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>118.0</v>
@@ -496,12 +493,12 @@
         <v>202.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>118.0</v>
@@ -510,40 +507,40 @@
         <v>202.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>122.0</v>
@@ -552,40 +549,40 @@
         <v>208.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>127.0</v>
@@ -594,12 +591,12 @@
         <v>213.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>127.0</v>
@@ -608,40 +605,40 @@
         <v>213.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>180.0</v>
@@ -650,12 +647,12 @@
         <v>225.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>180.0</v>
@@ -664,12 +661,12 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>180.0</v>
@@ -678,12 +675,12 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>180.0</v>
@@ -697,7 +694,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>180.0</v>
@@ -706,12 +703,12 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>47.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>180.0</v>
@@ -720,12 +717,12 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>180.0</v>
@@ -734,12 +731,12 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>24.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -748,12 +745,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>43.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -762,12 +759,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -776,12 +773,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -790,12 +787,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -804,12 +801,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -818,12 +815,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -832,12 +829,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>29.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -846,12 +843,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>36.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -860,12 +857,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>89.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -874,12 +871,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -888,12 +885,12 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>52.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -902,12 +899,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>62.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -916,12 +913,12 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>79.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>180.0</v>
@@ -930,40 +927,40 @@
         <v>225.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>51.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>200.0</v>
@@ -972,12 +969,12 @@
         <v>231.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>70.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>200.0</v>
@@ -986,12 +983,12 @@
         <v>231.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>200.0</v>
@@ -1000,12 +997,12 @@
         <v>231.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>83.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>200.0</v>
@@ -1014,12 +1011,12 @@
         <v>231.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>63.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>200.0</v>
@@ -1028,12 +1025,12 @@
         <v>231.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>57.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>200.0</v>
@@ -1047,35 +1044,35 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>79.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>54.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>244.0</v>
@@ -1084,12 +1081,12 @@
         <v>227.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>51.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>244.0</v>
@@ -1098,12 +1095,12 @@
         <v>227.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>244.0</v>
@@ -1112,12 +1109,12 @@
         <v>227.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>62.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>244.0</v>
@@ -1126,12 +1123,12 @@
         <v>227.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>59.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>244.0</v>
@@ -1140,12 +1137,12 @@
         <v>227.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>244.0</v>
@@ -1154,12 +1151,12 @@
         <v>227.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>40.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>244.0</v>
@@ -1168,12 +1165,12 @@
         <v>227.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>244.0</v>
@@ -1182,12 +1179,12 @@
         <v>227.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>72.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>244.0</v>
@@ -1196,40 +1193,40 @@
         <v>227.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>39.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>46.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>84.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>246.0</v>
@@ -1238,40 +1235,40 @@
         <v>228.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>90.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>73.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>79.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>266.0</v>
@@ -1280,12 +1277,12 @@
         <v>233.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>66.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>266.0</v>
@@ -1294,40 +1291,40 @@
         <v>233.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>58.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>169.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>183.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>271.0</v>
@@ -1336,40 +1333,40 @@
         <v>232.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>83.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>92.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>281.0</v>
@@ -1378,12 +1375,12 @@
         <v>230.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>136.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>281.0</v>
@@ -1392,40 +1389,40 @@
         <v>230.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>182.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>140.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>80.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>292.0</v>
@@ -1434,40 +1431,40 @@
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>50.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C74" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>68.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C75" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>79.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>293.0</v>
@@ -1476,12 +1473,12 @@
         <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>47.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>293.0</v>
@@ -1490,40 +1487,40 @@
         <v>231.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>96.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>89.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>309.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>304.0</v>
@@ -1532,40 +1529,40 @@
         <v>223.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>70.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>91.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>310.0</v>
@@ -1574,12 +1571,12 @@
         <v>222.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>90.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>310.0</v>
@@ -1588,40 +1585,40 @@
         <v>222.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>177.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>117.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>105.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>314.0</v>
@@ -1630,34 +1627,6 @@
         <v>223.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>314.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>223.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>314.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>223.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>76.0</v>
       </c>
     </row>
@@ -1676,27 +1645,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>99.0</v>
@@ -1704,13 +1673,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>64.0</v>
@@ -1718,13 +1687,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1732,13 +1701,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>29.0</v>
@@ -1746,13 +1715,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1760,13 +1729,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1774,13 +1743,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1788,13 +1757,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1802,13 +1771,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>19.0</v>
@@ -1829,27 +1798,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1870,18 +1839,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-11-11</t>
   </si>
   <si>
@@ -288,6 +282,18 @@
   </si>
   <si>
     <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
   </si>
   <si>
     <t>Reason</t>
@@ -406,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -430,33 +436,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>205.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>205.0</v>
+        <v>202.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>118.0</v>
@@ -465,12 +471,12 @@
         <v>202.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>118.0</v>
@@ -479,12 +485,12 @@
         <v>202.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>118.0</v>
@@ -493,26 +499,26 @@
         <v>202.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>122.0</v>
@@ -521,12 +527,12 @@
         <v>208.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>122.0</v>
@@ -535,26 +541,26 @@
         <v>208.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>127.0</v>
@@ -563,12 +569,12 @@
         <v>213.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>127.0</v>
@@ -577,12 +583,12 @@
         <v>213.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>127.0</v>
@@ -591,26 +597,26 @@
         <v>213.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>180.0</v>
@@ -619,12 +625,12 @@
         <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>180.0</v>
@@ -633,12 +639,12 @@
         <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>180.0</v>
@@ -647,12 +653,12 @@
         <v>225.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>180.0</v>
@@ -661,12 +667,12 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>180.0</v>
@@ -675,12 +681,12 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>180.0</v>
@@ -689,12 +695,12 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>180.0</v>
@@ -703,12 +709,12 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>180.0</v>
@@ -717,12 +723,12 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>180.0</v>
@@ -731,12 +737,12 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -745,12 +751,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -759,12 +765,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -773,12 +779,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -792,7 +798,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -801,12 +807,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -815,12 +821,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -829,12 +835,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -843,12 +849,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -857,12 +863,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -871,12 +877,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -885,12 +891,12 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>180.0</v>
@@ -899,12 +905,12 @@
         <v>225.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>180.0</v>
@@ -913,26 +919,26 @@
         <v>225.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>200.0</v>
@@ -941,12 +947,12 @@
         <v>231.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>200.0</v>
@@ -955,12 +961,12 @@
         <v>231.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>200.0</v>
@@ -969,12 +975,12 @@
         <v>231.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>200.0</v>
@@ -983,12 +989,12 @@
         <v>231.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>200.0</v>
@@ -997,12 +1003,12 @@
         <v>231.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>200.0</v>
@@ -1011,12 +1017,12 @@
         <v>231.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>200.0</v>
@@ -1025,26 +1031,26 @@
         <v>231.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>244.0</v>
@@ -1053,12 +1059,12 @@
         <v>227.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>244.0</v>
@@ -1067,12 +1073,12 @@
         <v>227.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>244.0</v>
@@ -1081,12 +1087,12 @@
         <v>227.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>244.0</v>
@@ -1095,12 +1101,12 @@
         <v>227.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>244.0</v>
@@ -1109,12 +1115,12 @@
         <v>227.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>244.0</v>
@@ -1123,12 +1129,12 @@
         <v>227.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>244.0</v>
@@ -1137,12 +1143,12 @@
         <v>227.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>244.0</v>
@@ -1151,12 +1157,12 @@
         <v>227.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>244.0</v>
@@ -1165,12 +1171,12 @@
         <v>227.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>244.0</v>
@@ -1179,26 +1185,26 @@
         <v>227.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>246.0</v>
@@ -1207,12 +1213,12 @@
         <v>228.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>246.0</v>
@@ -1221,26 +1227,26 @@
         <v>228.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>266.0</v>
@@ -1249,12 +1255,12 @@
         <v>233.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>266.0</v>
@@ -1263,12 +1269,12 @@
         <v>233.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>266.0</v>
@@ -1277,26 +1283,26 @@
         <v>233.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>271.0</v>
@@ -1305,12 +1311,12 @@
         <v>232.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>271.0</v>
@@ -1319,26 +1325,26 @@
         <v>232.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>281.0</v>
@@ -1347,12 +1353,12 @@
         <v>230.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>281.0</v>
@@ -1361,12 +1367,12 @@
         <v>230.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>281.0</v>
@@ -1375,26 +1381,26 @@
         <v>230.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>292.0</v>
@@ -1403,12 +1409,12 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>292.0</v>
@@ -1417,26 +1423,26 @@
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C73" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>293.0</v>
@@ -1445,12 +1451,12 @@
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>293.0</v>
@@ -1459,12 +1465,12 @@
         <v>231.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>293.0</v>
@@ -1473,26 +1479,26 @@
         <v>231.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>304.0</v>
@@ -1501,12 +1507,12 @@
         <v>223.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>304.0</v>
@@ -1515,26 +1521,26 @@
         <v>223.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>310.0</v>
@@ -1543,12 +1549,12 @@
         <v>222.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>310.0</v>
@@ -1557,12 +1563,12 @@
         <v>222.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>310.0</v>
@@ -1571,26 +1577,26 @@
         <v>222.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>314.0</v>
@@ -1599,12 +1605,12 @@
         <v>223.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>95.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>314.0</v>
@@ -1613,21 +1619,63 @@
         <v>223.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>124.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>351.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>314.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>223.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>76.0</v>
+      <c r="B88" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>208.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>329.0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,55 +1693,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1701,27 +1749,27 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1729,13 +1777,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1743,13 +1791,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1757,13 +1805,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1771,13 +1819,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>19.0</v>
@@ -1798,27 +1846,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1839,18 +1887,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
     <t>2025-11-13</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-14</t>
@@ -412,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -436,33 +433,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>106.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>205.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>118.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>202.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>118.0</v>
@@ -471,40 +468,40 @@
         <v>202.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>122.0</v>
@@ -513,40 +510,40 @@
         <v>208.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>127.0</v>
@@ -555,12 +552,12 @@
         <v>213.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>127.0</v>
@@ -569,40 +566,40 @@
         <v>213.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>180.0</v>
@@ -611,12 +608,12 @@
         <v>225.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>180.0</v>
@@ -625,12 +622,12 @@
         <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>180.0</v>
@@ -639,12 +636,12 @@
         <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>180.0</v>
@@ -658,7 +655,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>180.0</v>
@@ -667,12 +664,12 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>47.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>180.0</v>
@@ -681,12 +678,12 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>180.0</v>
@@ -695,12 +692,12 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>24.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>180.0</v>
@@ -709,12 +706,12 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>43.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>180.0</v>
@@ -723,12 +720,12 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>180.0</v>
@@ -737,12 +734,12 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -751,12 +748,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -765,12 +762,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -779,12 +776,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -793,12 +790,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>29.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -807,12 +804,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>36.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -821,12 +818,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>89.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -835,12 +832,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -849,12 +846,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>52.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -863,12 +860,12 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>62.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>180.0</v>
@@ -877,12 +874,12 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>79.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>180.0</v>
@@ -891,40 +888,40 @@
         <v>225.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>51.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>200.0</v>
@@ -933,12 +930,12 @@
         <v>231.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>70.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>200.0</v>
@@ -947,12 +944,12 @@
         <v>231.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>200.0</v>
@@ -961,12 +958,12 @@
         <v>231.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>83.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>200.0</v>
@@ -975,12 +972,12 @@
         <v>231.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>63.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>200.0</v>
@@ -989,12 +986,12 @@
         <v>231.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>57.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>200.0</v>
@@ -1008,35 +1005,35 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>79.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>54.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>244.0</v>
@@ -1045,12 +1042,12 @@
         <v>227.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>51.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>244.0</v>
@@ -1059,12 +1056,12 @@
         <v>227.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>244.0</v>
@@ -1073,12 +1070,12 @@
         <v>227.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>62.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>244.0</v>
@@ -1087,12 +1084,12 @@
         <v>227.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>59.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>244.0</v>
@@ -1101,12 +1098,12 @@
         <v>227.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>244.0</v>
@@ -1115,12 +1112,12 @@
         <v>227.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>40.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>244.0</v>
@@ -1129,12 +1126,12 @@
         <v>227.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>244.0</v>
@@ -1143,12 +1140,12 @@
         <v>227.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>72.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>244.0</v>
@@ -1157,40 +1154,40 @@
         <v>227.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>39.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>46.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>84.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>246.0</v>
@@ -1199,40 +1196,40 @@
         <v>228.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>90.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>73.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>79.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>266.0</v>
@@ -1241,12 +1238,12 @@
         <v>233.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>66.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>266.0</v>
@@ -1255,40 +1252,40 @@
         <v>233.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>58.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>169.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>183.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>271.0</v>
@@ -1297,40 +1294,40 @@
         <v>232.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>83.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>92.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>281.0</v>
@@ -1339,12 +1336,12 @@
         <v>230.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>136.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>281.0</v>
@@ -1353,40 +1350,40 @@
         <v>230.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>182.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>140.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>80.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>292.0</v>
@@ -1395,40 +1392,40 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>50.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C71" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>68.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C72" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>79.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>293.0</v>
@@ -1437,12 +1434,12 @@
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>47.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>293.0</v>
@@ -1451,40 +1448,40 @@
         <v>231.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>96.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>89.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>309.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>304.0</v>
@@ -1493,40 +1490,40 @@
         <v>223.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>70.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>91.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>310.0</v>
@@ -1535,12 +1532,12 @@
         <v>222.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>90.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>310.0</v>
@@ -1549,40 +1546,40 @@
         <v>222.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>177.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>117.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>105.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>314.0</v>
@@ -1591,40 +1588,40 @@
         <v>223.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>95.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>124.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>76.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>320.0</v>
@@ -1633,12 +1630,12 @@
         <v>220.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>351.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>320.0</v>
@@ -1647,34 +1644,6 @@
         <v>220.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>208.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>320.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>220.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>320.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>220.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>329.0</v>
       </c>
     </row>
@@ -1693,27 +1662,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>100.0</v>
@@ -1721,13 +1690,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>66.0</v>
@@ -1735,13 +1704,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1749,13 +1718,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>32.0</v>
@@ -1763,13 +1732,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1777,13 +1746,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1791,13 +1760,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1805,13 +1774,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1819,13 +1788,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>19.0</v>
@@ -1846,27 +1815,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1887,18 +1856,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>114</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-13</t>
+    <t>2025-11-14</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-14</t>
   </si>
   <si>
     <t>2025-11-15</t>
@@ -409,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -440,21 +437,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>202.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="4">
@@ -462,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +479,7 @@
         <v>208.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +493,7 @@
         <v>208.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +501,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +521,7 @@
         <v>213.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +535,7 @@
         <v>213.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +549,7 @@
         <v>213.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="11">
@@ -560,13 +557,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +577,7 @@
         <v>225.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +591,7 @@
         <v>225.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="14">
@@ -608,7 +605,7 @@
         <v>225.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
@@ -622,7 +619,7 @@
         <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +633,7 @@
         <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +647,7 @@
         <v>225.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +661,7 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +675,7 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +689,7 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="21">
@@ -706,7 +703,7 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +717,7 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +731,7 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +759,7 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +773,7 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +787,7 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="28">
@@ -804,7 +801,7 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="29">
@@ -818,7 +815,7 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +829,7 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="31">
@@ -846,7 +843,7 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="32">
@@ -860,7 +857,7 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +871,7 @@
         <v>225.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="34">
@@ -882,13 +879,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="35">
@@ -902,7 +899,7 @@
         <v>231.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="36">
@@ -916,7 +913,7 @@
         <v>231.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +927,7 @@
         <v>231.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +941,7 @@
         <v>231.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="39">
@@ -958,7 +955,7 @@
         <v>231.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +969,7 @@
         <v>231.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="41">
@@ -986,7 +983,7 @@
         <v>231.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="42">
@@ -994,13 +991,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="43">
@@ -1014,7 +1011,7 @@
         <v>227.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1025,7 @@
         <v>227.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="45">
@@ -1042,7 +1039,7 @@
         <v>227.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="46">
@@ -1056,7 +1053,7 @@
         <v>227.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,7 +1067,7 @@
         <v>227.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,7 +1081,7 @@
         <v>227.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="49">
@@ -1098,7 +1095,7 @@
         <v>227.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="50">
@@ -1112,7 +1109,7 @@
         <v>227.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1123,7 @@
         <v>227.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="52">
@@ -1140,7 +1137,7 @@
         <v>227.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="53">
@@ -1148,13 +1145,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1165,7 @@
         <v>228.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,7 +1179,7 @@
         <v>228.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="56">
@@ -1190,13 +1187,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="57">
@@ -1210,7 +1207,7 @@
         <v>233.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1221,7 @@
         <v>233.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,7 +1235,7 @@
         <v>233.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="60">
@@ -1246,13 +1243,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1263,7 @@
         <v>232.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,7 +1277,7 @@
         <v>232.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="63">
@@ -1288,13 +1285,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="64">
@@ -1308,7 +1305,7 @@
         <v>230.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1319,7 @@
         <v>230.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1333,7 @@
         <v>230.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="67">
@@ -1344,13 +1341,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1361,7 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1375,7 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="70">
@@ -1386,13 +1383,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C70" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="71">
@@ -1406,7 +1403,7 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1417,7 @@
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1431,7 @@
         <v>231.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="74">
@@ -1442,13 +1439,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1459,7 @@
         <v>223.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1473,7 @@
         <v>223.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="77">
@@ -1484,13 +1481,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="78">
@@ -1504,7 +1501,7 @@
         <v>222.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1515,7 @@
         <v>222.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1529,7 @@
         <v>222.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,13 +1537,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1557,7 @@
         <v>223.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>95.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1571,7 @@
         <v>223.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>124.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="84">
@@ -1582,13 +1579,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>76.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="85">
@@ -1602,7 +1599,7 @@
         <v>220.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>351.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1613,7 @@
         <v>220.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>208.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,20 +1627,6 @@
         <v>220.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>320.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>220.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>329.0</v>
       </c>
     </row>
@@ -1662,27 +1645,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>100.0</v>
@@ -1690,13 +1673,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>66.0</v>
@@ -1704,13 +1687,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1718,13 +1701,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>32.0</v>
@@ -1732,13 +1715,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>12.0</v>
@@ -1746,13 +1729,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1760,13 +1743,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1774,13 +1757,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1788,13 +1771,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>19.0</v>
@@ -1815,27 +1798,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1856,18 +1839,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-11-15</t>
   </si>
   <si>
@@ -288,6 +282,15 @@
   </si>
   <si>
     <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
   </si>
   <si>
     <t>Reason</t>
@@ -406,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -430,33 +433,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>202.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>202.0</v>
+        <v>208.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>122.0</v>
@@ -465,12 +468,12 @@
         <v>208.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>122.0</v>
@@ -479,26 +482,26 @@
         <v>208.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>127.0</v>
@@ -507,12 +510,12 @@
         <v>213.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>127.0</v>
@@ -521,12 +524,12 @@
         <v>213.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>127.0</v>
@@ -535,26 +538,26 @@
         <v>213.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>180.0</v>
@@ -563,12 +566,12 @@
         <v>225.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>180.0</v>
@@ -577,12 +580,12 @@
         <v>225.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>180.0</v>
@@ -591,12 +594,12 @@
         <v>225.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>180.0</v>
@@ -605,12 +608,12 @@
         <v>225.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>180.0</v>
@@ -619,12 +622,12 @@
         <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>180.0</v>
@@ -633,12 +636,12 @@
         <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>180.0</v>
@@ -647,12 +650,12 @@
         <v>225.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>180.0</v>
@@ -661,12 +664,12 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>180.0</v>
@@ -675,12 +678,12 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>180.0</v>
@@ -689,12 +692,12 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>180.0</v>
@@ -703,12 +706,12 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>180.0</v>
@@ -717,12 +720,12 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>180.0</v>
@@ -736,7 +739,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -745,12 +748,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -759,12 +762,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -773,12 +776,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -787,12 +790,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -801,12 +804,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -815,12 +818,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -829,12 +832,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -843,12 +846,12 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>180.0</v>
@@ -857,26 +860,26 @@
         <v>225.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>200.0</v>
@@ -885,12 +888,12 @@
         <v>231.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>200.0</v>
@@ -899,12 +902,12 @@
         <v>231.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>200.0</v>
@@ -913,12 +916,12 @@
         <v>231.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>200.0</v>
@@ -927,12 +930,12 @@
         <v>231.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>200.0</v>
@@ -941,12 +944,12 @@
         <v>231.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>200.0</v>
@@ -955,12 +958,12 @@
         <v>231.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>200.0</v>
@@ -969,26 +972,26 @@
         <v>231.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>244.0</v>
@@ -997,12 +1000,12 @@
         <v>227.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>244.0</v>
@@ -1011,12 +1014,12 @@
         <v>227.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>244.0</v>
@@ -1025,12 +1028,12 @@
         <v>227.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>244.0</v>
@@ -1039,12 +1042,12 @@
         <v>227.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>244.0</v>
@@ -1053,12 +1056,12 @@
         <v>227.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>244.0</v>
@@ -1067,12 +1070,12 @@
         <v>227.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>244.0</v>
@@ -1081,12 +1084,12 @@
         <v>227.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>244.0</v>
@@ -1095,12 +1098,12 @@
         <v>227.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>244.0</v>
@@ -1109,12 +1112,12 @@
         <v>227.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>244.0</v>
@@ -1123,26 +1126,26 @@
         <v>227.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>246.0</v>
@@ -1151,12 +1154,12 @@
         <v>228.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>246.0</v>
@@ -1165,26 +1168,26 @@
         <v>228.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>266.0</v>
@@ -1193,12 +1196,12 @@
         <v>233.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>266.0</v>
@@ -1207,12 +1210,12 @@
         <v>233.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>266.0</v>
@@ -1221,26 +1224,26 @@
         <v>233.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>271.0</v>
@@ -1249,12 +1252,12 @@
         <v>232.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>271.0</v>
@@ -1263,26 +1266,26 @@
         <v>232.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>281.0</v>
@@ -1291,12 +1294,12 @@
         <v>230.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>281.0</v>
@@ -1305,12 +1308,12 @@
         <v>230.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>281.0</v>
@@ -1319,26 +1322,26 @@
         <v>230.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>292.0</v>
@@ -1347,12 +1350,12 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>292.0</v>
@@ -1361,26 +1364,26 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C69" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>293.0</v>
@@ -1389,12 +1392,12 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>293.0</v>
@@ -1403,12 +1406,12 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>293.0</v>
@@ -1417,26 +1420,26 @@
         <v>231.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>304.0</v>
@@ -1445,12 +1448,12 @@
         <v>223.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>304.0</v>
@@ -1459,26 +1462,26 @@
         <v>223.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>310.0</v>
@@ -1487,12 +1490,12 @@
         <v>222.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>310.0</v>
@@ -1501,12 +1504,12 @@
         <v>222.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>310.0</v>
@@ -1515,26 +1518,26 @@
         <v>222.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>314.0</v>
@@ -1543,12 +1546,12 @@
         <v>223.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>95.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>314.0</v>
@@ -1557,26 +1560,26 @@
         <v>223.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>124.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>76.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>320.0</v>
@@ -1585,12 +1588,12 @@
         <v>220.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>351.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>320.0</v>
@@ -1599,12 +1602,12 @@
         <v>220.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>208.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>320.0</v>
@@ -1613,21 +1616,49 @@
         <v>220.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>75.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>320.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>220.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>329.0</v>
+      <c r="B88" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>179.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>358.0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,55 +1676,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>100.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="D3" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1701,41 +1732,41 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>32.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>101</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1743,13 +1774,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1757,13 +1788,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1771,16 +1802,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>107</v>
-      </c>
       <c r="D10" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
@@ -1798,27 +1829,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1839,18 +1870,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
     <t>2025-11-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-17</t>
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -433,33 +433,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>118.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>202.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>122.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>208.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>122.0</v>
@@ -468,26 +468,26 @@
         <v>208.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>127.0</v>
@@ -496,12 +496,12 @@
         <v>213.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>127.0</v>
@@ -510,12 +510,12 @@
         <v>213.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>127.0</v>
@@ -524,26 +524,26 @@
         <v>213.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>180.0</v>
@@ -552,12 +552,12 @@
         <v>225.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>180.0</v>
@@ -566,12 +566,12 @@
         <v>225.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>180.0</v>
@@ -580,12 +580,12 @@
         <v>225.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>180.0</v>
@@ -594,12 +594,12 @@
         <v>225.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>180.0</v>
@@ -608,12 +608,12 @@
         <v>225.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>180.0</v>
@@ -622,12 +622,12 @@
         <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>180.0</v>
@@ -636,12 +636,12 @@
         <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>180.0</v>
@@ -650,12 +650,12 @@
         <v>225.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>180.0</v>
@@ -664,12 +664,12 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>180.0</v>
@@ -678,12 +678,12 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>180.0</v>
@@ -692,12 +692,12 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>180.0</v>
@@ -706,12 +706,12 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>180.0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>180.0</v>
@@ -734,12 +734,12 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -748,12 +748,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -762,12 +762,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -776,12 +776,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -790,12 +790,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -804,12 +804,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -818,12 +818,12 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>180.0</v>
@@ -832,12 +832,12 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>180.0</v>
@@ -846,26 +846,26 @@
         <v>225.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>200.0</v>
@@ -874,12 +874,12 @@
         <v>231.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>200.0</v>
@@ -888,12 +888,12 @@
         <v>231.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>200.0</v>
@@ -902,12 +902,12 @@
         <v>231.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>200.0</v>
@@ -916,12 +916,12 @@
         <v>231.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>200.0</v>
@@ -930,12 +930,12 @@
         <v>231.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>200.0</v>
@@ -944,12 +944,12 @@
         <v>231.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>200.0</v>
@@ -958,26 +958,26 @@
         <v>231.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>244.0</v>
@@ -986,12 +986,12 @@
         <v>227.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>244.0</v>
@@ -1000,12 +1000,12 @@
         <v>227.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>244.0</v>
@@ -1014,12 +1014,12 @@
         <v>227.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>244.0</v>
@@ -1028,12 +1028,12 @@
         <v>227.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>244.0</v>
@@ -1042,12 +1042,12 @@
         <v>227.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>244.0</v>
@@ -1056,12 +1056,12 @@
         <v>227.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>244.0</v>
@@ -1070,12 +1070,12 @@
         <v>227.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>244.0</v>
@@ -1084,12 +1084,12 @@
         <v>227.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>244.0</v>
@@ -1098,12 +1098,12 @@
         <v>227.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>244.0</v>
@@ -1112,26 +1112,26 @@
         <v>227.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>246.0</v>
@@ -1140,12 +1140,12 @@
         <v>228.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>246.0</v>
@@ -1154,26 +1154,26 @@
         <v>228.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>266.0</v>
@@ -1182,12 +1182,12 @@
         <v>233.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>266.0</v>
@@ -1196,12 +1196,12 @@
         <v>233.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>266.0</v>
@@ -1210,26 +1210,26 @@
         <v>233.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>271.0</v>
@@ -1238,12 +1238,12 @@
         <v>232.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>271.0</v>
@@ -1252,26 +1252,26 @@
         <v>232.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>281.0</v>
@@ -1280,12 +1280,12 @@
         <v>230.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>281.0</v>
@@ -1294,12 +1294,12 @@
         <v>230.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>281.0</v>
@@ -1308,26 +1308,26 @@
         <v>230.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>292.0</v>
@@ -1336,12 +1336,12 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>292.0</v>
@@ -1350,26 +1350,26 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C68" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>293.0</v>
@@ -1378,12 +1378,12 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>293.0</v>
@@ -1392,12 +1392,12 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>293.0</v>
@@ -1406,26 +1406,26 @@
         <v>231.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>304.0</v>
@@ -1434,12 +1434,12 @@
         <v>223.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>304.0</v>
@@ -1448,26 +1448,26 @@
         <v>223.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>310.0</v>
@@ -1476,12 +1476,12 @@
         <v>222.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>310.0</v>
@@ -1490,12 +1490,12 @@
         <v>222.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>310.0</v>
@@ -1504,26 +1504,26 @@
         <v>222.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>314.0</v>
@@ -1532,12 +1532,12 @@
         <v>223.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>95.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>314.0</v>
@@ -1546,26 +1546,26 @@
         <v>223.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>124.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>76.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>320.0</v>
@@ -1574,12 +1574,12 @@
         <v>220.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>351.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>320.0</v>
@@ -1588,12 +1588,12 @@
         <v>220.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>208.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>320.0</v>
@@ -1602,26 +1602,26 @@
         <v>220.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>75.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>320.0</v>
+        <v>334.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>220.0</v>
+        <v>216.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>329.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>334.0</v>
@@ -1630,12 +1630,12 @@
         <v>216.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>101.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>334.0</v>
@@ -1644,20 +1644,6 @@
         <v>216.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>179.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>334.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>216.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>358.0</v>
       </c>
     </row>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-16</t>
+    <t>2025-11-17</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-17</t>
   </si>
   <si>
     <t>2025-11-18</t>
@@ -409,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -440,21 +437,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>208.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="4">
@@ -462,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +479,7 @@
         <v>213.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +493,7 @@
         <v>213.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +507,7 @@
         <v>213.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="8">
@@ -518,13 +515,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +535,7 @@
         <v>225.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +549,7 @@
         <v>225.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="11">
@@ -566,7 +563,7 @@
         <v>225.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +577,7 @@
         <v>225.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +591,7 @@
         <v>225.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="14">
@@ -608,7 +605,7 @@
         <v>225.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="15">
@@ -622,7 +619,7 @@
         <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +633,7 @@
         <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +647,7 @@
         <v>225.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +661,7 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +675,7 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +689,7 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="21">
@@ -720,7 +717,7 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +731,7 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="24">
@@ -748,7 +745,7 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="25">
@@ -762,7 +759,7 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +773,7 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="27">
@@ -790,7 +787,7 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="28">
@@ -804,7 +801,7 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="29">
@@ -818,7 +815,7 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +829,7 @@
         <v>225.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="31">
@@ -840,13 +837,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="32">
@@ -860,7 +857,7 @@
         <v>231.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +871,7 @@
         <v>231.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +885,7 @@
         <v>231.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="35">
@@ -902,7 +899,7 @@
         <v>231.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="36">
@@ -916,7 +913,7 @@
         <v>231.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +927,7 @@
         <v>231.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +941,7 @@
         <v>231.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="39">
@@ -952,13 +949,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +969,7 @@
         <v>227.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="41">
@@ -986,7 +983,7 @@
         <v>227.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="42">
@@ -1000,7 +997,7 @@
         <v>227.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="43">
@@ -1014,7 +1011,7 @@
         <v>227.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1025,7 @@
         <v>227.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="45">
@@ -1042,7 +1039,7 @@
         <v>227.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="46">
@@ -1056,7 +1053,7 @@
         <v>227.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,7 +1067,7 @@
         <v>227.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,7 +1081,7 @@
         <v>227.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="49">
@@ -1098,7 +1095,7 @@
         <v>227.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="50">
@@ -1106,13 +1103,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1123,7 @@
         <v>228.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="52">
@@ -1140,7 +1137,7 @@
         <v>228.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="53">
@@ -1148,13 +1145,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1165,7 @@
         <v>233.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,7 +1179,7 @@
         <v>233.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1193,7 @@
         <v>233.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="57">
@@ -1204,13 +1201,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1221,7 @@
         <v>232.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,7 +1235,7 @@
         <v>232.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="60">
@@ -1246,13 +1243,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1263,7 @@
         <v>230.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,7 +1277,7 @@
         <v>230.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="63">
@@ -1294,7 +1291,7 @@
         <v>230.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="64">
@@ -1302,13 +1299,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1319,7 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1333,7 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="67">
@@ -1344,13 +1341,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C67" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1361,7 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1375,7 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="70">
@@ -1392,7 +1389,7 @@
         <v>231.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="71">
@@ -1400,13 +1397,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1417,7 @@
         <v>223.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1431,7 @@
         <v>223.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="74">
@@ -1442,13 +1439,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1459,7 @@
         <v>222.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1473,7 @@
         <v>222.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="77">
@@ -1490,7 +1487,7 @@
         <v>222.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="78">
@@ -1498,13 +1495,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1515,7 @@
         <v>223.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>95.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1529,7 @@
         <v>223.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>124.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,13 +1537,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>76.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1557,7 @@
         <v>220.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>351.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1571,7 @@
         <v>220.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>208.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="84">
@@ -1588,7 +1585,7 @@
         <v>220.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>75.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="85">
@@ -1596,13 +1593,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>320.0</v>
+        <v>334.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>220.0</v>
+        <v>216.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>329.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1613,7 @@
         <v>216.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>101.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,20 +1627,6 @@
         <v>216.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>179.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>334.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>216.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>358.0</v>
       </c>
     </row>
@@ -1662,27 +1645,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>104.0</v>
@@ -1690,13 +1673,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>71.0</v>
@@ -1704,13 +1687,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1718,13 +1701,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>39.0</v>
@@ -1732,13 +1715,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>9.0</v>
@@ -1746,13 +1729,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1760,13 +1743,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1774,13 +1757,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1788,13 +1771,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>20.0</v>
@@ -1815,27 +1798,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1856,18 +1839,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -29,265 +29,274 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-17</t>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
-  </si>
-  <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2025-11-29</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>2025-12-02</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2025-12-06</t>
-  </si>
-  <si>
-    <t>2025-12-07</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-11</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>2025-12-13</t>
-  </si>
-  <si>
-    <t>2025-12-14</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-23</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2025-12-27</t>
-  </si>
-  <si>
-    <t>2025-12-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>2026-01-24</t>
-  </si>
-  <si>
-    <t>2026-01-25</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>2026-01-31</t>
-  </si>
-  <si>
-    <t>2026-02-01</t>
-  </si>
-  <si>
-    <t>2026-02-02</t>
-  </si>
-  <si>
-    <t>2026-02-03</t>
-  </si>
-  <si>
-    <t>2026-02-04</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
-  </si>
-  <si>
-    <t>2026-02-06</t>
-  </si>
-  <si>
-    <t>2026-02-07</t>
-  </si>
-  <si>
-    <t>2026-02-08</t>
-  </si>
-  <si>
-    <t>2026-02-09</t>
-  </si>
-  <si>
-    <t>2026-02-10</t>
   </si>
   <si>
     <t>Reason</t>
@@ -406,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -430,33 +439,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>208.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>208.0</v>
+        <v>213.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>127.0</v>
@@ -465,12 +474,12 @@
         <v>213.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>127.0</v>
@@ -479,12 +488,12 @@
         <v>213.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>127.0</v>
@@ -493,26 +502,26 @@
         <v>213.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>180.0</v>
@@ -521,12 +530,12 @@
         <v>225.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>180.0</v>
@@ -535,12 +544,12 @@
         <v>225.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>180.0</v>
@@ -549,12 +558,12 @@
         <v>225.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>180.0</v>
@@ -563,12 +572,12 @@
         <v>225.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>180.0</v>
@@ -577,12 +586,12 @@
         <v>225.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>180.0</v>
@@ -591,12 +600,12 @@
         <v>225.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>180.0</v>
@@ -605,12 +614,12 @@
         <v>225.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>180.0</v>
@@ -619,12 +628,12 @@
         <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>180.0</v>
@@ -633,12 +642,12 @@
         <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>180.0</v>
@@ -647,12 +656,12 @@
         <v>225.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>180.0</v>
@@ -661,12 +670,12 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>180.0</v>
@@ -675,12 +684,12 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>180.0</v>
@@ -694,7 +703,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>180.0</v>
@@ -703,12 +712,12 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>180.0</v>
@@ -717,12 +726,12 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>180.0</v>
@@ -731,12 +740,12 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -745,12 +754,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -759,12 +768,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -773,12 +782,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -787,12 +796,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -801,12 +810,12 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>180.0</v>
@@ -815,26 +824,26 @@
         <v>225.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>200.0</v>
@@ -843,12 +852,12 @@
         <v>231.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>200.0</v>
@@ -857,12 +866,12 @@
         <v>231.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>200.0</v>
@@ -871,12 +880,12 @@
         <v>231.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>200.0</v>
@@ -885,12 +894,12 @@
         <v>231.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>200.0</v>
@@ -899,12 +908,12 @@
         <v>231.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>200.0</v>
@@ -913,12 +922,12 @@
         <v>231.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>200.0</v>
@@ -927,26 +936,26 @@
         <v>231.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>244.0</v>
@@ -955,12 +964,12 @@
         <v>227.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>244.0</v>
@@ -969,12 +978,12 @@
         <v>227.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>244.0</v>
@@ -983,12 +992,12 @@
         <v>227.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>244.0</v>
@@ -997,12 +1006,12 @@
         <v>227.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>244.0</v>
@@ -1011,12 +1020,12 @@
         <v>227.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>244.0</v>
@@ -1025,12 +1034,12 @@
         <v>227.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>244.0</v>
@@ -1039,12 +1048,12 @@
         <v>227.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>244.0</v>
@@ -1053,12 +1062,12 @@
         <v>227.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>244.0</v>
@@ -1067,12 +1076,12 @@
         <v>227.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>244.0</v>
@@ -1081,26 +1090,26 @@
         <v>227.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>246.0</v>
@@ -1109,12 +1118,12 @@
         <v>228.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>246.0</v>
@@ -1123,26 +1132,26 @@
         <v>228.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>266.0</v>
@@ -1151,12 +1160,12 @@
         <v>233.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>266.0</v>
@@ -1165,12 +1174,12 @@
         <v>233.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>266.0</v>
@@ -1179,26 +1188,26 @@
         <v>233.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>271.0</v>
@@ -1207,12 +1216,12 @@
         <v>232.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>271.0</v>
@@ -1221,26 +1230,26 @@
         <v>232.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>281.0</v>
@@ -1249,12 +1258,12 @@
         <v>230.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>281.0</v>
@@ -1263,12 +1272,12 @@
         <v>230.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>281.0</v>
@@ -1277,26 +1286,26 @@
         <v>230.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>292.0</v>
@@ -1305,12 +1314,12 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>292.0</v>
@@ -1319,26 +1328,26 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C66" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>293.0</v>
@@ -1347,12 +1356,12 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>293.0</v>
@@ -1361,12 +1370,12 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>293.0</v>
@@ -1375,26 +1384,26 @@
         <v>231.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>304.0</v>
@@ -1403,12 +1412,12 @@
         <v>223.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>304.0</v>
@@ -1417,26 +1426,26 @@
         <v>223.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>310.0</v>
@@ -1445,12 +1454,12 @@
         <v>222.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>310.0</v>
@@ -1459,12 +1468,12 @@
         <v>222.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>310.0</v>
@@ -1473,26 +1482,26 @@
         <v>222.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>314.0</v>
@@ -1501,12 +1510,12 @@
         <v>223.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>95.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>314.0</v>
@@ -1515,26 +1524,26 @@
         <v>223.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>124.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>76.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>320.0</v>
@@ -1543,12 +1552,12 @@
         <v>220.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>351.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>320.0</v>
@@ -1557,12 +1566,12 @@
         <v>220.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>208.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>320.0</v>
@@ -1571,26 +1580,26 @@
         <v>220.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>75.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>320.0</v>
+        <v>334.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>220.0</v>
+        <v>216.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>329.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>334.0</v>
@@ -1599,12 +1608,12 @@
         <v>216.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>101.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>334.0</v>
@@ -1613,21 +1622,63 @@
         <v>216.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>179.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>208.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>334.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>216.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>358.0</v>
+      <c r="B88" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1645,55 +1696,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>104.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1701,41 +1752,41 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="D5" t="n" s="0">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1743,13 +1794,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1757,13 +1808,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1771,13 +1822,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>20.0</v>
@@ -1798,27 +1849,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1839,18 +1890,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
     <t>2025-11-19</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-11-20</t>
   </si>
   <si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>2026-02-14</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Reason</t>
@@ -415,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -439,47 +436,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>122.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>208.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>127.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>213.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>127.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>213.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>127.0</v>
@@ -488,26 +485,26 @@
         <v>213.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>180.0</v>
@@ -516,12 +513,12 @@
         <v>225.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>180.0</v>
@@ -530,12 +527,12 @@
         <v>225.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>180.0</v>
@@ -544,12 +541,12 @@
         <v>225.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>180.0</v>
@@ -558,12 +555,12 @@
         <v>225.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>180.0</v>
@@ -572,12 +569,12 @@
         <v>225.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>180.0</v>
@@ -586,12 +583,12 @@
         <v>225.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>180.0</v>
@@ -600,12 +597,12 @@
         <v>225.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>180.0</v>
@@ -614,12 +611,12 @@
         <v>225.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>180.0</v>
@@ -628,12 +625,12 @@
         <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>180.0</v>
@@ -642,12 +639,12 @@
         <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>180.0</v>
@@ -656,12 +653,12 @@
         <v>225.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>180.0</v>
@@ -670,12 +667,12 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>180.0</v>
@@ -689,7 +686,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>180.0</v>
@@ -698,12 +695,12 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>180.0</v>
@@ -712,12 +709,12 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>180.0</v>
@@ -726,12 +723,12 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>180.0</v>
@@ -740,12 +737,12 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>180.0</v>
@@ -754,12 +751,12 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>180.0</v>
@@ -768,12 +765,12 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>180.0</v>
@@ -782,12 +779,12 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>180.0</v>
@@ -796,12 +793,12 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>180.0</v>
@@ -810,26 +807,26 @@
         <v>225.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>200.0</v>
@@ -838,12 +835,12 @@
         <v>231.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>200.0</v>
@@ -852,12 +849,12 @@
         <v>231.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>200.0</v>
@@ -866,12 +863,12 @@
         <v>231.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>200.0</v>
@@ -880,12 +877,12 @@
         <v>231.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>200.0</v>
@@ -894,12 +891,12 @@
         <v>231.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>200.0</v>
@@ -908,12 +905,12 @@
         <v>231.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>200.0</v>
@@ -922,26 +919,26 @@
         <v>231.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>244.0</v>
@@ -950,12 +947,12 @@
         <v>227.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>244.0</v>
@@ -964,12 +961,12 @@
         <v>227.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>244.0</v>
@@ -978,12 +975,12 @@
         <v>227.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>244.0</v>
@@ -992,12 +989,12 @@
         <v>227.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>244.0</v>
@@ -1006,12 +1003,12 @@
         <v>227.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>244.0</v>
@@ -1020,12 +1017,12 @@
         <v>227.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>244.0</v>
@@ -1034,12 +1031,12 @@
         <v>227.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>244.0</v>
@@ -1048,12 +1045,12 @@
         <v>227.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>244.0</v>
@@ -1062,12 +1059,12 @@
         <v>227.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>244.0</v>
@@ -1076,26 +1073,26 @@
         <v>227.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>246.0</v>
@@ -1104,12 +1101,12 @@
         <v>228.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>246.0</v>
@@ -1118,26 +1115,26 @@
         <v>228.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>266.0</v>
@@ -1146,12 +1143,12 @@
         <v>233.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>266.0</v>
@@ -1160,12 +1157,12 @@
         <v>233.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>266.0</v>
@@ -1174,26 +1171,26 @@
         <v>233.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>271.0</v>
@@ -1202,12 +1199,12 @@
         <v>232.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>271.0</v>
@@ -1216,26 +1213,26 @@
         <v>232.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>281.0</v>
@@ -1244,12 +1241,12 @@
         <v>230.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>281.0</v>
@@ -1258,12 +1255,12 @@
         <v>230.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>281.0</v>
@@ -1272,26 +1269,26 @@
         <v>230.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>292.0</v>
@@ -1300,12 +1297,12 @@
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>292.0</v>
@@ -1314,26 +1311,26 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C65" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>293.0</v>
@@ -1342,12 +1339,12 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>293.0</v>
@@ -1356,12 +1353,12 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>293.0</v>
@@ -1370,26 +1367,26 @@
         <v>231.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>304.0</v>
@@ -1398,12 +1395,12 @@
         <v>223.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>304.0</v>
@@ -1412,26 +1409,26 @@
         <v>223.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>310.0</v>
@@ -1440,12 +1437,12 @@
         <v>222.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>310.0</v>
@@ -1454,12 +1451,12 @@
         <v>222.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>310.0</v>
@@ -1468,26 +1465,26 @@
         <v>222.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>314.0</v>
@@ -1496,12 +1493,12 @@
         <v>223.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>95.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>314.0</v>
@@ -1510,26 +1507,26 @@
         <v>223.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>124.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>76.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>320.0</v>
@@ -1538,12 +1535,12 @@
         <v>220.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>351.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>320.0</v>
@@ -1552,12 +1549,12 @@
         <v>220.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>208.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>320.0</v>
@@ -1566,26 +1563,26 @@
         <v>220.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>75.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>320.0</v>
+        <v>334.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>220.0</v>
+        <v>216.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>329.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>334.0</v>
@@ -1594,12 +1591,12 @@
         <v>216.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>101.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>334.0</v>
@@ -1608,26 +1605,26 @@
         <v>216.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>179.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>334.0</v>
+        <v>345.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>216.0</v>
+        <v>212.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>358.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>345.0</v>
@@ -1636,12 +1633,12 @@
         <v>212.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>208.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>345.0</v>
@@ -1650,12 +1647,12 @@
         <v>212.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>92.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>345.0</v>
@@ -1664,21 +1661,7 @@
         <v>212.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>345.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>212.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>93</v>
+        <v>86.0</v>
       </c>
     </row>
   </sheetData>
@@ -1696,27 +1679,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>107.0</v>
@@ -1724,13 +1707,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>74.0</v>
@@ -1738,13 +1721,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1752,13 +1735,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>104</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>48.0</v>
@@ -1766,13 +1749,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>5.0</v>
@@ -1780,13 +1763,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>107</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1794,13 +1777,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1808,13 +1791,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>110</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1822,13 +1805,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>20.0</v>
@@ -1849,27 +1832,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1890,18 +1873,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>115</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-19</t>
+    <t>2025-11-20</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-20</t>
   </si>
   <si>
     <t>2025-11-21</t>
@@ -412,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -443,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
@@ -457,21 +454,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>213.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="5">
@@ -479,13 +476,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,7 +496,7 @@
         <v>225.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +510,7 @@
         <v>225.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="8">
@@ -527,7 +524,7 @@
         <v>225.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +538,7 @@
         <v>225.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="10">
@@ -555,7 +552,7 @@
         <v>225.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="11">
@@ -569,7 +566,7 @@
         <v>225.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="12">
@@ -583,7 +580,7 @@
         <v>225.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="13">
@@ -597,7 +594,7 @@
         <v>225.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +608,7 @@
         <v>225.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="15">
@@ -625,7 +622,7 @@
         <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="16">
@@ -639,7 +636,7 @@
         <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +650,7 @@
         <v>225.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="18">
@@ -681,7 +678,7 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="20">
@@ -695,7 +692,7 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="21">
@@ -709,7 +706,7 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="22">
@@ -723,7 +720,7 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="23">
@@ -737,7 +734,7 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="24">
@@ -751,7 +748,7 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="25">
@@ -765,7 +762,7 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="26">
@@ -779,7 +776,7 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="27">
@@ -793,7 +790,7 @@
         <v>225.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="28">
@@ -801,13 +798,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="29">
@@ -821,7 +818,7 @@
         <v>231.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="30">
@@ -835,7 +832,7 @@
         <v>231.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="31">
@@ -849,7 +846,7 @@
         <v>231.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="32">
@@ -863,7 +860,7 @@
         <v>231.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="33">
@@ -877,7 +874,7 @@
         <v>231.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="34">
@@ -891,7 +888,7 @@
         <v>231.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="35">
@@ -905,7 +902,7 @@
         <v>231.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="36">
@@ -913,13 +910,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="37">
@@ -933,7 +930,7 @@
         <v>227.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="38">
@@ -947,7 +944,7 @@
         <v>227.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="39">
@@ -961,7 +958,7 @@
         <v>227.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="40">
@@ -975,7 +972,7 @@
         <v>227.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="41">
@@ -989,7 +986,7 @@
         <v>227.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="42">
@@ -1003,7 +1000,7 @@
         <v>227.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="43">
@@ -1017,7 +1014,7 @@
         <v>227.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="44">
@@ -1031,7 +1028,7 @@
         <v>227.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="45">
@@ -1045,7 +1042,7 @@
         <v>227.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="46">
@@ -1059,7 +1056,7 @@
         <v>227.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="47">
@@ -1067,13 +1064,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="48">
@@ -1087,7 +1084,7 @@
         <v>228.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="49">
@@ -1101,7 +1098,7 @@
         <v>228.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="50">
@@ -1109,13 +1106,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="51">
@@ -1129,7 +1126,7 @@
         <v>233.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="52">
@@ -1143,7 +1140,7 @@
         <v>233.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="53">
@@ -1157,7 +1154,7 @@
         <v>233.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="54">
@@ -1165,13 +1162,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="55">
@@ -1185,7 +1182,7 @@
         <v>232.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="56">
@@ -1199,7 +1196,7 @@
         <v>232.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="57">
@@ -1207,13 +1204,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="58">
@@ -1227,7 +1224,7 @@
         <v>230.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1238,7 @@
         <v>230.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="60">
@@ -1255,7 +1252,7 @@
         <v>230.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="61">
@@ -1263,13 +1260,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="62">
@@ -1283,7 +1280,7 @@
         <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="63">
@@ -1297,7 +1294,7 @@
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="64">
@@ -1305,13 +1302,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C64" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="65">
@@ -1325,7 +1322,7 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="66">
@@ -1339,7 +1336,7 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="67">
@@ -1353,7 +1350,7 @@
         <v>231.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="68">
@@ -1361,13 +1358,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="69">
@@ -1381,7 +1378,7 @@
         <v>223.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="70">
@@ -1395,7 +1392,7 @@
         <v>223.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="71">
@@ -1403,13 +1400,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="72">
@@ -1423,7 +1420,7 @@
         <v>222.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="73">
@@ -1437,7 +1434,7 @@
         <v>222.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="74">
@@ -1451,7 +1448,7 @@
         <v>222.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="75">
@@ -1459,13 +1456,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="76">
@@ -1479,7 +1476,7 @@
         <v>223.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>95.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="77">
@@ -1493,7 +1490,7 @@
         <v>223.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>124.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="78">
@@ -1501,13 +1498,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>76.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="79">
@@ -1521,7 +1518,7 @@
         <v>220.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>351.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="80">
@@ -1535,7 +1532,7 @@
         <v>220.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>208.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="81">
@@ -1549,7 +1546,7 @@
         <v>220.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>75.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="82">
@@ -1557,13 +1554,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>320.0</v>
+        <v>334.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>220.0</v>
+        <v>216.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>329.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="83">
@@ -1577,7 +1574,7 @@
         <v>216.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>101.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="84">
@@ -1591,7 +1588,7 @@
         <v>216.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>179.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="85">
@@ -1599,13 +1596,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>334.0</v>
+        <v>345.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>216.0</v>
+        <v>212.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>358.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="86">
@@ -1619,7 +1616,7 @@
         <v>212.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>208.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="87">
@@ -1633,7 +1630,7 @@
         <v>212.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>92.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="88">
@@ -1647,20 +1644,6 @@
         <v>212.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>345.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>212.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>86.0</v>
       </c>
     </row>
@@ -1679,27 +1662,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>107.0</v>
@@ -1707,13 +1690,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>74.0</v>
@@ -1721,13 +1704,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1735,13 +1718,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>48.0</v>
@@ -1749,13 +1732,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>5.0</v>
@@ -1763,13 +1746,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>28.0</v>
@@ -1777,13 +1760,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1791,13 +1774,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>109</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1805,13 +1788,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>20.0</v>
@@ -1832,27 +1815,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1873,18 +1856,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>114</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -29,15 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-20</t>
+    <t>2025-11-21</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
     <t>2025-11-22</t>
   </si>
   <si>
@@ -291,6 +288,15 @@
   </si>
   <si>
     <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>2026-02-17</t>
   </si>
   <si>
     <t>Reason</t>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -440,21 +446,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>213.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
@@ -462,13 +468,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>127.0</v>
+        <v>180.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>213.0</v>
+        <v>225.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +488,7 @@
         <v>225.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +502,7 @@
         <v>225.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +516,7 @@
         <v>225.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +530,7 @@
         <v>225.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +544,7 @@
         <v>225.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +558,7 @@
         <v>225.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="11">
@@ -566,7 +572,7 @@
         <v>225.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +586,7 @@
         <v>225.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +600,7 @@
         <v>225.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="14">
@@ -608,7 +614,7 @@
         <v>225.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="15">
@@ -622,7 +628,7 @@
         <v>225.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="16">
@@ -636,7 +642,7 @@
         <v>225.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="17">
@@ -664,7 +670,7 @@
         <v>225.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +684,7 @@
         <v>225.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +698,7 @@
         <v>225.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>89.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="21">
@@ -706,7 +712,7 @@
         <v>225.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +726,7 @@
         <v>225.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>52.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="23">
@@ -734,7 +740,7 @@
         <v>225.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>62.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="24">
@@ -748,7 +754,7 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>79.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="25">
@@ -762,7 +768,7 @@
         <v>225.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,7 +782,7 @@
         <v>225.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="27">
@@ -784,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="28">
@@ -804,7 +810,7 @@
         <v>231.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>70.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="29">
@@ -818,7 +824,7 @@
         <v>231.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>54.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +838,7 @@
         <v>231.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="31">
@@ -846,7 +852,7 @@
         <v>231.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="32">
@@ -860,7 +866,7 @@
         <v>231.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="33">
@@ -874,7 +880,7 @@
         <v>231.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>54.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,7 +894,7 @@
         <v>231.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>79.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="35">
@@ -896,13 +902,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="36">
@@ -916,7 +922,7 @@
         <v>227.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="37">
@@ -930,7 +936,7 @@
         <v>227.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>50.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="38">
@@ -944,7 +950,7 @@
         <v>227.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="39">
@@ -958,7 +964,7 @@
         <v>227.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>59.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="40">
@@ -972,7 +978,7 @@
         <v>227.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="41">
@@ -986,7 +992,7 @@
         <v>227.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="42">
@@ -1000,7 +1006,7 @@
         <v>227.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>36.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="43">
@@ -1014,7 +1020,7 @@
         <v>227.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,7 +1034,7 @@
         <v>227.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="45">
@@ -1042,7 +1048,7 @@
         <v>227.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="46">
@@ -1050,13 +1056,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,7 +1076,7 @@
         <v>228.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>90.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,7 +1090,7 @@
         <v>228.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="49">
@@ -1092,13 +1098,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>79.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="50">
@@ -1112,7 +1118,7 @@
         <v>233.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>66.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,7 +1132,7 @@
         <v>233.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>58.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="52">
@@ -1140,7 +1146,7 @@
         <v>233.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>169.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="53">
@@ -1148,13 +1154,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,7 +1174,7 @@
         <v>232.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>83.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,7 +1188,7 @@
         <v>232.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>92.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="56">
@@ -1190,13 +1196,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>183.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="57">
@@ -1210,7 +1216,7 @@
         <v>230.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>136.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,7 +1230,7 @@
         <v>230.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>182.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,7 +1244,7 @@
         <v>230.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>140.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="60">
@@ -1246,13 +1252,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>80.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,7 +1272,7 @@
         <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>50.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,7 +1286,7 @@
         <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="63">
@@ -1288,13 +1294,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C63" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>79.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="64">
@@ -1308,7 +1314,7 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>47.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,7 +1328,7 @@
         <v>231.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,7 +1342,7 @@
         <v>231.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>89.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="67">
@@ -1344,13 +1350,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>309.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,7 +1370,7 @@
         <v>223.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,7 +1384,7 @@
         <v>223.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>85.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="70">
@@ -1386,13 +1392,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="71">
@@ -1406,7 +1412,7 @@
         <v>222.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>90.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,7 +1426,7 @@
         <v>222.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>177.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,7 +1440,7 @@
         <v>222.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>117.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="74">
@@ -1442,13 +1448,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>105.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,7 +1468,7 @@
         <v>223.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>95.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,7 +1482,7 @@
         <v>223.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>124.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="77">
@@ -1484,13 +1490,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>76.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="78">
@@ -1504,7 +1510,7 @@
         <v>220.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>351.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,7 +1524,7 @@
         <v>220.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>208.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,7 +1538,7 @@
         <v>220.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>75.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,13 +1546,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>320.0</v>
+        <v>334.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>220.0</v>
+        <v>216.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>329.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,7 +1566,7 @@
         <v>216.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>101.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,7 +1580,7 @@
         <v>216.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>179.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="84">
@@ -1582,13 +1588,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>334.0</v>
+        <v>345.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>216.0</v>
+        <v>212.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>358.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="85">
@@ -1602,7 +1608,7 @@
         <v>212.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>208.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,7 +1622,7 @@
         <v>212.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>92.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,7 +1636,7 @@
         <v>212.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>90.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="88">
@@ -1638,13 +1644,41 @@
         <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>345.0</v>
+        <v>351.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>212.0</v>
+        <v>208.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>86.0</v>
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1662,27 +1696,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>107.0</v>
@@ -1690,13 +1724,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>74.0</v>
@@ -1704,13 +1738,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1718,27 +1752,27 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>5.0</v>
@@ -1746,27 +1780,27 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1774,13 +1808,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>0.0</v>
@@ -1788,13 +1822,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D10" t="n" s="0">
         <v>20.0</v>
@@ -1815,27 +1849,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1856,18 +1890,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Coverage.xlsx
+++ b/gsc-export/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -29,18 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-21</t>
+    <t>2025-11-23</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
-  </si>
-  <si>
     <t>2025-11-24</t>
   </si>
   <si>
@@ -344,13 +338,10 @@
     <t>Blocked by robots.txt</t>
   </si>
   <si>
-    <t>Server error (5xx)</t>
+    <t>Discovered - currently not indexed</t>
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>Discovered - currently not indexed</t>
   </si>
   <si>
     <t>Indexed, though blocked by robots.txt</t>
@@ -415,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -446,74 +437,74 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>127.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>213.0</v>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>225.0</v>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>225.0</v>
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B6" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>225.0</v>
+      <c r="B6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B7" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>225.0</v>
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>42.0</v>
@@ -523,224 +514,224 @@
       <c r="A8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B8" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>225.0</v>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>47.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B9" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>225.0</v>
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B10" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>225.0</v>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>24.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B11" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>225.0</v>
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>43.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B12" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C12" t="n" s="0">
-        <v>225.0</v>
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>53.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B13" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C13" t="n" s="0">
-        <v>225.0</v>
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B14" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C14" t="n" s="0">
-        <v>225.0</v>
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B15" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C15" t="n" s="0">
-        <v>225.0</v>
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B16" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C16" t="n" s="0">
-        <v>225.0</v>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B17" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C17" t="n" s="0">
-        <v>225.0</v>
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>29.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B18" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C18" t="n" s="0">
-        <v>225.0</v>
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>36.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B19" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C19" t="n" s="0">
-        <v>225.0</v>
+      <c r="B19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>89.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B20" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C20" t="n" s="0">
-        <v>225.0</v>
+      <c r="B20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B21" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C21" t="n" s="0">
-        <v>225.0</v>
+      <c r="B21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>52.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B22" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C22" t="n" s="0">
-        <v>225.0</v>
+      <c r="B22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>62.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B23" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="C23" t="n" s="0">
-        <v>225.0</v>
+      <c r="B23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>79.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="24">
@@ -754,7 +745,7 @@
         <v>225.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="25">
@@ -762,13 +753,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>51.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="26">
@@ -776,13 +767,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>225.0</v>
+        <v>231.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>55.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="27">
@@ -796,7 +787,7 @@
         <v>231.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>70.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="28">
@@ -810,7 +801,7 @@
         <v>231.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="29">
@@ -824,7 +815,7 @@
         <v>231.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>83.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="30">
@@ -838,7 +829,7 @@
         <v>231.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>63.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="31">
@@ -852,7 +843,7 @@
         <v>231.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>57.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="32">
@@ -874,13 +865,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>79.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="34">
@@ -888,13 +879,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>200.0</v>
+        <v>244.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>231.0</v>
+        <v>227.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>54.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="35">
@@ -908,7 +899,7 @@
         <v>227.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>51.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="36">
@@ -922,7 +913,7 @@
         <v>227.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="37">
@@ -936,7 +927,7 @@
         <v>227.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>62.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="38">
@@ -950,7 +941,7 @@
         <v>227.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>59.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="39">
@@ -964,7 +955,7 @@
         <v>227.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="40">
@@ -978,7 +969,7 @@
         <v>227.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>40.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="41">
@@ -992,7 +983,7 @@
         <v>227.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="42">
@@ -1006,7 +997,7 @@
         <v>227.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>72.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="43">
@@ -1020,7 +1011,7 @@
         <v>227.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>39.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="44">
@@ -1028,13 +1019,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>46.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="45">
@@ -1042,13 +1033,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>244.0</v>
+        <v>246.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>84.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="46">
@@ -1062,7 +1053,7 @@
         <v>228.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>90.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="47">
@@ -1070,13 +1061,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>73.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="48">
@@ -1084,13 +1075,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>246.0</v>
+        <v>266.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>79.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="49">
@@ -1104,7 +1095,7 @@
         <v>233.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>66.0</v>
+        <v>169.0</v>
       </c>
     </row>
     <row r="50">
@@ -1118,7 +1109,7 @@
         <v>233.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>58.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="51">
@@ -1126,13 +1117,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>169.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="52">
@@ -1140,13 +1131,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>266.0</v>
+        <v>271.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>233.0</v>
+        <v>232.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>183.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="53">
@@ -1160,7 +1151,7 @@
         <v>232.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>83.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="54">
@@ -1168,13 +1159,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>92.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="55">
@@ -1182,13 +1173,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>271.0</v>
+        <v>281.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="56">
@@ -1202,7 +1193,7 @@
         <v>230.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>136.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="57">
@@ -1216,7 +1207,7 @@
         <v>230.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>182.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="58">
@@ -1224,13 +1215,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>140.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="59">
@@ -1238,13 +1229,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>281.0</v>
+        <v>292.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>80.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="60">
@@ -1258,7 +1249,7 @@
         <v>231.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>50.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="61">
@@ -1266,13 +1257,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C61" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>68.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="62">
@@ -1280,13 +1271,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="C62" t="n" s="0">
         <v>231.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>79.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="63">
@@ -1300,7 +1291,7 @@
         <v>231.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>47.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="64">
@@ -1314,7 +1305,7 @@
         <v>231.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>96.0</v>
+        <v>309.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,13 +1313,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>89.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="66">
@@ -1336,13 +1327,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>293.0</v>
+        <v>304.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>309.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="67">
@@ -1356,7 +1347,7 @@
         <v>223.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>70.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="68">
@@ -1364,13 +1355,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="69">
@@ -1378,13 +1369,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>304.0</v>
+        <v>310.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>91.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="70">
@@ -1398,7 +1389,7 @@
         <v>222.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>90.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="71">
@@ -1412,7 +1403,7 @@
         <v>222.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>177.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="72">
@@ -1420,13 +1411,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>117.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="73">
@@ -1434,13 +1425,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>310.0</v>
+        <v>314.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>105.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="74">
@@ -1454,7 +1445,7 @@
         <v>223.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>95.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="75">
@@ -1462,13 +1453,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>124.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="76">
@@ -1476,13 +1467,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>314.0</v>
+        <v>320.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>223.0</v>
+        <v>220.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>76.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="77">
@@ -1496,7 +1487,7 @@
         <v>220.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>351.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="78">
@@ -1510,7 +1501,7 @@
         <v>220.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>208.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="79">
@@ -1518,13 +1509,13 @@
         <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>320.0</v>
+        <v>334.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>220.0</v>
+        <v>216.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>75.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="80">
@@ -1532,13 +1523,13 @@
         <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>320.0</v>
+        <v>334.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>220.0</v>
+        <v>216.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>329.0</v>
+        <v>179.0</v>
       </c>
     </row>
     <row r="81">
@@ -1552,7 +1543,7 @@
         <v>216.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>101.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="82">
@@ -1560,13 +1551,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>334.0</v>
+        <v>345.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>216.0</v>
+        <v>212.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>179.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="83">
@@ -1574,13 +1565,13 @@
         <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>334.0</v>
+        <v>345.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>216.0</v>
+        <v>212.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>358.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="84">
@@ -1594,7 +1585,7 @@
         <v>212.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>208.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="85">
@@ -1608,7 +1599,7 @@
         <v>212.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>92.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="86">
@@ -1616,13 +1607,13 @@
         <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>345.0</v>
+        <v>351.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>212.0</v>
+        <v>208.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>90.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="87">
@@ -1630,13 +1621,13 @@
         <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>345.0</v>
+        <v>351.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>212.0</v>
+        <v>208.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>86.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="88">
@@ -1650,35 +1641,7 @@
         <v>208.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>351.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>208.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
-        <v>106.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>351.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>208.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>5</v>
+        <v>73.0</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1651,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1696,27 +1659,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>107.0</v>
@@ -1724,13 +1687,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>74.0</v>
@@ -1738,13 +1701,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>62.0</v>
@@ -1752,13 +1715,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>52.0</v>
@@ -1766,13 +1729,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>5.0</v>
@@ -1780,13 +1743,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>30.0</v>
@@ -1794,13 +1757,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>1.0</v>
@@ -1808,29 +1771,15 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="D10" t="n" s="0">
         <v>20.0</v>
       </c>
     </row>
@@ -1849,27 +1798,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>1.0</v>
@@ -1890,18 +1839,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
